--- a/SuppXLS/Scen_TRA_BAU.xlsx
+++ b/SuppXLS/Scen_TRA_BAU.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Irish-TIMES-model\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_Irish-TIMES-model\VA_Transport\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BAB771-06DD-4F88-8166-B90F87CC07B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8490B6D-3EE9-427E-B8A2-8ED8BECC1C0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -969,12 +969,12 @@
     <sheetNames>
       <sheetName val="Cover"/>
       <sheetName val="Intro"/>
-      <sheetName val="Notes"/>
       <sheetName val="EB2018"/>
       <sheetName val="Regions"/>
       <sheetName val="Primary"/>
       <sheetName val="Secondary"/>
       <sheetName val="Commodities"/>
+      <sheetName val="Blending"/>
       <sheetName val="Stock"/>
       <sheetName val="Demands"/>
       <sheetName val="On-Road Fac."/>
@@ -989,8 +989,7 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
+      <sheetData sheetId="6">
         <row r="8">
           <cell r="K8" t="str">
             <v>TWLK_WLK</v>
@@ -1006,18 +1005,18 @@
             <v>TMOT_GSL_00</v>
           </cell>
         </row>
-        <row r="18">
-          <cell r="B18" t="str">
+        <row r="22">
+          <cell r="B22" t="str">
             <v>TRAPS</v>
           </cell>
         </row>
-        <row r="19">
-          <cell r="B19" t="str">
+        <row r="23">
+          <cell r="B23" t="str">
             <v>TRAPM</v>
           </cell>
         </row>
-        <row r="20">
-          <cell r="B20" t="str">
+        <row r="24">
+          <cell r="B24" t="str">
             <v>TRAPL</v>
           </cell>
         </row>
@@ -1032,6 +1031,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9">
         <row r="4">
@@ -5019,7 +5019,7 @@
   <dimension ref="B6:AO75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5205,7 +5205,7 @@
         <v>TWLK_WLK</v>
       </c>
       <c r="H11" t="str">
-        <f>[1]Commodities!$B$18</f>
+        <f>[1]Commodities!B22</f>
         <v>TRAPS</v>
       </c>
       <c r="J11">
@@ -6778,7 +6778,7 @@
         <v>TWLK_WLK</v>
       </c>
       <c r="H35" t="str">
-        <f>[1]Commodities!$B$19</f>
+        <f>[1]Commodities!B23</f>
         <v>TRAPM</v>
       </c>
       <c r="J35">
@@ -8397,7 +8397,7 @@
       <c r="F60" s="32"/>
       <c r="G60" s="32"/>
       <c r="H60" s="32" t="str">
-        <f>[1]Commodities!$B$20</f>
+        <f>[1]Commodities!B24</f>
         <v>TRAPL</v>
       </c>
       <c r="I60" s="32"/>

--- a/SuppXLS/Scen_TRA_BAU.xlsx
+++ b/SuppXLS/Scen_TRA_BAU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73595023-0D0B-4C2C-8040-62B413DFE1D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9181FA01-13E0-4D74-BECB-D2AF109EC065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1910,6 +1910,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C030FF-C503-4743-9DBD-437AEB1E949D}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A3:AD37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -4516,111 +4517,111 @@
         <v>229</v>
       </c>
       <c r="N26" s="77">
-        <f>SUM(N11:N24)</f>
+        <f t="shared" ref="N26:AN26" si="7">SUM(N11:N24)</f>
         <v>1.0000000000000002</v>
       </c>
       <c r="O26" s="77">
-        <f>SUM(O11:O24)</f>
+        <f t="shared" si="7"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="P26" s="77">
-        <f>SUM(P11:P24)</f>
+        <f t="shared" si="7"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="Q26" s="77">
-        <f>SUM(Q11:Q24)</f>
+        <f t="shared" si="7"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="R26" s="77">
-        <f>SUM(R11:R24)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S26" s="77">
-        <f>SUM(S11:S24)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T26" s="77">
-        <f>SUM(T11:T24)</f>
+        <f t="shared" si="7"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="U26" s="77">
-        <f>SUM(U11:U24)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V26" s="77">
-        <f>SUM(V11:V24)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="W26" s="77">
-        <f>SUM(W11:W24)</f>
+        <f t="shared" si="7"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="X26" s="77">
-        <f>SUM(X11:X24)</f>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="Y26" s="77">
-        <f>SUM(Y11:Y24)</f>
+        <f t="shared" si="7"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="Z26" s="77">
-        <f>SUM(Z11:Z24)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AA26" s="77">
-        <f>SUM(AA11:AA24)</f>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="AB26" s="77">
-        <f>SUM(AB11:AB24)</f>
+        <f t="shared" si="7"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="AC26" s="77">
-        <f>SUM(AC11:AC24)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AD26" s="77">
-        <f>SUM(AD11:AD24)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AE26" s="77">
-        <f>SUM(AE11:AE24)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AF26" s="77">
-        <f>SUM(AF11:AF24)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AG26" s="77">
-        <f>SUM(AG11:AG24)</f>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="AH26" s="77">
-        <f>SUM(AH11:AH24)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AI26" s="77">
-        <f>SUM(AI11:AI24)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AJ26" s="77">
-        <f>SUM(AJ11:AJ24)</f>
+        <f t="shared" si="7"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="AK26" s="77">
-        <f>SUM(AK11:AK24)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AL26" s="77">
-        <f>SUM(AL11:AL24)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AM26" s="77">
-        <f>SUM(AM11:AM24)</f>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="AN26" s="77">
-        <f>SUM(AN11:AN24)</f>
+        <f t="shared" si="7"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -4811,107 +4812,107 @@
         <v>3.2739468688573266E-3</v>
       </c>
       <c r="O33" s="27">
-        <f t="shared" ref="O33:AN33" si="7">D154</f>
+        <f t="shared" ref="O33:AN33" si="8">D154</f>
         <v>2.1586268841599747E-3</v>
       </c>
       <c r="P33" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.3137182635283444E-3</v>
       </c>
       <c r="Q33" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.6319751739066989E-3</v>
       </c>
       <c r="R33" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.5491869155235955E-3</v>
       </c>
       <c r="S33" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6941154698507114E-3</v>
       </c>
       <c r="T33" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.2883004760979389E-3</v>
       </c>
       <c r="U33" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4416088687366478E-3</v>
       </c>
       <c r="V33" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.5159102982178412E-3</v>
       </c>
       <c r="W33" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3185344885490013E-3</v>
       </c>
       <c r="X33" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.939754742265497E-3</v>
       </c>
       <c r="Y33" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3151523856669103E-3</v>
       </c>
       <c r="Z33" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.906666915379246E-3</v>
       </c>
       <c r="AA33" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.2306073901205486E-3</v>
       </c>
       <c r="AB33" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9969766503394092E-3</v>
       </c>
       <c r="AC33" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4423953155841079E-3</v>
       </c>
       <c r="AD33" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.8914591982090753E-3</v>
       </c>
       <c r="AE33" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9812499263931389E-3</v>
       </c>
       <c r="AF33" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.5441732524901714E-3</v>
       </c>
       <c r="AG33" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1106258862285242E-3</v>
       </c>
       <c r="AH33" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI33" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9054783663146626E-3</v>
       </c>
       <c r="AJ33" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.7694736792673005E-3</v>
       </c>
       <c r="AK33" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1690169741061518E-3</v>
       </c>
       <c r="AL33" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.996201699404686E-3</v>
       </c>
       <c r="AM33" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1678265957034699E-3</v>
       </c>
       <c r="AN33" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9708873200458749E-3</v>
       </c>
       <c r="AO33" s="27">
@@ -4986,107 +4987,107 @@
         <v>0.83405572391255312</v>
       </c>
       <c r="O35" s="27">
-        <f t="shared" ref="O35:AN35" si="8">D155</f>
+        <f t="shared" ref="O35:AN35" si="9">D155</f>
         <v>0.88136996225712338</v>
       </c>
       <c r="P35" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.7240198055510555</v>
       </c>
       <c r="Q35" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85033097733510543</v>
       </c>
       <c r="R35" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.81358360125192186</v>
       </c>
       <c r="S35" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.88000079438796519</v>
       </c>
       <c r="T35" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.86292967512561713</v>
       </c>
       <c r="U35" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.84991917486050839</v>
       </c>
       <c r="V35" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.87489878054676506</v>
       </c>
       <c r="W35" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.84396948853578213</v>
       </c>
       <c r="X35" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.89058577172865516</v>
       </c>
       <c r="Y35" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.88596847722847849</v>
       </c>
       <c r="Z35" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.87519253516054751</v>
       </c>
       <c r="AA35" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.89017909286971042</v>
       </c>
       <c r="AB35" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.88395825319439558</v>
       </c>
       <c r="AC35" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.80306472393989703</v>
       </c>
       <c r="AD35" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.88153417928289457</v>
       </c>
       <c r="AE35" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.87036679499941227</v>
       </c>
       <c r="AF35" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.89725064481847272</v>
       </c>
       <c r="AG35" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.84303694258501916</v>
       </c>
       <c r="AH35" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.88919219682824724</v>
       </c>
       <c r="AI35" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.83536706688667051</v>
       </c>
       <c r="AJ35" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.90275636290048633</v>
       </c>
       <c r="AK35" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.87891574758893642</v>
       </c>
       <c r="AL35" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.9444737396739924</v>
       </c>
       <c r="AM35" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.97631596747347482</v>
       </c>
       <c r="AN35" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.7484312106638259</v>
       </c>
       <c r="AO35" s="27">
@@ -5161,107 +5162,107 @@
         <v>2.1905905312439161E-2</v>
       </c>
       <c r="O37" s="27">
-        <f t="shared" ref="O37:AN37" si="9">D156</f>
+        <f t="shared" ref="O37:AN37" si="10">D156</f>
         <v>9.3709663140288998E-3</v>
       </c>
       <c r="P37" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.6013893098741668E-2</v>
       </c>
       <c r="Q37" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.8394858695029128E-2</v>
       </c>
       <c r="R37" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.9598084318994508E-3</v>
       </c>
       <c r="S37" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.3237997918849932E-2</v>
       </c>
       <c r="T37" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1420057155050359E-2</v>
       </c>
       <c r="U37" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.6498598054231513E-2</v>
       </c>
       <c r="V37" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.5642116158186581E-2</v>
       </c>
       <c r="W37" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.6437934593511252E-3</v>
       </c>
       <c r="X37" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.5314370184172183E-2</v>
       </c>
       <c r="Y37" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.9154020817384443E-3</v>
       </c>
       <c r="Z37" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1871653704006174E-2</v>
       </c>
       <c r="AA37" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.3089641552029165E-2</v>
       </c>
       <c r="AB37" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.6194784858342321E-2</v>
       </c>
       <c r="AC37" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.272342398540301E-2</v>
       </c>
       <c r="AD37" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.6945626580446856E-2</v>
       </c>
       <c r="AE37" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.4710564013944778E-3</v>
       </c>
       <c r="AF37" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1282963024401618E-2</v>
       </c>
       <c r="AG37" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.7408913059663488E-2</v>
       </c>
       <c r="AH37" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0528920260910977E-2</v>
       </c>
       <c r="AI37" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.0992061135074936E-3</v>
       </c>
       <c r="AJ37" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.6815860877352945E-3</v>
       </c>
       <c r="AK37" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.129928575321087E-2</v>
       </c>
       <c r="AL37" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.2132191360051241E-2</v>
       </c>
       <c r="AM37" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.4116355738962196E-2</v>
       </c>
       <c r="AN37" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.1335741680296381E-3</v>
       </c>
       <c r="AO37" s="27">
@@ -5336,107 +5337,107 @@
         <v>0.13420523697456904</v>
       </c>
       <c r="O39" s="27">
-        <f t="shared" ref="O39:AN39" si="10">D157</f>
+        <f t="shared" ref="O39:AN39" si="11">D157</f>
         <v>0.10710044454468777</v>
       </c>
       <c r="P39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.19873794082808949</v>
       </c>
       <c r="Q39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.12764218879595873</v>
       </c>
       <c r="R39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17390740340065505</v>
       </c>
       <c r="S39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.10506709222333424</v>
       </c>
       <c r="T39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.12236196724323453</v>
       </c>
       <c r="U39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.12114061821652349</v>
       </c>
       <c r="V39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.5943192996830379E-2</v>
       </c>
       <c r="W39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.14406818351631784</v>
       </c>
       <c r="X39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.1160103344907026E-2</v>
       </c>
       <c r="Y39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.10280096830411618</v>
       </c>
       <c r="Z39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.1090291442200671</v>
       </c>
       <c r="AA39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.3500658188139713E-2</v>
       </c>
       <c r="AB39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.5849985296922749E-2</v>
       </c>
       <c r="AC39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18176945675911579</v>
       </c>
       <c r="AD39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.8628734938449439E-2</v>
       </c>
       <c r="AE39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.1201808986728002</v>
       </c>
       <c r="AF39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.7922218904635543E-2</v>
       </c>
       <c r="AG39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.13744351846908884</v>
       </c>
       <c r="AH39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.10027888291084175</v>
       </c>
       <c r="AI39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.15362824863350735</v>
       </c>
       <c r="AJ39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.779257733251114E-2</v>
       </c>
       <c r="AK39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.10761594968374652</v>
       </c>
       <c r="AL39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.1397867266551647E-2</v>
       </c>
       <c r="AM39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.3998501918595234E-3</v>
       </c>
       <c r="AN39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.24446432784809863</v>
       </c>
       <c r="AO39" s="27">
@@ -5515,107 +5516,107 @@
         <v>6.559186931581344E-3</v>
       </c>
       <c r="O41" s="31">
-        <f t="shared" ref="O41:AN41" si="11">D158</f>
+        <f t="shared" ref="O41:AN41" si="12">D158</f>
         <v>0</v>
       </c>
       <c r="P41" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.6914642258584892E-2</v>
       </c>
       <c r="Q41" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R41" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S41" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T41" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U41" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V41" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W41" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X41" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y41" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z41" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA41" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB41" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC41" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD41" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE41" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF41" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AG41" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH41" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI41" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ41" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK41" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL41" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM41" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN41" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO41" s="31">
@@ -5674,111 +5675,111 @@
         <v>229</v>
       </c>
       <c r="N44" s="77">
-        <f>SUM(N33:N42)</f>
+        <f t="shared" ref="N44:AN44" si="13">SUM(N33:N42)</f>
         <v>1</v>
       </c>
       <c r="O44" s="77">
-        <f>SUM(O33:O42)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="P44" s="77">
-        <f>SUM(P33:P42)</f>
+        <f t="shared" si="13"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="Q44" s="77">
-        <f>SUM(Q33:Q42)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="R44" s="77">
-        <f>SUM(R33:R42)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="S44" s="77">
-        <f>SUM(S33:S42)</f>
+        <f t="shared" si="13"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="T44" s="77">
-        <f>SUM(T33:T42)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U44" s="77">
-        <f>SUM(U33:U42)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V44" s="77">
-        <f>SUM(V33:V42)</f>
+        <f t="shared" si="13"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="W44" s="77">
-        <f>SUM(W33:W42)</f>
+        <f t="shared" si="13"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="X44" s="77">
-        <f>SUM(X33:X42)</f>
+        <f t="shared" si="13"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="Y44" s="77">
-        <f>SUM(Y33:Y42)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Z44" s="77">
-        <f>SUM(Z33:Z42)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AA44" s="77">
-        <f>SUM(AA33:AA42)</f>
+        <f t="shared" si="13"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="AB44" s="77">
-        <f>SUM(AB33:AB42)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AC44" s="77">
-        <f>SUM(AC33:AC42)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AD44" s="77">
-        <f>SUM(AD33:AD42)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AE44" s="77">
-        <f>SUM(AE33:AE42)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AF44" s="77">
-        <f>SUM(AF33:AF42)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AG44" s="77">
-        <f>SUM(AG33:AG42)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AH44" s="77">
-        <f>SUM(AH33:AH42)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AI44" s="77">
-        <f>SUM(AI33:AI42)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AJ44" s="77">
-        <f>SUM(AJ33:AJ42)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AK44" s="77">
-        <f>SUM(AK33:AK42)</f>
+        <f t="shared" si="13"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="AL44" s="77">
-        <f>SUM(AL33:AL42)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AM44" s="77">
-        <f>SUM(AM33:AM42)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AN44" s="77">
-        <f>SUM(AN33:AN42)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -6011,107 +6012,107 @@
         <v>0.74108639947108168</v>
       </c>
       <c r="O52" s="31">
-        <f t="shared" ref="O52:AN52" si="12">D169</f>
+        <f t="shared" ref="O52:AN52" si="14">D169</f>
         <v>0.79071880912169545</v>
       </c>
       <c r="P52" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.6386131571238467</v>
       </c>
       <c r="Q52" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.75580744416441215</v>
       </c>
       <c r="R52" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.71320246300225565</v>
       </c>
       <c r="S52" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.78115676031065473</v>
       </c>
       <c r="T52" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.76642349622098382</v>
       </c>
       <c r="U52" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.74828496387185417</v>
       </c>
       <c r="V52" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.78640329755658556</v>
       </c>
       <c r="W52" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.74588309703681677</v>
       </c>
       <c r="X52" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.80172469534468704</v>
       </c>
       <c r="Y52" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.79583426304303684</v>
       </c>
       <c r="Z52" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.77907090765006382</v>
       </c>
       <c r="AA52" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.80155723993574601</v>
       </c>
       <c r="AB52" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.78887154985237196</v>
       </c>
       <c r="AC52" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.70533422841274862</v>
       </c>
       <c r="AD52" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.78717070970762593</v>
       </c>
       <c r="AE52" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.77916775606401434</v>
       </c>
       <c r="AF52" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.80467495581567261</v>
       </c>
       <c r="AG52" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.74505854970828844</v>
       </c>
       <c r="AH52" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.79514890678426453</v>
       </c>
       <c r="AI52" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.73736495113760858</v>
       </c>
       <c r="AJ52" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.81853938082108479</v>
       </c>
       <c r="AK52" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.77998817627338324</v>
       </c>
       <c r="AL52" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.85154985463859412</v>
       </c>
       <c r="AM52" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.88006272796227247</v>
       </c>
       <c r="AN52" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.64231184378282558</v>
       </c>
       <c r="AO52" s="31">
@@ -6199,107 +6200,107 @@
         <v>1.214216695359136E-2</v>
       </c>
       <c r="O54" s="31">
-        <f t="shared" ref="O54:AN54" si="13">D170</f>
+        <f t="shared" ref="O54:AN54" si="15">D170</f>
         <v>5.244564356444866E-3</v>
       </c>
       <c r="P54" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.5318479036608464E-2</v>
       </c>
       <c r="Q54" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0199545943263343E-2</v>
       </c>
       <c r="R54" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.4465670112681473E-3</v>
       </c>
       <c r="S54" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7.3305854058422536E-3</v>
       </c>
       <c r="T54" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.327365203104513E-3</v>
       </c>
       <c r="U54" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.4553702960433654E-2</v>
       </c>
       <c r="V54" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.4378136289327563E-2</v>
       </c>
       <c r="W54" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.7655125577413509E-3</v>
       </c>
       <c r="X54" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8.6002260738130814E-3</v>
       </c>
       <c r="Y54" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.4354589246647135E-3</v>
       </c>
       <c r="Z54" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.592434448494537E-3</v>
       </c>
       <c r="AA54" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7.3526877521562662E-3</v>
       </c>
       <c r="AB54" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.0159384819168999E-3</v>
       </c>
       <c r="AC54" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.9712334769449829E-3</v>
       </c>
       <c r="AD54" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.4394919428535985E-3</v>
       </c>
       <c r="AE54" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.6138078846859318E-3</v>
       </c>
       <c r="AF54" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.3123502546919919E-3</v>
       </c>
       <c r="AG54" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.5979099500525071E-3</v>
       </c>
       <c r="AH54" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8735122381989901E-3</v>
       </c>
       <c r="AI54" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0103707288089395E-3</v>
       </c>
       <c r="AJ54" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.3449135578945168E-3</v>
       </c>
       <c r="AK54" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.2553697184935773E-3</v>
       </c>
       <c r="AL54" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.8237115745591239E-3</v>
       </c>
       <c r="AM54" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7.9379260453763534E-3</v>
       </c>
       <c r="AN54" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.7483693665086213E-3</v>
       </c>
       <c r="AO54" s="31">
@@ -6387,107 +6388,107 @@
         <v>0.1626965950818042</v>
       </c>
       <c r="O56" s="31">
-        <f t="shared" ref="O56:AN56" si="14">D171</f>
+        <f t="shared" ref="O56:AN56" si="16">D171</f>
         <v>0.13109626623170204</v>
       </c>
       <c r="P56" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.23916819504950479</v>
       </c>
       <c r="Q56" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.15479346868381608</v>
       </c>
       <c r="R56" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.20800029152740038</v>
       </c>
       <c r="S56" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.12724978858051844</v>
       </c>
       <c r="T56" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.14827744084788594</v>
       </c>
       <c r="U56" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.14551722418000443</v>
       </c>
       <c r="V56" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.11766218454461841</v>
       </c>
       <c r="W56" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.17371900154534914</v>
       </c>
       <c r="X56" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.11196687123703571</v>
       </c>
       <c r="Y56" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.12599020808803368</v>
       </c>
       <c r="Z56" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.13241927644257739</v>
       </c>
       <c r="AA56" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.11487011188674058</v>
       </c>
       <c r="AB56" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.11670831913312733</v>
       </c>
       <c r="AC56" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.2178213998684824</v>
       </c>
       <c r="AD56" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.12016236232976817</v>
       </c>
       <c r="AE56" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.14679096653005977</v>
       </c>
       <c r="AF56" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.10758223700696061</v>
       </c>
       <c r="AG56" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.1657308225029282</v>
       </c>
       <c r="AH56" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.12234818626194599</v>
       </c>
       <c r="AI56" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.18501691930313938</v>
       </c>
       <c r="AJ56" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.10860805699514527</v>
       </c>
       <c r="AK56" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.13030246782805119</v>
       </c>
       <c r="AL56" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5.0925275195199252E-2</v>
       </c>
       <c r="AM56" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9.1008381034736394E-3</v>
       </c>
       <c r="AN56" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.28624951607603277</v>
       </c>
       <c r="AO56" s="31">
@@ -6575,107 +6576,107 @@
         <v>8.4074838493522847E-2</v>
       </c>
       <c r="O58" s="31">
-        <f t="shared" ref="O58:AN58" si="15">D173</f>
+        <f t="shared" ref="O58:AN58" si="17">D173</f>
         <v>7.2940360290157685E-2</v>
       </c>
       <c r="P58" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.6900168790040125E-2</v>
       </c>
       <c r="Q58" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.91995412085085E-2</v>
       </c>
       <c r="R58" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.3350678459075919E-2</v>
       </c>
       <c r="S58" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.426286570298451E-2</v>
       </c>
       <c r="T58" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.8971697728025606E-2</v>
       </c>
       <c r="U58" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.1644108987707917E-2</v>
       </c>
       <c r="V58" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.1556381609468237E-2</v>
       </c>
       <c r="W58" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.5632388860092645E-2</v>
       </c>
       <c r="X58" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.7708207344464181E-2</v>
       </c>
       <c r="Y58" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.3740069944264783E-2</v>
       </c>
       <c r="Z58" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.1917381458864319E-2</v>
       </c>
       <c r="AA58" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.6219960425357156E-2</v>
       </c>
       <c r="AB58" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.5404192532583911E-2</v>
       </c>
       <c r="AC58" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.987313824182402E-2</v>
       </c>
       <c r="AD58" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.3227436019752521E-2</v>
       </c>
       <c r="AE58" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.0427469521239974E-2</v>
       </c>
       <c r="AF58" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.1430456922674907E-2</v>
       </c>
       <c r="AG58" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.9612717838730945E-2</v>
       </c>
       <c r="AH58" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.6629394715590618E-2</v>
       </c>
       <c r="AI58" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.2607758830443E-2</v>
       </c>
       <c r="AJ58" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.8507648625875522E-2</v>
       </c>
       <c r="AK58" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.3453986180072076E-2</v>
       </c>
       <c r="AL58" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.070115859164736E-2</v>
       </c>
       <c r="AM58" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.10289850788887757</v>
       </c>
       <c r="AN58" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.8690270774633036E-2</v>
       </c>
       <c r="AO58" s="31">
@@ -6785,111 +6786,111 @@
         <v>229</v>
       </c>
       <c r="N61" s="77">
-        <f>SUM(N52:N58)</f>
+        <f t="shared" ref="N61:AN61" si="18">SUM(N52:N58)</f>
         <v>1.0000000000000002</v>
       </c>
       <c r="O61" s="77">
-        <f>SUM(O52:O58)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="P61" s="77">
-        <f>SUM(P52:P58)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="Q61" s="77">
-        <f>SUM(Q52:Q58)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R61" s="77">
-        <f>SUM(R52:R58)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="S61" s="77">
-        <f>SUM(S52:S58)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="T61" s="77">
-        <f>SUM(T52:T58)</f>
+        <f t="shared" si="18"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="U61" s="77">
-        <f>SUM(U52:U58)</f>
+        <f t="shared" si="18"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V61" s="77">
-        <f>SUM(V52:V58)</f>
+        <f t="shared" si="18"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="W61" s="77">
-        <f>SUM(W52:W58)</f>
+        <f t="shared" si="18"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="X61" s="77">
-        <f>SUM(X52:X58)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="Y61" s="77">
-        <f>SUM(Y52:Y58)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="Z61" s="77">
-        <f>SUM(Z52:Z58)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AA61" s="77">
-        <f>SUM(AA52:AA58)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AB61" s="77">
-        <f>SUM(AB52:AB58)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AC61" s="77">
-        <f>SUM(AC52:AC58)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AD61" s="77">
-        <f>SUM(AD52:AD58)</f>
+        <f t="shared" si="18"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="AE61" s="77">
-        <f>SUM(AE52:AE58)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AF61" s="77">
-        <f>SUM(AF52:AF58)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AG61" s="77">
-        <f>SUM(AG52:AG58)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AH61" s="77">
-        <f>SUM(AH52:AH58)</f>
+        <f t="shared" si="18"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="AI61" s="77">
-        <f>SUM(AI52:AI58)</f>
+        <f t="shared" si="18"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="AJ61" s="77">
-        <f>SUM(AJ52:AJ58)</f>
+        <f t="shared" si="18"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="AK61" s="77">
-        <f>SUM(AK52:AK58)</f>
+        <f t="shared" si="18"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="AL61" s="77">
-        <f>SUM(AL52:AL58)</f>
+        <f t="shared" si="18"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="AM61" s="77">
-        <f>SUM(AM52:AM58)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AN61" s="77">
-        <f>SUM(AN52:AN58)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AO61" s="30"/>

--- a/SuppXLS/Scen_TRA_BAU.xlsx
+++ b/SuppXLS/Scen_TRA_BAU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_Irish-TIMES-model\main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9181FA01-13E0-4D74-BECB-D2AF109EC065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69F0745-8494-4F95-BB38-6AF5DFC2BEB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -884,16 +884,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="0.0000"/>
+  <numFmts count="10">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="172" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1257,10 +1258,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1283,7 +1284,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="8" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1291,7 +1292,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="11" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1316,7 +1317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1363,14 +1364,14 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="20" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="22" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="22" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1383,14 +1384,18 @@
     <xf numFmtId="0" fontId="23" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="21" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -1428,7 +1433,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1913,44 +1918,44 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A3:AD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" style="15" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5546875" style="15" customWidth="1"/>
+    <col min="25" max="25" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" style="15" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="15"/>
+    <col min="29" max="29" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C3" s="32" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -2064,12 +2069,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>86</v>
       </c>
@@ -2184,7 +2189,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>89</v>
       </c>
@@ -2301,7 +2306,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>90</v>
       </c>
@@ -2418,7 +2423,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
         <v>91</v>
       </c>
@@ -2426,7 +2431,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>93</v>
       </c>
@@ -2434,7 +2439,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
         <v>94</v>
       </c>
@@ -2442,7 +2447,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
         <v>95</v>
       </c>
@@ -2450,7 +2455,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="36" t="s">
         <v>96</v>
       </c>
@@ -2458,7 +2463,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
         <v>97</v>
       </c>
@@ -2466,7 +2471,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
         <v>98</v>
       </c>
@@ -2474,7 +2479,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="36" t="s">
         <v>99</v>
       </c>
@@ -2482,7 +2487,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="36" t="s">
         <v>100</v>
       </c>
@@ -2490,7 +2495,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="36" t="s">
         <v>101</v>
       </c>
@@ -2498,7 +2503,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="36" t="s">
         <v>102</v>
       </c>
@@ -2506,7 +2511,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="36" t="s">
         <v>103</v>
       </c>
@@ -2514,7 +2519,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="36" t="s">
         <v>104</v>
       </c>
@@ -2522,7 +2527,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="36" t="s">
         <v>105</v>
       </c>
@@ -2530,7 +2535,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="36" t="s">
         <v>106</v>
       </c>
@@ -2538,7 +2543,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="36" t="s">
         <v>107</v>
       </c>
@@ -2546,7 +2551,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="36" t="s">
         <v>108</v>
       </c>
@@ -2554,7 +2559,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="36" t="s">
         <v>109</v>
       </c>
@@ -2562,7 +2567,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="36" t="s">
         <v>110</v>
       </c>
@@ -2570,7 +2575,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="36" t="s">
         <v>111</v>
       </c>
@@ -2578,7 +2583,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="36" t="s">
         <v>112</v>
       </c>
@@ -2586,7 +2591,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="36" t="s">
         <v>113</v>
       </c>
@@ -2594,7 +2599,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="36" t="s">
         <v>114</v>
       </c>
@@ -2602,7 +2607,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="36" t="s">
         <v>115</v>
       </c>
@@ -2610,7 +2615,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="36" t="s">
         <v>116</v>
       </c>
@@ -2618,7 +2623,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="36" t="s">
         <v>117</v>
       </c>
@@ -2626,7 +2631,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="36" t="s">
         <v>118</v>
       </c>
@@ -2634,7 +2639,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>119</v>
       </c>
@@ -2660,7 +2665,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -2684,31 +2689,31 @@
       <selection activeCell="I3" sqref="I3:AI3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="34" width="10.7109375" customWidth="1"/>
-    <col min="35" max="35" width="10.7109375" style="15" customWidth="1"/>
-    <col min="36" max="36" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="34" width="10.6640625" customWidth="1"/>
+    <col min="35" max="35" width="10.6640625" style="15" customWidth="1"/>
+    <col min="36" max="36" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
@@ -2721,7 +2726,7 @@
       <c r="AP2" s="11"/>
       <c r="AQ2" s="11"/>
     </row>
-    <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
@@ -2891,30 +2896,30 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="34" width="10.7109375" customWidth="1"/>
-    <col min="35" max="35" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="34" width="10.6640625" customWidth="1"/>
+    <col min="35" max="35" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
@@ -2927,7 +2932,7 @@
       <c r="AO2" s="11"/>
       <c r="AP2" s="11"/>
     </row>
-    <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
@@ -3093,39 +3098,39 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A6:AO176"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:41" x14ac:dyDescent="0.3">
       <c r="K9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C10" s="24" t="s">
         <v>1</v>
       </c>
@@ -3271,7 +3276,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -3296,157 +3301,157 @@
         <f>D124</f>
         <v>Walk</v>
       </c>
-      <c r="N11" s="27">
-        <f>C138</f>
-        <v>0.32377983784854231</v>
-      </c>
-      <c r="O11" s="27">
-        <f t="shared" ref="O11:AN11" si="0">D138</f>
-        <v>0.29539615700051852</v>
-      </c>
-      <c r="P11" s="27">
+      <c r="N11" s="79">
+        <f>ROUNDUP(C138,3)</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="O11" s="79">
+        <f t="shared" ref="O11:AN11" si="0">ROUNDUP(D138,3)</f>
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="P11" s="79">
         <f t="shared" si="0"/>
-        <v>0.34966256439645477</v>
-      </c>
-      <c r="Q11" s="27">
+        <v>0.35</v>
+      </c>
+      <c r="Q11" s="79">
         <f t="shared" si="0"/>
-        <v>0.31311359703458036</v>
-      </c>
-      <c r="R11" s="27">
+        <v>0.314</v>
+      </c>
+      <c r="R11" s="79">
         <f t="shared" si="0"/>
-        <v>0.30099430857485032</v>
-      </c>
-      <c r="S11" s="27">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="S11" s="79">
         <f t="shared" si="0"/>
-        <v>0.32585784427063491</v>
-      </c>
-      <c r="T11" s="27">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="T11" s="79">
         <f t="shared" si="0"/>
-        <v>0.31296089693181006</v>
-      </c>
-      <c r="U11" s="27">
+        <v>0.313</v>
+      </c>
+      <c r="U11" s="79">
         <f t="shared" si="0"/>
-        <v>0.34414959934244926</v>
-      </c>
-      <c r="V11" s="27">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="V11" s="79">
         <f t="shared" si="0"/>
-        <v>0.31640567871855385</v>
-      </c>
-      <c r="W11" s="27">
+        <v>0.317</v>
+      </c>
+      <c r="W11" s="79">
         <f t="shared" si="0"/>
-        <v>0.30551897544605799</v>
-      </c>
-      <c r="X11" s="27">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="X11" s="79">
         <f t="shared" si="0"/>
-        <v>0.30690900126975923</v>
-      </c>
-      <c r="Y11" s="27">
+        <v>0.307</v>
+      </c>
+      <c r="Y11" s="79">
         <f t="shared" si="0"/>
-        <v>0.29742024558167873</v>
-      </c>
-      <c r="Z11" s="27">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="Z11" s="79">
         <f t="shared" si="0"/>
-        <v>0.31985079986061538</v>
-      </c>
-      <c r="AA11" s="27">
+        <v>0.32</v>
+      </c>
+      <c r="AA11" s="79">
         <f t="shared" si="0"/>
-        <v>0.30317740338092081</v>
-      </c>
-      <c r="AB11" s="27">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="AB11" s="79">
         <f t="shared" si="0"/>
-        <v>0.32755819451934742</v>
-      </c>
-      <c r="AC11" s="27">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="AC11" s="79">
         <f t="shared" si="0"/>
-        <v>0.29108733491927802</v>
-      </c>
-      <c r="AD11" s="27">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="AD11" s="79">
         <f t="shared" si="0"/>
-        <v>0.32210907481657336</v>
-      </c>
-      <c r="AE11" s="27">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="AE11" s="79">
         <f t="shared" si="0"/>
-        <v>0.28924149649685427</v>
-      </c>
-      <c r="AF11" s="27">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AF11" s="79">
         <f t="shared" si="0"/>
-        <v>0.31716332192128543</v>
-      </c>
-      <c r="AG11" s="27">
+        <v>0.318</v>
+      </c>
+      <c r="AG11" s="79">
         <f t="shared" si="0"/>
-        <v>0.31520515014132622</v>
-      </c>
-      <c r="AH11" s="27">
+        <v>0.316</v>
+      </c>
+      <c r="AH11" s="79">
         <f t="shared" si="0"/>
-        <v>0.30543827437637427</v>
-      </c>
-      <c r="AI11" s="27">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="AI11" s="79">
         <f t="shared" si="0"/>
-        <v>0.29765342162432462</v>
-      </c>
-      <c r="AJ11" s="27">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="AJ11" s="79">
         <f t="shared" si="0"/>
-        <v>0.28141024531167946</v>
-      </c>
-      <c r="AK11" s="27">
+        <v>0.28200000000000003</v>
+      </c>
+      <c r="AK11" s="79">
         <f t="shared" si="0"/>
-        <v>0.32408712009988533</v>
-      </c>
-      <c r="AL11" s="27">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AL11" s="79">
         <f t="shared" si="0"/>
-        <v>0.33773511822059504</v>
-      </c>
-      <c r="AM11" s="27">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="AM11" s="79">
         <f t="shared" si="0"/>
-        <v>0.36384480991771728</v>
-      </c>
-      <c r="AN11" s="27">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="AN11" s="79">
         <f t="shared" si="0"/>
-        <v>0.29253128431407999</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="AO11" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:41" x14ac:dyDescent="0.3">
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
         <v>69</v>
       </c>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="27"/>
-      <c r="AG12" s="27"/>
-      <c r="AH12" s="27"/>
-      <c r="AI12" s="27"/>
-      <c r="AJ12" s="27"/>
-      <c r="AK12" s="27"/>
-      <c r="AL12" s="27"/>
-      <c r="AM12" s="27"/>
-      <c r="AN12" s="27"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="80"/>
+      <c r="AC12" s="80"/>
+      <c r="AD12" s="80"/>
+      <c r="AE12" s="80"/>
+      <c r="AF12" s="80"/>
+      <c r="AG12" s="80"/>
+      <c r="AH12" s="80"/>
+      <c r="AI12" s="80"/>
+      <c r="AJ12" s="80"/>
+      <c r="AK12" s="80"/>
+      <c r="AL12" s="80"/>
+      <c r="AM12" s="80"/>
+      <c r="AN12" s="80"/>
       <c r="AO12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>70</v>
       </c>
@@ -3471,119 +3476,119 @@
         <f>D125</f>
         <v>Bike</v>
       </c>
-      <c r="N13" s="27">
-        <f>C139</f>
-        <v>5.3963306308090382E-2</v>
-      </c>
-      <c r="O13" s="27">
-        <f t="shared" ref="O13:AN13" si="1">D139</f>
-        <v>4.9232692833419758E-2</v>
-      </c>
-      <c r="P13" s="27">
+      <c r="N13" s="79">
+        <f>ROUNDUP(C139,3)</f>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="O13" s="79">
+        <f t="shared" ref="O13:AN13" si="1">ROUNDUP(D139,3)</f>
+        <v>0.05</v>
+      </c>
+      <c r="P13" s="79">
         <f t="shared" si="1"/>
-        <v>5.8277094066075792E-2</v>
-      </c>
-      <c r="Q13" s="27">
+        <v>5.9000000000000004E-2</v>
+      </c>
+      <c r="Q13" s="79">
         <f t="shared" si="1"/>
-        <v>5.2185599505763403E-2</v>
-      </c>
-      <c r="R13" s="27">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="R13" s="79">
         <f t="shared" si="1"/>
-        <v>5.016571809580838E-2</v>
-      </c>
-      <c r="S13" s="27">
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="S13" s="79">
         <f t="shared" si="1"/>
-        <v>5.4309640711772487E-2</v>
-      </c>
-      <c r="T13" s="27">
+        <v>5.5E-2</v>
+      </c>
+      <c r="T13" s="79">
         <f t="shared" si="1"/>
-        <v>5.216014948863501E-2</v>
-      </c>
-      <c r="U13" s="27">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="U13" s="79">
         <f t="shared" si="1"/>
-        <v>5.7358266557074891E-2</v>
-      </c>
-      <c r="V13" s="27">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="V13" s="79">
         <f t="shared" si="1"/>
-        <v>5.2734279786425649E-2</v>
-      </c>
-      <c r="W13" s="27">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="W13" s="79">
         <f t="shared" si="1"/>
-        <v>5.0919829241009663E-2</v>
-      </c>
-      <c r="X13" s="27">
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="X13" s="79">
         <f t="shared" si="1"/>
-        <v>5.1151500211626538E-2</v>
-      </c>
-      <c r="Y13" s="27">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="Y13" s="79">
         <f t="shared" si="1"/>
-        <v>4.95700409302798E-2</v>
-      </c>
-      <c r="Z13" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="Z13" s="79">
         <f t="shared" si="1"/>
-        <v>5.3308466643435894E-2</v>
-      </c>
-      <c r="AA13" s="27">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="AA13" s="79">
         <f t="shared" si="1"/>
-        <v>5.052956723015347E-2</v>
-      </c>
-      <c r="AB13" s="27">
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="AB13" s="79">
         <f t="shared" si="1"/>
-        <v>5.459303241989124E-2</v>
-      </c>
-      <c r="AC13" s="27">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AC13" s="79">
         <f t="shared" si="1"/>
-        <v>4.8514555819879672E-2</v>
-      </c>
-      <c r="AD13" s="27">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="AD13" s="79">
         <f t="shared" si="1"/>
-        <v>5.3684845802762227E-2</v>
-      </c>
-      <c r="AE13" s="27">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="AE13" s="79">
         <f t="shared" si="1"/>
-        <v>4.8206916082809047E-2</v>
-      </c>
-      <c r="AF13" s="27">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="AF13" s="79">
         <f t="shared" si="1"/>
-        <v>5.2860553653547575E-2</v>
-      </c>
-      <c r="AG13" s="27">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="AG13" s="79">
         <f t="shared" si="1"/>
-        <v>5.2534191690221041E-2</v>
-      </c>
-      <c r="AH13" s="27">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="AH13" s="79">
         <f t="shared" si="1"/>
-        <v>5.0906379062729046E-2</v>
-      </c>
-      <c r="AI13" s="27">
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="AI13" s="79">
         <f t="shared" si="1"/>
-        <v>4.9608903604054101E-2</v>
-      </c>
-      <c r="AJ13" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="AJ13" s="79">
         <f t="shared" si="1"/>
-        <v>4.690170755194658E-2</v>
-      </c>
-      <c r="AK13" s="27">
+        <v>4.7E-2</v>
+      </c>
+      <c r="AK13" s="79">
         <f t="shared" si="1"/>
-        <v>5.4014520016647569E-2</v>
-      </c>
-      <c r="AL13" s="27">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AL13" s="79">
         <f t="shared" si="1"/>
-        <v>5.6289186370099165E-2</v>
-      </c>
-      <c r="AM13" s="27">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="AM13" s="79">
         <f t="shared" si="1"/>
-        <v>6.064080165295288E-2</v>
-      </c>
-      <c r="AN13" s="27">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="AN13" s="79">
         <f t="shared" si="1"/>
-        <v>4.8755214052346667E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="AO13" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:41" x14ac:dyDescent="0.3">
       <c r="J14">
         <v>0</v>
       </c>
@@ -3621,7 +3626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>71</v>
       </c>
@@ -3646,119 +3651,119 @@
         <f>D126</f>
         <v>2-wheelers</v>
       </c>
-      <c r="N15" s="27">
-        <f>C140</f>
-        <v>1.2024577456126329E-3</v>
-      </c>
-      <c r="O15" s="27">
-        <f t="shared" ref="O15:AN15" si="2">D140</f>
-        <v>8.4181954391599476E-4</v>
-      </c>
-      <c r="P15" s="27">
+      <c r="N15" s="77">
+        <f>ROUNDUP(C140,4)</f>
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="O15" s="77">
+        <f t="shared" ref="O15:AN15" si="2">ROUNDUP(D140,4)</f>
+        <v>9.0000000000000008E-4</v>
+      </c>
+      <c r="P15" s="77">
         <f t="shared" si="2"/>
-        <v>1.4736843073167786E-3</v>
-      </c>
-      <c r="Q15" s="27">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Q15" s="77">
         <f t="shared" si="2"/>
-        <v>1.3698908311171865E-3</v>
-      </c>
-      <c r="R15" s="27">
+        <v>1.4E-3</v>
+      </c>
+      <c r="R15" s="77">
         <f t="shared" si="2"/>
-        <v>9.8425388735709995E-4</v>
-      </c>
-      <c r="S15" s="27">
+        <v>1E-3</v>
+      </c>
+      <c r="S15" s="77">
         <f t="shared" si="2"/>
-        <v>6.2421004942624992E-4</v>
-      </c>
-      <c r="T15" s="27">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="T15" s="77">
         <f t="shared" si="2"/>
-        <v>1.2422933671109623E-3</v>
-      </c>
-      <c r="U15" s="27">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="U15" s="77">
         <f t="shared" si="2"/>
-        <v>8.6646068484003841E-4</v>
-      </c>
-      <c r="V15" s="27">
+        <v>9.0000000000000008E-4</v>
+      </c>
+      <c r="V15" s="77">
         <f t="shared" si="2"/>
-        <v>1.3159890714686659E-3</v>
-      </c>
-      <c r="W15" s="27">
+        <v>1.4E-3</v>
+      </c>
+      <c r="W15" s="77">
         <f t="shared" si="2"/>
-        <v>1.2716318220191991E-3</v>
-      </c>
-      <c r="X15" s="27">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="X15" s="77">
         <f t="shared" si="2"/>
-        <v>1.1218737998245681E-3</v>
-      </c>
-      <c r="Y15" s="27">
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="Y15" s="77">
         <f t="shared" si="2"/>
-        <v>1.2891857705150252E-3</v>
-      </c>
-      <c r="Z15" s="27">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="Z15" s="77">
         <f t="shared" si="2"/>
-        <v>1.4574437703184118E-3</v>
-      </c>
-      <c r="AA15" s="27">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA15" s="77">
         <f t="shared" si="2"/>
-        <v>1.2419671387040388E-3</v>
-      </c>
-      <c r="AB15" s="27">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="AB15" s="77">
         <f t="shared" si="2"/>
-        <v>1.4684396048311016E-3</v>
-      </c>
-      <c r="AC15" s="27">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AC15" s="77">
         <f t="shared" si="2"/>
-        <v>9.5921086863546602E-4</v>
-      </c>
-      <c r="AD15" s="27">
+        <v>1E-3</v>
+      </c>
+      <c r="AD15" s="77">
         <f t="shared" si="2"/>
-        <v>1.0725657999581929E-3</v>
-      </c>
-      <c r="AE15" s="27">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="AE15" s="77">
         <f t="shared" si="2"/>
-        <v>1.1764845294377178E-3</v>
-      </c>
-      <c r="AF15" s="27">
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="AF15" s="77">
         <f t="shared" si="2"/>
-        <v>1.3287962602263445E-3</v>
-      </c>
-      <c r="AG15" s="27">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AG15" s="77">
         <f t="shared" si="2"/>
-        <v>7.9269582890742734E-4</v>
-      </c>
-      <c r="AH15" s="27">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="AH15" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI15" s="27">
+      <c r="AI15" s="77">
         <f t="shared" si="2"/>
-        <v>7.4007830335184128E-4</v>
-      </c>
-      <c r="AJ15" s="27">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="AJ15" s="77">
         <f t="shared" si="2"/>
-        <v>7.0738302217035411E-4</v>
-      </c>
-      <c r="AK15" s="27">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="AK15" s="77">
         <f t="shared" si="2"/>
-        <v>8.0234115950314402E-4</v>
-      </c>
-      <c r="AL15" s="27">
+        <v>9.0000000000000008E-4</v>
+      </c>
+      <c r="AL15" s="77">
         <f t="shared" si="2"/>
-        <v>7.1933080869381386E-4</v>
-      </c>
-      <c r="AM15" s="27">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="AM15" s="77">
         <f t="shared" si="2"/>
-        <v>7.4164409782466955E-4</v>
-      </c>
-      <c r="AN15" s="27">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="AN15" s="77">
         <f t="shared" si="2"/>
-        <v>7.7316749378532367E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AO15" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:41" x14ac:dyDescent="0.3">
       <c r="J16">
         <v>0</v>
       </c>
@@ -3796,7 +3801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>72</v>
       </c>
@@ -3821,119 +3826,119 @@
         <f>D127</f>
         <v>LDV</v>
       </c>
-      <c r="N17" s="27">
-        <f>C141</f>
-        <v>0.51421690231633799</v>
-      </c>
-      <c r="O17" s="27">
-        <f t="shared" ref="O17:AN17" si="3">D141</f>
-        <v>0.57696936147650701</v>
-      </c>
-      <c r="P17" s="27">
+      <c r="N17" s="64">
+        <f>ROUNDUP(C141,3)</f>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="O17" s="64">
+        <f t="shared" ref="O17:AN17" si="3">ROUNDUP(D141,3)</f>
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="P17" s="64">
         <f t="shared" si="3"/>
-        <v>0.41519891685215071</v>
-      </c>
-      <c r="Q17" s="27">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="Q17" s="64">
         <f t="shared" si="3"/>
-        <v>0.53837411623785481</v>
-      </c>
-      <c r="R17" s="27">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="R17" s="64">
         <f t="shared" si="3"/>
-        <v>0.5273035898540861</v>
-      </c>
-      <c r="S17" s="27">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="S17" s="64">
         <f t="shared" si="3"/>
-        <v>0.54428190464659498</v>
-      </c>
-      <c r="T17" s="27">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="T17" s="64">
         <f t="shared" si="3"/>
-        <v>0.54724418926165252</v>
-      </c>
-      <c r="U17" s="27">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="U17" s="64">
         <f t="shared" si="3"/>
-        <v>0.50629481396736598</v>
-      </c>
-      <c r="V17" s="27">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="V17" s="64">
         <f t="shared" si="3"/>
-        <v>0.54969956239724382</v>
-      </c>
-      <c r="W17" s="27">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W17" s="64">
         <f t="shared" si="3"/>
-        <v>0.54286879912927866</v>
-      </c>
-      <c r="X17" s="27">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="X17" s="64">
         <f t="shared" si="3"/>
-        <v>0.57050800443626981</v>
-      </c>
-      <c r="Y17" s="27">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="Y17" s="64">
         <f t="shared" si="3"/>
-        <v>0.57834017325166753</v>
-      </c>
-      <c r="Z17" s="27">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="Z17" s="64">
         <f t="shared" si="3"/>
-        <v>0.54807767476728875</v>
-      </c>
-      <c r="AA17" s="27">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="AA17" s="64">
         <f t="shared" si="3"/>
-        <v>0.57445550608131724</v>
-      </c>
-      <c r="AB17" s="27">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AB17" s="64">
         <f t="shared" si="3"/>
-        <v>0.54514159019281827</v>
-      </c>
-      <c r="AC17" s="27">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AC17" s="64">
         <f t="shared" si="3"/>
-        <v>0.52942173322971142</v>
-      </c>
-      <c r="AD17" s="27">
+        <v>0.53</v>
+      </c>
+      <c r="AD17" s="64">
         <f t="shared" si="3"/>
-        <v>0.54890743812317566</v>
-      </c>
-      <c r="AE17" s="27">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="AE17" s="64">
         <f t="shared" si="3"/>
-        <v>0.57655830557717536</v>
-      </c>
-      <c r="AF17" s="27">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="AF17" s="64">
         <f t="shared" si="3"/>
-        <v>0.56469028513375741</v>
-      </c>
-      <c r="AG17" s="27">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="AG17" s="64">
         <f t="shared" si="3"/>
-        <v>0.5314898835087899</v>
-      </c>
-      <c r="AH17" s="27">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="AH17" s="64">
         <f t="shared" si="3"/>
-        <v>0.5710449216561202</v>
-      </c>
-      <c r="AI17" s="27">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="AI17" s="64">
         <f t="shared" si="3"/>
-        <v>0.54463316447281129</v>
-      </c>
-      <c r="AJ17" s="27">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="AJ17" s="64">
         <f t="shared" si="3"/>
-        <v>0.60580683229929833</v>
-      </c>
-      <c r="AK17" s="27">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="AK17" s="64">
         <f t="shared" si="3"/>
-        <v>0.54575340066281097</v>
-      </c>
-      <c r="AL17" s="27">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AL17" s="64">
         <f t="shared" si="3"/>
-        <v>0.57130392959697351</v>
-      </c>
-      <c r="AM17" s="27">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="AM17" s="64">
         <f t="shared" si="3"/>
-        <v>0.56067924597798535</v>
-      </c>
-      <c r="AN17" s="27">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="AN17" s="64">
         <f t="shared" si="3"/>
-        <v>0.49285227418620653</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="AO17" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:41" x14ac:dyDescent="0.3">
       <c r="J18">
         <v>0</v>
       </c>
@@ -3971,7 +3976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>73</v>
       </c>
@@ -3996,119 +4001,119 @@
         <f>D128</f>
         <v>Taxis</v>
       </c>
-      <c r="N19" s="27">
-        <f>C142</f>
-        <v>1.6399604421517593E-2</v>
-      </c>
-      <c r="O19" s="27">
-        <f t="shared" ref="O19:AN19" si="4">D142</f>
-        <v>7.4490307781118984E-3</v>
-      </c>
-      <c r="P19" s="27">
+      <c r="N19" s="64">
+        <f>ROUNDUP(C142,3)</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="O19" s="64">
+        <f t="shared" ref="O19:AN19" si="4">ROUNDUP(D142,3)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="P19" s="64">
         <f t="shared" si="4"/>
-        <v>3.2041705931306341E-2</v>
-      </c>
-      <c r="Q19" s="27">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q19" s="64">
         <f t="shared" si="4"/>
-        <v>1.4142087272297982E-2</v>
-      </c>
-      <c r="R19" s="27">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R19" s="64">
         <f t="shared" si="4"/>
-        <v>7.8384539751406128E-3</v>
-      </c>
-      <c r="S19" s="27">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="S19" s="64">
         <f t="shared" si="4"/>
-        <v>9.942235039347571E-3</v>
-      </c>
-      <c r="T19" s="27">
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="T19" s="64">
         <f t="shared" si="4"/>
-        <v>8.7941712391293846E-3</v>
-      </c>
-      <c r="U19" s="27">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="U19" s="64">
         <f t="shared" si="4"/>
-        <v>1.9167683727598969E-2</v>
-      </c>
-      <c r="V19" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="V19" s="64">
         <f t="shared" si="4"/>
-        <v>1.9563309645198885E-2</v>
-      </c>
-      <c r="W19" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="W19" s="64">
         <f t="shared" si="4"/>
-        <v>6.7513932047123726E-3</v>
-      </c>
-      <c r="X19" s="27">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="X19" s="64">
         <f t="shared" si="4"/>
-        <v>1.1912585101328303E-2</v>
-      </c>
-      <c r="Y19" s="27">
+        <v>1.2E-2</v>
+      </c>
+      <c r="Y19" s="64">
         <f t="shared" si="4"/>
-        <v>6.2742086519266488E-3</v>
-      </c>
-      <c r="Z19" s="27">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Z19" s="64">
         <f t="shared" si="4"/>
-        <v>9.0275647633180547E-3</v>
-      </c>
-      <c r="AA19" s="27">
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="AA19" s="64">
         <f t="shared" si="4"/>
-        <v>1.0257172186811273E-2</v>
-      </c>
-      <c r="AB19" s="27">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AB19" s="64">
         <f t="shared" si="4"/>
-        <v>1.2127565539618518E-2</v>
-      </c>
-      <c r="AC19" s="27">
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="AC19" s="64">
         <f t="shared" si="4"/>
-        <v>1.0185353383353699E-2</v>
-      </c>
-      <c r="AD19" s="27">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AD19" s="64">
         <f t="shared" si="4"/>
-        <v>1.2812635692286438E-2</v>
-      </c>
-      <c r="AE19" s="27">
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="AE19" s="64">
         <f t="shared" si="4"/>
-        <v>5.2051948265462115E-3</v>
-      </c>
-      <c r="AF19" s="27">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AF19" s="64">
         <f t="shared" si="4"/>
-        <v>8.6226466174633056E-3</v>
-      </c>
-      <c r="AG19" s="27">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="AG19" s="64">
         <f t="shared" si="4"/>
-        <v>1.3327262086971724E-2</v>
-      </c>
-      <c r="AH19" s="27">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="AH19" s="64">
         <f t="shared" si="4"/>
-        <v>8.2106842864435349E-3</v>
-      </c>
-      <c r="AI19" s="27">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="AI19" s="64">
         <f t="shared" si="4"/>
-        <v>7.2036254203120672E-3</v>
-      </c>
-      <c r="AJ19" s="27">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AJ19" s="64">
         <f t="shared" si="4"/>
-        <v>6.2594387860714779E-3</v>
-      </c>
-      <c r="AK19" s="27">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AK19" s="64">
         <f t="shared" si="4"/>
-        <v>8.5196368293601697E-3</v>
-      </c>
-      <c r="AL19" s="27">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="AL19" s="64">
         <f t="shared" si="4"/>
-        <v>8.9112260712667282E-3</v>
-      </c>
-      <c r="AM19" s="27">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="AM19" s="64">
         <f t="shared" si="4"/>
-        <v>9.8439085033626087E-3</v>
-      </c>
-      <c r="AN19" s="27">
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="AN19" s="64">
         <f t="shared" si="4"/>
-        <v>4.1049285439853662E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AO19" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:41" x14ac:dyDescent="0.3">
       <c r="J20">
         <v>0</v>
       </c>
@@ -4146,7 +4151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>74</v>
       </c>
@@ -4171,119 +4176,119 @@
         <f>D129</f>
         <v>BUS</v>
       </c>
-      <c r="N21" s="27">
-        <f>C143</f>
-        <v>8.2740995898888392E-2</v>
-      </c>
-      <c r="O21" s="27">
-        <f t="shared" ref="O21:AN21" si="5">D143</f>
-        <v>7.0110938367526743E-2</v>
-      </c>
-      <c r="P21" s="27">
+      <c r="N21" s="64">
+        <f>ROUNDUP(C143,3)</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="O21" s="64">
+        <f t="shared" ref="O21:AN21" si="5">ROUNDUP(D143,3)</f>
+        <v>7.1000000000000008E-2</v>
+      </c>
+      <c r="P21" s="64">
         <f t="shared" si="5"/>
-        <v>0.1139689510378053</v>
-      </c>
-      <c r="Q21" s="27">
+        <v>0.114</v>
+      </c>
+      <c r="Q21" s="64">
         <f t="shared" si="5"/>
-        <v>8.0814709118386313E-2</v>
-      </c>
-      <c r="R21" s="27">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="R21" s="64">
         <f t="shared" si="5"/>
-        <v>0.11271367561275741</v>
-      </c>
-      <c r="S21" s="27">
+        <v>0.113</v>
+      </c>
+      <c r="S21" s="64">
         <f t="shared" si="5"/>
-        <v>6.4984165282223824E-2</v>
-      </c>
-      <c r="T21" s="27">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="T21" s="64">
         <f t="shared" si="5"/>
-        <v>7.7598299711661989E-2</v>
-      </c>
-      <c r="U21" s="27">
+        <v>7.8E-2</v>
+      </c>
+      <c r="U21" s="64">
         <f t="shared" si="5"/>
-        <v>7.216317572067088E-2</v>
-      </c>
-      <c r="V21" s="27">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="V21" s="64">
         <f t="shared" si="5"/>
-        <v>6.0281180381109148E-2</v>
-      </c>
-      <c r="W21" s="27">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="W21" s="64">
         <f t="shared" si="5"/>
-        <v>9.2669371156921962E-2</v>
-      </c>
-      <c r="X21" s="27">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="X21" s="64">
         <f t="shared" si="5"/>
-        <v>5.839703518119168E-2</v>
-      </c>
-      <c r="Y21" s="27">
+        <v>5.9000000000000004E-2</v>
+      </c>
+      <c r="Y21" s="64">
         <f t="shared" si="5"/>
-        <v>6.7106145813932178E-2</v>
-      </c>
-      <c r="Z21" s="27">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Z21" s="64">
         <f t="shared" si="5"/>
-        <v>6.8278050195023532E-2</v>
-      </c>
-      <c r="AA21" s="27">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="AA21" s="64">
         <f t="shared" si="5"/>
-        <v>6.0338383982093263E-2</v>
-      </c>
-      <c r="AB21" s="27">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="AB21" s="64">
         <f t="shared" si="5"/>
-        <v>5.9111177723493433E-2</v>
-      </c>
-      <c r="AC21" s="27">
+        <v>0.06</v>
+      </c>
+      <c r="AC21" s="64">
         <f t="shared" si="5"/>
-        <v>0.11983181177914175</v>
-      </c>
-      <c r="AD21" s="27">
+        <v>0.12</v>
+      </c>
+      <c r="AD21" s="64">
         <f t="shared" si="5"/>
-        <v>6.1413439765244195E-2</v>
-      </c>
-      <c r="AE21" s="27">
+        <v>6.2E-2</v>
+      </c>
+      <c r="AE21" s="64">
         <f t="shared" si="5"/>
-        <v>7.9611602487177441E-2</v>
-      </c>
-      <c r="AF21" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="AF21" s="64">
         <f t="shared" si="5"/>
-        <v>5.5334396413720018E-2</v>
-      </c>
-      <c r="AG21" s="27">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="AG21" s="64">
         <f t="shared" si="5"/>
-        <v>8.6650816743783748E-2</v>
-      </c>
-      <c r="AH21" s="27">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="AH21" s="64">
         <f t="shared" si="5"/>
-        <v>6.4399740618333048E-2</v>
-      </c>
-      <c r="AI21" s="27">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AI21" s="64">
         <f t="shared" si="5"/>
-        <v>0.10016080657514609</v>
-      </c>
-      <c r="AJ21" s="27">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="AJ21" s="64">
         <f t="shared" si="5"/>
-        <v>5.8914393028833764E-2</v>
-      </c>
-      <c r="AK21" s="27">
+        <v>5.9000000000000004E-2</v>
+      </c>
+      <c r="AK21" s="64">
         <f t="shared" si="5"/>
-        <v>6.6822981231792783E-2</v>
-      </c>
-      <c r="AL21" s="27">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="AL21" s="64">
         <f t="shared" si="5"/>
-        <v>2.5041208932371696E-2</v>
-      </c>
-      <c r="AM21" s="27">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="AM21" s="64">
         <f t="shared" si="5"/>
-        <v>4.2495898501573662E-3</v>
-      </c>
-      <c r="AN21" s="27">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AN21" s="64">
         <f t="shared" si="5"/>
-        <v>0.16098313140959611</v>
+        <v>0.161</v>
       </c>
       <c r="AO21" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:41" x14ac:dyDescent="0.3">
       <c r="J22">
         <v>0</v>
       </c>
@@ -4321,7 +4326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C23" s="30" t="s">
         <v>83</v>
       </c>
@@ -4350,111 +4355,111 @@
         <f>D130</f>
         <v>Light rail (LUAS)</v>
       </c>
-      <c r="N23" s="31">
-        <f>C144</f>
-        <v>7.6968954610109105E-3</v>
-      </c>
-      <c r="O23" s="31">
-        <f t="shared" ref="O23:AN23" si="6">D144</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="31">
+      <c r="N23" s="81">
+        <f>ROUNDUP(C144,3)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O23" s="81">
+        <f t="shared" ref="O23:AN23" si="6">ROUNDUP(D144,3)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="81">
         <f t="shared" si="6"/>
-        <v>2.9377083408890298E-2</v>
-      </c>
-      <c r="Q23" s="31">
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="Q23" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R23" s="31">
+      <c r="R23" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S23" s="31">
+      <c r="S23" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T23" s="31">
+      <c r="T23" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U23" s="31">
+      <c r="U23" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V23" s="31">
+      <c r="V23" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W23" s="31">
+      <c r="W23" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X23" s="31">
+      <c r="X23" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="31">
+      <c r="Y23" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="31">
+      <c r="Z23" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="31">
+      <c r="AA23" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AB23" s="31">
+      <c r="AB23" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC23" s="31">
+      <c r="AC23" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD23" s="31">
+      <c r="AD23" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE23" s="31">
+      <c r="AE23" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AF23" s="31">
+      <c r="AF23" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG23" s="31">
+      <c r="AG23" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AH23" s="31">
+      <c r="AH23" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AI23" s="31">
+      <c r="AI23" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ23" s="31">
+      <c r="AJ23" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AK23" s="31">
+      <c r="AK23" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL23" s="31">
+      <c r="AL23" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AM23" s="31">
+      <c r="AM23" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN23" s="31">
+      <c r="AN23" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -4462,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -4509,134 +4514,134 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:41" x14ac:dyDescent="0.3">
       <c r="N25" s="27"/>
     </row>
-    <row r="26" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:41" x14ac:dyDescent="0.3">
       <c r="M26" t="s">
         <v>229</v>
       </c>
       <c r="N26" s="77">
         <f t="shared" ref="N26:AN26" si="7">SUM(N11:N24)</f>
-        <v>1.0000000000000002</v>
+        <v>1.0023</v>
       </c>
       <c r="O26" s="77">
         <f t="shared" si="7"/>
-        <v>0.99999999999999978</v>
+        <v>1.0028999999999999</v>
       </c>
       <c r="P26" s="77">
         <f t="shared" si="7"/>
-        <v>0.99999999999999989</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="Q26" s="77">
         <f t="shared" si="7"/>
-        <v>0.99999999999999989</v>
+        <v>1.0034000000000001</v>
       </c>
       <c r="R26" s="77">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>1.002</v>
       </c>
       <c r="S26" s="77">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>1.0017</v>
       </c>
       <c r="T26" s="77">
         <f t="shared" si="7"/>
-        <v>0.99999999999999989</v>
+        <v>1.0023</v>
       </c>
       <c r="U26" s="77">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>1.0039</v>
       </c>
       <c r="V26" s="77">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>1.0024</v>
       </c>
       <c r="W26" s="77">
         <f t="shared" si="7"/>
-        <v>0.99999999999999989</v>
+        <v>1.0013000000000001</v>
       </c>
       <c r="X26" s="77">
         <f t="shared" si="7"/>
-        <v>1.0000000000000002</v>
+        <v>1.0022</v>
       </c>
       <c r="Y26" s="77">
         <f t="shared" si="7"/>
-        <v>0.99999999999999989</v>
+        <v>1.0032999999999999</v>
       </c>
       <c r="Z26" s="77">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="AA26" s="77">
         <f t="shared" si="7"/>
-        <v>1.0000000000000002</v>
+        <v>1.0033000000000001</v>
       </c>
       <c r="AB26" s="77">
         <f t="shared" si="7"/>
-        <v>0.99999999999999989</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="AC26" s="77">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>1.0030000000000001</v>
       </c>
       <c r="AD26" s="77">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>1.0021</v>
       </c>
       <c r="AE26" s="77">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>1.0031999999999999</v>
       </c>
       <c r="AF26" s="77">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>1.0024</v>
       </c>
       <c r="AG26" s="77">
         <f t="shared" si="7"/>
-        <v>1.0000000000000002</v>
+        <v>1.0028000000000001</v>
       </c>
       <c r="AH26" s="77">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="AI26" s="77">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>1.0028000000000001</v>
       </c>
       <c r="AJ26" s="77">
         <f t="shared" si="7"/>
-        <v>0.99999999999999989</v>
+        <v>1.0018</v>
       </c>
       <c r="AK26" s="77">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>1.0029000000000001</v>
       </c>
       <c r="AL26" s="77">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>1.0027999999999999</v>
       </c>
       <c r="AM26" s="77">
         <f t="shared" si="7"/>
-        <v>1.0000000000000002</v>
+        <v>1.0018</v>
       </c>
       <c r="AN26" s="77">
         <f t="shared" si="7"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="29" spans="3:41" x14ac:dyDescent="0.25">
+        <v>1.0018</v>
+      </c>
+    </row>
+    <row r="29" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:41" x14ac:dyDescent="0.3">
       <c r="K31" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C32" s="24" t="s">
         <v>1</v>
       </c>
@@ -4782,7 +4787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>75</v>
       </c>
@@ -4807,119 +4812,119 @@
         <f>M15</f>
         <v>2-wheelers</v>
       </c>
-      <c r="N33" s="27">
-        <f>C154</f>
-        <v>3.2739468688573266E-3</v>
-      </c>
-      <c r="O33" s="27">
-        <f t="shared" ref="O33:AN33" si="8">D154</f>
-        <v>2.1586268841599747E-3</v>
-      </c>
-      <c r="P33" s="27">
+      <c r="N33" s="77">
+        <f>ROUNDUP(C154,4)</f>
+        <v>3.3E-3</v>
+      </c>
+      <c r="O33" s="77">
+        <f t="shared" ref="O33:AN33" si="8">ROUNDUP(D154,4)</f>
+        <v>2.1999999999999997E-3</v>
+      </c>
+      <c r="P33" s="77">
         <f t="shared" si="8"/>
-        <v>4.3137182635283444E-3</v>
-      </c>
-      <c r="Q33" s="27">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="Q33" s="77">
         <f t="shared" si="8"/>
-        <v>3.6319751739066989E-3</v>
-      </c>
-      <c r="R33" s="27">
+        <v>3.6999999999999997E-3</v>
+      </c>
+      <c r="R33" s="77">
         <f t="shared" si="8"/>
-        <v>2.5491869155235955E-3</v>
-      </c>
-      <c r="S33" s="27">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="S33" s="77">
         <f t="shared" si="8"/>
-        <v>1.6941154698507114E-3</v>
-      </c>
-      <c r="T33" s="27">
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="T33" s="77">
         <f t="shared" si="8"/>
-        <v>3.2883004760979389E-3</v>
-      </c>
-      <c r="U33" s="27">
+        <v>3.3E-3</v>
+      </c>
+      <c r="U33" s="77">
         <f t="shared" si="8"/>
-        <v>2.4416088687366478E-3</v>
-      </c>
-      <c r="V33" s="27">
+        <v>2.4999999999999996E-3</v>
+      </c>
+      <c r="V33" s="77">
         <f t="shared" si="8"/>
-        <v>3.5159102982178412E-3</v>
-      </c>
-      <c r="W33" s="27">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="W33" s="77">
         <f t="shared" si="8"/>
-        <v>3.3185344885490013E-3</v>
-      </c>
-      <c r="X33" s="27">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="X33" s="77">
         <f t="shared" si="8"/>
-        <v>2.939754742265497E-3</v>
-      </c>
-      <c r="Y33" s="27">
+        <v>2.9999999999999996E-3</v>
+      </c>
+      <c r="Y33" s="77">
         <f t="shared" si="8"/>
-        <v>3.3151523856669103E-3</v>
-      </c>
-      <c r="Z33" s="27">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="Z33" s="77">
         <f t="shared" si="8"/>
-        <v>3.906666915379246E-3</v>
-      </c>
-      <c r="AA33" s="27">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AA33" s="77">
         <f t="shared" si="8"/>
-        <v>3.2306073901205486E-3</v>
-      </c>
-      <c r="AB33" s="27">
+        <v>3.3E-3</v>
+      </c>
+      <c r="AB33" s="77">
         <f t="shared" si="8"/>
-        <v>3.9969766503394092E-3</v>
-      </c>
-      <c r="AC33" s="27">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AC33" s="77">
         <f t="shared" si="8"/>
-        <v>2.4423953155841079E-3</v>
-      </c>
-      <c r="AD33" s="27">
+        <v>2.4999999999999996E-3</v>
+      </c>
+      <c r="AD33" s="77">
         <f t="shared" si="8"/>
-        <v>2.8914591982090753E-3</v>
-      </c>
-      <c r="AE33" s="27">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="AE33" s="77">
         <f t="shared" si="8"/>
-        <v>2.9812499263931389E-3</v>
-      </c>
-      <c r="AF33" s="27">
+        <v>2.9999999999999996E-3</v>
+      </c>
+      <c r="AF33" s="77">
         <f t="shared" si="8"/>
-        <v>3.5441732524901714E-3</v>
-      </c>
-      <c r="AG33" s="27">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="AG33" s="77">
         <f t="shared" si="8"/>
-        <v>2.1106258862285242E-3</v>
-      </c>
-      <c r="AH33" s="27">
+        <v>2.1999999999999997E-3</v>
+      </c>
+      <c r="AH33" s="77">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI33" s="27">
+      <c r="AI33" s="77">
         <f t="shared" si="8"/>
-        <v>1.9054783663146626E-3</v>
-      </c>
-      <c r="AJ33" s="27">
+        <v>2E-3</v>
+      </c>
+      <c r="AJ33" s="77">
         <f t="shared" si="8"/>
-        <v>1.7694736792673005E-3</v>
-      </c>
-      <c r="AK33" s="27">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AK33" s="77">
         <f t="shared" si="8"/>
-        <v>2.1690169741061518E-3</v>
-      </c>
-      <c r="AL33" s="27">
+        <v>2.1999999999999997E-3</v>
+      </c>
+      <c r="AL33" s="77">
         <f t="shared" si="8"/>
-        <v>1.996201699404686E-3</v>
-      </c>
-      <c r="AM33" s="27">
+        <v>2E-3</v>
+      </c>
+      <c r="AM33" s="77">
         <f t="shared" si="8"/>
-        <v>2.1678265957034699E-3</v>
-      </c>
-      <c r="AN33" s="27">
+        <v>2.1999999999999997E-3</v>
+      </c>
+      <c r="AN33" s="77">
         <f t="shared" si="8"/>
-        <v>1.9708873200458749E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="AO33" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:41" x14ac:dyDescent="0.3">
       <c r="J34">
         <v>0</v>
       </c>
@@ -4957,7 +4962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>76</v>
       </c>
@@ -4982,119 +4987,119 @@
         <f>M17</f>
         <v>LDV</v>
       </c>
-      <c r="N35" s="27">
-        <f>C155</f>
-        <v>0.83405572391255312</v>
-      </c>
-      <c r="O35" s="27">
-        <f t="shared" ref="O35:AN35" si="9">D155</f>
-        <v>0.88136996225712338</v>
-      </c>
-      <c r="P35" s="27">
+      <c r="N35" s="64">
+        <f>ROUNDUP(C155,3)</f>
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="O35" s="64">
+        <f t="shared" ref="O35:AN35" si="9">ROUNDUP(D155,3)</f>
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="P35" s="64">
         <f t="shared" si="9"/>
-        <v>0.7240198055510555</v>
-      </c>
-      <c r="Q35" s="27">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="Q35" s="64">
         <f t="shared" si="9"/>
-        <v>0.85033097733510543</v>
-      </c>
-      <c r="R35" s="27">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="R35" s="64">
         <f t="shared" si="9"/>
-        <v>0.81358360125192186</v>
-      </c>
-      <c r="S35" s="27">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="S35" s="64">
         <f t="shared" si="9"/>
-        <v>0.88000079438796519</v>
-      </c>
-      <c r="T35" s="27">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="T35" s="64">
         <f t="shared" si="9"/>
-        <v>0.86292967512561713</v>
-      </c>
-      <c r="U35" s="27">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="U35" s="64">
         <f t="shared" si="9"/>
-        <v>0.84991917486050839</v>
-      </c>
-      <c r="V35" s="27">
+        <v>0.85</v>
+      </c>
+      <c r="V35" s="64">
         <f t="shared" si="9"/>
-        <v>0.87489878054676506</v>
-      </c>
-      <c r="W35" s="27">
+        <v>0.875</v>
+      </c>
+      <c r="W35" s="64">
         <f t="shared" si="9"/>
-        <v>0.84396948853578213</v>
-      </c>
-      <c r="X35" s="27">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="X35" s="64">
         <f t="shared" si="9"/>
-        <v>0.89058577172865516</v>
-      </c>
-      <c r="Y35" s="27">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="Y35" s="64">
         <f t="shared" si="9"/>
-        <v>0.88596847722847849</v>
-      </c>
-      <c r="Z35" s="27">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="Z35" s="64">
         <f t="shared" si="9"/>
-        <v>0.87519253516054751</v>
-      </c>
-      <c r="AA35" s="27">
+        <v>0.876</v>
+      </c>
+      <c r="AA35" s="64">
         <f t="shared" si="9"/>
-        <v>0.89017909286971042</v>
-      </c>
-      <c r="AB35" s="27">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="AB35" s="64">
         <f t="shared" si="9"/>
-        <v>0.88395825319439558</v>
-      </c>
-      <c r="AC35" s="27">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="AC35" s="64">
         <f t="shared" si="9"/>
-        <v>0.80306472393989703</v>
-      </c>
-      <c r="AD35" s="27">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="AD35" s="64">
         <f t="shared" si="9"/>
-        <v>0.88153417928289457</v>
-      </c>
-      <c r="AE35" s="27">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="AE35" s="64">
         <f t="shared" si="9"/>
-        <v>0.87036679499941227</v>
-      </c>
-      <c r="AF35" s="27">
+        <v>0.871</v>
+      </c>
+      <c r="AF35" s="64">
         <f t="shared" si="9"/>
-        <v>0.89725064481847272</v>
-      </c>
-      <c r="AG35" s="27">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="AG35" s="64">
         <f t="shared" si="9"/>
-        <v>0.84303694258501916</v>
-      </c>
-      <c r="AH35" s="27">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="AH35" s="64">
         <f t="shared" si="9"/>
-        <v>0.88919219682824724</v>
-      </c>
-      <c r="AI35" s="27">
+        <v>0.89</v>
+      </c>
+      <c r="AI35" s="64">
         <f t="shared" si="9"/>
-        <v>0.83536706688667051</v>
-      </c>
-      <c r="AJ35" s="27">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="AJ35" s="64">
         <f t="shared" si="9"/>
-        <v>0.90275636290048633</v>
-      </c>
-      <c r="AK35" s="27">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="AK35" s="64">
         <f t="shared" si="9"/>
-        <v>0.87891574758893642</v>
-      </c>
-      <c r="AL35" s="27">
+        <v>0.879</v>
+      </c>
+      <c r="AL35" s="64">
         <f t="shared" si="9"/>
-        <v>0.9444737396739924</v>
-      </c>
-      <c r="AM35" s="27">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="AM35" s="64">
         <f t="shared" si="9"/>
-        <v>0.97631596747347482</v>
-      </c>
-      <c r="AN35" s="27">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="AN35" s="64">
         <f t="shared" si="9"/>
-        <v>0.7484312106638259</v>
+        <v>0.749</v>
       </c>
       <c r="AO35" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:41" x14ac:dyDescent="0.3">
       <c r="J36">
         <v>0</v>
       </c>
@@ -5132,7 +5137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>77</v>
       </c>
@@ -5157,119 +5162,119 @@
         <f>M19</f>
         <v>Taxis</v>
       </c>
-      <c r="N37" s="27">
-        <f>C156</f>
-        <v>2.1905905312439161E-2</v>
-      </c>
-      <c r="O37" s="27">
-        <f t="shared" ref="O37:AN37" si="10">D156</f>
-        <v>9.3709663140288998E-3</v>
-      </c>
-      <c r="P37" s="27">
+      <c r="N37" s="64">
+        <f>ROUNDUP(C156,3)</f>
+        <v>2.2000000000000002E-2</v>
+      </c>
+      <c r="O37" s="64">
+        <f t="shared" ref="O37:AN37" si="10">ROUNDUP(D156,3)</f>
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="P37" s="64">
         <f t="shared" si="10"/>
-        <v>4.6013893098741668E-2</v>
-      </c>
-      <c r="Q37" s="27">
+        <v>4.7E-2</v>
+      </c>
+      <c r="Q37" s="64">
         <f t="shared" si="10"/>
-        <v>1.8394858695029128E-2</v>
-      </c>
-      <c r="R37" s="27">
+        <v>1.9E-2</v>
+      </c>
+      <c r="R37" s="64">
         <f t="shared" si="10"/>
-        <v>9.9598084318994508E-3</v>
-      </c>
-      <c r="S37" s="27">
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="S37" s="64">
         <f t="shared" si="10"/>
-        <v>1.3237997918849932E-2</v>
-      </c>
-      <c r="T37" s="27">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="T37" s="64">
         <f t="shared" si="10"/>
-        <v>1.1420057155050359E-2</v>
-      </c>
-      <c r="U37" s="27">
+        <v>1.2E-2</v>
+      </c>
+      <c r="U37" s="64">
         <f t="shared" si="10"/>
-        <v>2.6498598054231513E-2</v>
-      </c>
-      <c r="V37" s="27">
+        <v>2.7E-2</v>
+      </c>
+      <c r="V37" s="64">
         <f t="shared" si="10"/>
-        <v>2.5642116158186581E-2</v>
-      </c>
-      <c r="W37" s="27">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="W37" s="64">
         <f t="shared" si="10"/>
-        <v>8.6437934593511252E-3</v>
-      </c>
-      <c r="X37" s="27">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="X37" s="64">
         <f t="shared" si="10"/>
-        <v>1.5314370184172183E-2</v>
-      </c>
-      <c r="Y37" s="27">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Y37" s="64">
         <f t="shared" si="10"/>
-        <v>7.9154020817384443E-3</v>
-      </c>
-      <c r="Z37" s="27">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Z37" s="64">
         <f t="shared" si="10"/>
-        <v>1.1871653704006174E-2</v>
-      </c>
-      <c r="AA37" s="27">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AA37" s="64">
         <f t="shared" si="10"/>
-        <v>1.3089641552029165E-2</v>
-      </c>
-      <c r="AB37" s="27">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="AB37" s="64">
         <f t="shared" si="10"/>
-        <v>1.6194784858342321E-2</v>
-      </c>
-      <c r="AC37" s="27">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AC37" s="64">
         <f t="shared" si="10"/>
-        <v>1.272342398540301E-2</v>
-      </c>
-      <c r="AD37" s="27">
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="AD37" s="64">
         <f t="shared" si="10"/>
-        <v>1.6945626580446856E-2</v>
-      </c>
-      <c r="AE37" s="27">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AE37" s="64">
         <f t="shared" si="10"/>
-        <v>6.4710564013944778E-3</v>
-      </c>
-      <c r="AF37" s="27">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AF37" s="64">
         <f t="shared" si="10"/>
-        <v>1.1282963024401618E-2</v>
-      </c>
-      <c r="AG37" s="27">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AG37" s="64">
         <f t="shared" si="10"/>
-        <v>1.7408913059663488E-2</v>
-      </c>
-      <c r="AH37" s="27">
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="AH37" s="64">
         <f t="shared" si="10"/>
-        <v>1.0528920260910977E-2</v>
-      </c>
-      <c r="AI37" s="27">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI37" s="64">
         <f t="shared" si="10"/>
-        <v>9.0992061135074936E-3</v>
-      </c>
-      <c r="AJ37" s="27">
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="AJ37" s="64">
         <f t="shared" si="10"/>
-        <v>7.6815860877352945E-3</v>
-      </c>
-      <c r="AK37" s="27">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AK37" s="64">
         <f t="shared" si="10"/>
-        <v>1.129928575321087E-2</v>
-      </c>
-      <c r="AL37" s="27">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AL37" s="64">
         <f t="shared" si="10"/>
-        <v>1.2132191360051241E-2</v>
-      </c>
-      <c r="AM37" s="27">
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="AM37" s="64">
         <f t="shared" si="10"/>
-        <v>1.4116355738962196E-2</v>
-      </c>
-      <c r="AN37" s="27">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AN37" s="64">
         <f t="shared" si="10"/>
-        <v>5.1335741680296381E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AO37" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:41" x14ac:dyDescent="0.3">
       <c r="J38">
         <v>0</v>
       </c>
@@ -5307,7 +5312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="3:41" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:41" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>78</v>
       </c>
@@ -5332,119 +5337,119 @@
         <f>M21</f>
         <v>BUS</v>
       </c>
-      <c r="N39" s="27">
-        <f>C157</f>
-        <v>0.13420523697456904</v>
-      </c>
-      <c r="O39" s="27">
-        <f t="shared" ref="O39:AN39" si="11">D157</f>
-        <v>0.10710044454468777</v>
-      </c>
-      <c r="P39" s="27">
+      <c r="N39" s="64">
+        <f>ROUNDUP(C157,3)</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="O39" s="64">
+        <f t="shared" ref="O39:AN39" si="11">ROUNDUP(D157,3)</f>
+        <v>0.108</v>
+      </c>
+      <c r="P39" s="64">
         <f t="shared" si="11"/>
-        <v>0.19873794082808949</v>
-      </c>
-      <c r="Q39" s="27">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="Q39" s="64">
         <f t="shared" si="11"/>
-        <v>0.12764218879595873</v>
-      </c>
-      <c r="R39" s="27">
+        <v>0.128</v>
+      </c>
+      <c r="R39" s="64">
         <f t="shared" si="11"/>
-        <v>0.17390740340065505</v>
-      </c>
-      <c r="S39" s="27">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="S39" s="64">
         <f t="shared" si="11"/>
-        <v>0.10506709222333424</v>
-      </c>
-      <c r="T39" s="27">
+        <v>0.106</v>
+      </c>
+      <c r="T39" s="64">
         <f t="shared" si="11"/>
-        <v>0.12236196724323453</v>
-      </c>
-      <c r="U39" s="27">
+        <v>0.123</v>
+      </c>
+      <c r="U39" s="64">
         <f t="shared" si="11"/>
-        <v>0.12114061821652349</v>
-      </c>
-      <c r="V39" s="27">
+        <v>0.122</v>
+      </c>
+      <c r="V39" s="64">
         <f t="shared" si="11"/>
-        <v>9.5943192996830379E-2</v>
-      </c>
-      <c r="W39" s="27">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="W39" s="64">
         <f t="shared" si="11"/>
-        <v>0.14406818351631784</v>
-      </c>
-      <c r="X39" s="27">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="X39" s="64">
         <f t="shared" si="11"/>
-        <v>9.1160103344907026E-2</v>
-      </c>
-      <c r="Y39" s="27">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="Y39" s="64">
         <f t="shared" si="11"/>
-        <v>0.10280096830411618</v>
-      </c>
-      <c r="Z39" s="27">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="Z39" s="64">
         <f t="shared" si="11"/>
-        <v>0.1090291442200671</v>
-      </c>
-      <c r="AA39" s="27">
+        <v>0.11</v>
+      </c>
+      <c r="AA39" s="64">
         <f t="shared" si="11"/>
-        <v>9.3500658188139713E-2</v>
-      </c>
-      <c r="AB39" s="27">
+        <v>9.4E-2</v>
+      </c>
+      <c r="AB39" s="64">
         <f t="shared" si="11"/>
-        <v>9.5849985296922749E-2</v>
-      </c>
-      <c r="AC39" s="27">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="AC39" s="64">
         <f t="shared" si="11"/>
-        <v>0.18176945675911579</v>
-      </c>
-      <c r="AD39" s="27">
+        <v>0.182</v>
+      </c>
+      <c r="AD39" s="64">
         <f t="shared" si="11"/>
-        <v>9.8628734938449439E-2</v>
-      </c>
-      <c r="AE39" s="27">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="AE39" s="64">
         <f t="shared" si="11"/>
-        <v>0.1201808986728002</v>
-      </c>
-      <c r="AF39" s="27">
+        <v>0.121</v>
+      </c>
+      <c r="AF39" s="64">
         <f t="shared" si="11"/>
-        <v>8.7922218904635543E-2</v>
-      </c>
-      <c r="AG39" s="27">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="AG39" s="64">
         <f t="shared" si="11"/>
-        <v>0.13744351846908884</v>
-      </c>
-      <c r="AH39" s="27">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="AH39" s="64">
         <f t="shared" si="11"/>
-        <v>0.10027888291084175</v>
-      </c>
-      <c r="AI39" s="27">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="AI39" s="64">
         <f t="shared" si="11"/>
-        <v>0.15362824863350735</v>
-      </c>
-      <c r="AJ39" s="27">
+        <v>0.154</v>
+      </c>
+      <c r="AJ39" s="64">
         <f t="shared" si="11"/>
-        <v>8.779257733251114E-2</v>
-      </c>
-      <c r="AK39" s="27">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="AK39" s="64">
         <f t="shared" si="11"/>
-        <v>0.10761594968374652</v>
-      </c>
-      <c r="AL39" s="27">
+        <v>0.108</v>
+      </c>
+      <c r="AL39" s="64">
         <f t="shared" si="11"/>
-        <v>4.1397867266551647E-2</v>
-      </c>
-      <c r="AM39" s="27">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="AM39" s="64">
         <f t="shared" si="11"/>
-        <v>7.3998501918595234E-3</v>
-      </c>
-      <c r="AN39" s="27">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AN39" s="64">
         <f t="shared" si="11"/>
-        <v>0.24446432784809863</v>
+        <v>0.245</v>
       </c>
       <c r="AO39" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:41" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:41" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J40">
         <v>0</v>
       </c>
@@ -5482,7 +5487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C41" s="30" t="s">
         <v>219</v>
       </c>
@@ -5511,111 +5516,111 @@
         <f>M23</f>
         <v>Light rail (LUAS)</v>
       </c>
-      <c r="N41" s="31">
-        <f>C158</f>
-        <v>6.559186931581344E-3</v>
-      </c>
-      <c r="O41" s="31">
-        <f t="shared" ref="O41:AN41" si="12">D158</f>
-        <v>0</v>
-      </c>
-      <c r="P41" s="31">
+      <c r="N41" s="81">
+        <f>ROUNDUP(C158,3)</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O41" s="81">
+        <f t="shared" ref="O41:AN41" si="12">ROUNDUP(D158,3)</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="81">
         <f t="shared" si="12"/>
-        <v>2.6914642258584892E-2</v>
-      </c>
-      <c r="Q41" s="31">
+        <v>2.7E-2</v>
+      </c>
+      <c r="Q41" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R41" s="31">
+      <c r="R41" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S41" s="31">
+      <c r="S41" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T41" s="31">
+      <c r="T41" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U41" s="31">
+      <c r="U41" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V41" s="31">
+      <c r="V41" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W41" s="31">
+      <c r="W41" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="X41" s="31">
+      <c r="X41" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y41" s="31">
+      <c r="Y41" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z41" s="31">
+      <c r="Z41" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA41" s="31">
+      <c r="AA41" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB41" s="31">
+      <c r="AB41" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC41" s="31">
+      <c r="AC41" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD41" s="31">
+      <c r="AD41" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE41" s="31">
+      <c r="AE41" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AF41" s="31">
+      <c r="AF41" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AG41" s="31">
+      <c r="AG41" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AH41" s="31">
+      <c r="AH41" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI41" s="31">
+      <c r="AI41" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AJ41" s="31">
+      <c r="AJ41" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AK41" s="31">
+      <c r="AK41" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AL41" s="31">
+      <c r="AL41" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AM41" s="31">
+      <c r="AM41" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AN41" s="31">
+      <c r="AN41" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -5623,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
@@ -5670,126 +5675,126 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:41" x14ac:dyDescent="0.3">
       <c r="M44" s="15" t="s">
         <v>229</v>
       </c>
       <c r="N44" s="77">
         <f t="shared" ref="N44:AN44" si="13">SUM(N33:N42)</f>
-        <v>1</v>
+        <v>1.0023</v>
       </c>
       <c r="O44" s="77">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>1.0022</v>
       </c>
       <c r="P44" s="77">
         <f t="shared" si="13"/>
-        <v>0.99999999999999989</v>
+        <v>1.0024</v>
       </c>
       <c r="Q44" s="77">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>1.0017</v>
       </c>
       <c r="R44" s="77">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>1.0005999999999999</v>
       </c>
       <c r="S44" s="77">
         <f t="shared" si="13"/>
-        <v>1.0000000000000002</v>
+        <v>1.0027000000000001</v>
       </c>
       <c r="T44" s="77">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>1.0013000000000001</v>
       </c>
       <c r="U44" s="77">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>1.0015000000000001</v>
       </c>
       <c r="V44" s="77">
         <f t="shared" si="13"/>
-        <v>0.99999999999999989</v>
+        <v>1.0006000000000002</v>
       </c>
       <c r="W44" s="77">
         <f t="shared" si="13"/>
-        <v>1.0000000000000002</v>
+        <v>1.0013999999999998</v>
       </c>
       <c r="X44" s="77">
         <f t="shared" si="13"/>
-        <v>0.99999999999999978</v>
+        <v>1.002</v>
       </c>
       <c r="Y44" s="77">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>1.0004</v>
       </c>
       <c r="Z44" s="77">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>1.002</v>
       </c>
       <c r="AA44" s="77">
         <f t="shared" si="13"/>
-        <v>0.99999999999999989</v>
+        <v>1.0023</v>
       </c>
       <c r="AB44" s="77">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>1.0010000000000001</v>
       </c>
       <c r="AC44" s="77">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>1.0015000000000001</v>
       </c>
       <c r="AD44" s="77">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>1.0009000000000001</v>
       </c>
       <c r="AE44" s="77">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>1.002</v>
       </c>
       <c r="AF44" s="77">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>1.0016</v>
       </c>
       <c r="AG44" s="77">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>1.0022</v>
       </c>
       <c r="AH44" s="77">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>1.002</v>
       </c>
       <c r="AI44" s="77">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>1.002</v>
       </c>
       <c r="AJ44" s="77">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>1.0008000000000001</v>
       </c>
       <c r="AK44" s="77">
         <f t="shared" si="13"/>
-        <v>0.99999999999999989</v>
+        <v>1.0012000000000001</v>
       </c>
       <c r="AL44" s="77">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>1.002</v>
       </c>
       <c r="AM44" s="77">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>1.0022</v>
       </c>
       <c r="AN44" s="77">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="3:41" x14ac:dyDescent="0.25">
+        <v>1.002</v>
+      </c>
+    </row>
+    <row r="48" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C48" s="7"/>
     </row>
-    <row r="49" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C49" s="7"/>
     </row>
-    <row r="50" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C50" s="30"/>
       <c r="D50" s="30"/>
       <c r="E50" s="30"/>
@@ -5832,7 +5837,7 @@
       <c r="AN50" s="30"/>
       <c r="AO50" s="30"/>
     </row>
-    <row r="51" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C51" s="5" t="s">
         <v>1</v>
       </c>
@@ -5978,7 +5983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C52" s="30" t="s">
         <v>79</v>
       </c>
@@ -6007,119 +6012,119 @@
         <f>M35</f>
         <v>LDV</v>
       </c>
-      <c r="N52" s="31">
-        <f>C169</f>
-        <v>0.74108639947108168</v>
-      </c>
-      <c r="O52" s="31">
-        <f t="shared" ref="O52:AN52" si="14">D169</f>
-        <v>0.79071880912169545</v>
-      </c>
-      <c r="P52" s="31">
+      <c r="N52" s="81">
+        <f>ROUNDUP(C169,3)</f>
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="O52" s="81">
+        <f t="shared" ref="O52:AN52" si="14">ROUNDUP(D169,3)</f>
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="P52" s="81">
         <f t="shared" si="14"/>
-        <v>0.6386131571238467</v>
-      </c>
-      <c r="Q52" s="31">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="Q52" s="81">
         <f t="shared" si="14"/>
-        <v>0.75580744416441215</v>
-      </c>
-      <c r="R52" s="31">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="R52" s="81">
         <f t="shared" si="14"/>
-        <v>0.71320246300225565</v>
-      </c>
-      <c r="S52" s="31">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="S52" s="81">
         <f t="shared" si="14"/>
-        <v>0.78115676031065473</v>
-      </c>
-      <c r="T52" s="31">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="T52" s="81">
         <f t="shared" si="14"/>
-        <v>0.76642349622098382</v>
-      </c>
-      <c r="U52" s="31">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="U52" s="81">
         <f t="shared" si="14"/>
-        <v>0.74828496387185417</v>
-      </c>
-      <c r="V52" s="31">
+        <v>0.749</v>
+      </c>
+      <c r="V52" s="81">
         <f t="shared" si="14"/>
-        <v>0.78640329755658556</v>
-      </c>
-      <c r="W52" s="31">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="W52" s="81">
         <f t="shared" si="14"/>
-        <v>0.74588309703681677</v>
-      </c>
-      <c r="X52" s="31">
+        <v>0.746</v>
+      </c>
+      <c r="X52" s="81">
         <f t="shared" si="14"/>
-        <v>0.80172469534468704</v>
-      </c>
-      <c r="Y52" s="31">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="Y52" s="81">
         <f t="shared" si="14"/>
-        <v>0.79583426304303684</v>
-      </c>
-      <c r="Z52" s="31">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="Z52" s="81">
         <f t="shared" si="14"/>
-        <v>0.77907090765006382</v>
-      </c>
-      <c r="AA52" s="31">
+        <v>0.78</v>
+      </c>
+      <c r="AA52" s="81">
         <f t="shared" si="14"/>
-        <v>0.80155723993574601</v>
-      </c>
-      <c r="AB52" s="31">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AB52" s="81">
         <f t="shared" si="14"/>
-        <v>0.78887154985237196</v>
-      </c>
-      <c r="AC52" s="31">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="AC52" s="81">
         <f t="shared" si="14"/>
-        <v>0.70533422841274862</v>
-      </c>
-      <c r="AD52" s="31">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="AD52" s="81">
         <f t="shared" si="14"/>
-        <v>0.78717070970762593</v>
-      </c>
-      <c r="AE52" s="31">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="AE52" s="81">
         <f t="shared" si="14"/>
-        <v>0.77916775606401434</v>
-      </c>
-      <c r="AF52" s="31">
+        <v>0.78</v>
+      </c>
+      <c r="AF52" s="81">
         <f t="shared" si="14"/>
-        <v>0.80467495581567261</v>
-      </c>
-      <c r="AG52" s="31">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="AG52" s="81">
         <f t="shared" si="14"/>
-        <v>0.74505854970828844</v>
-      </c>
-      <c r="AH52" s="31">
+        <v>0.746</v>
+      </c>
+      <c r="AH52" s="81">
         <f t="shared" si="14"/>
-        <v>0.79514890678426453</v>
-      </c>
-      <c r="AI52" s="31">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="AI52" s="81">
         <f t="shared" si="14"/>
-        <v>0.73736495113760858</v>
-      </c>
-      <c r="AJ52" s="31">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="AJ52" s="81">
         <f t="shared" si="14"/>
-        <v>0.81853938082108479</v>
-      </c>
-      <c r="AK52" s="31">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="AK52" s="81">
         <f t="shared" si="14"/>
-        <v>0.77998817627338324</v>
-      </c>
-      <c r="AL52" s="31">
+        <v>0.78</v>
+      </c>
+      <c r="AL52" s="81">
         <f t="shared" si="14"/>
-        <v>0.85154985463859412</v>
-      </c>
-      <c r="AM52" s="31">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="AM52" s="81">
         <f t="shared" si="14"/>
-        <v>0.88006272796227247</v>
-      </c>
-      <c r="AN52" s="31">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="AN52" s="81">
         <f t="shared" si="14"/>
-        <v>0.64231184378282558</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="AO52" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C53" s="30"/>
       <c r="D53" s="30"/>
       <c r="E53" s="30"/>
@@ -6166,7 +6171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C54" s="30" t="s">
         <v>80</v>
       </c>
@@ -6195,119 +6200,119 @@
         <f>M37</f>
         <v>Taxis</v>
       </c>
-      <c r="N54" s="31">
-        <f>C170</f>
-        <v>1.214216695359136E-2</v>
-      </c>
-      <c r="O54" s="31">
-        <f t="shared" ref="O54:AN54" si="15">D170</f>
-        <v>5.244564356444866E-3</v>
-      </c>
-      <c r="P54" s="31">
+      <c r="N54" s="81">
+        <f>ROUNDUP(C170,3)</f>
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="O54" s="81">
+        <f t="shared" ref="O54:AN54" si="15">ROUNDUP(D170,3)</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P54" s="81">
         <f t="shared" si="15"/>
-        <v>2.5318479036608464E-2</v>
-      </c>
-      <c r="Q54" s="31">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="Q54" s="81">
         <f t="shared" si="15"/>
-        <v>1.0199545943263343E-2</v>
-      </c>
-      <c r="R54" s="31">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="R54" s="81">
         <f t="shared" si="15"/>
-        <v>5.4465670112681473E-3</v>
-      </c>
-      <c r="S54" s="31">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="S54" s="81">
         <f t="shared" si="15"/>
-        <v>7.3305854058422536E-3</v>
-      </c>
-      <c r="T54" s="31">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="T54" s="81">
         <f t="shared" si="15"/>
-        <v>6.327365203104513E-3</v>
-      </c>
-      <c r="U54" s="31">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="U54" s="81">
         <f t="shared" si="15"/>
-        <v>1.4553702960433654E-2</v>
-      </c>
-      <c r="V54" s="31">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V54" s="81">
         <f t="shared" si="15"/>
-        <v>1.4378136289327563E-2</v>
-      </c>
-      <c r="W54" s="31">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W54" s="81">
         <f t="shared" si="15"/>
-        <v>4.7655125577413509E-3</v>
-      </c>
-      <c r="X54" s="31">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="X54" s="81">
         <f t="shared" si="15"/>
-        <v>8.6002260738130814E-3</v>
-      </c>
-      <c r="Y54" s="31">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="Y54" s="81">
         <f t="shared" si="15"/>
-        <v>4.4354589246647135E-3</v>
-      </c>
-      <c r="Z54" s="31">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Z54" s="81">
         <f t="shared" si="15"/>
-        <v>6.592434448494537E-3</v>
-      </c>
-      <c r="AA54" s="31">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AA54" s="81">
         <f t="shared" si="15"/>
-        <v>7.3526877521562662E-3</v>
-      </c>
-      <c r="AB54" s="31">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AB54" s="81">
         <f t="shared" si="15"/>
-        <v>9.0159384819168999E-3</v>
-      </c>
-      <c r="AC54" s="31">
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="AC54" s="81">
         <f t="shared" si="15"/>
-        <v>6.9712334769449829E-3</v>
-      </c>
-      <c r="AD54" s="31">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AD54" s="81">
         <f t="shared" si="15"/>
-        <v>9.4394919428535985E-3</v>
-      </c>
-      <c r="AE54" s="31">
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="AE54" s="81">
         <f t="shared" si="15"/>
-        <v>3.6138078846859318E-3</v>
-      </c>
-      <c r="AF54" s="31">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AF54" s="81">
         <f t="shared" si="15"/>
-        <v>6.3123502546919919E-3</v>
-      </c>
-      <c r="AG54" s="31">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AG54" s="81">
         <f t="shared" si="15"/>
-        <v>9.5979099500525071E-3</v>
-      </c>
-      <c r="AH54" s="31">
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="AH54" s="81">
         <f t="shared" si="15"/>
-        <v>5.8735122381989901E-3</v>
-      </c>
-      <c r="AI54" s="31">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AI54" s="81">
         <f t="shared" si="15"/>
-        <v>5.0103707288089395E-3</v>
-      </c>
-      <c r="AJ54" s="31">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AJ54" s="81">
         <f t="shared" si="15"/>
-        <v>4.3449135578945168E-3</v>
-      </c>
-      <c r="AK54" s="31">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AK54" s="81">
         <f t="shared" si="15"/>
-        <v>6.2553697184935773E-3</v>
-      </c>
-      <c r="AL54" s="31">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AL54" s="81">
         <f t="shared" si="15"/>
-        <v>6.8237115745591239E-3</v>
-      </c>
-      <c r="AM54" s="31">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AM54" s="81">
         <f t="shared" si="15"/>
-        <v>7.9379260453763534E-3</v>
-      </c>
-      <c r="AN54" s="31">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AN54" s="81">
         <f t="shared" si="15"/>
-        <v>2.7483693665086213E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AO54" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C55" s="30"/>
       <c r="D55" s="30"/>
       <c r="E55" s="30"/>
@@ -6354,7 +6359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C56" s="30" t="s">
         <v>81</v>
       </c>
@@ -6383,119 +6388,119 @@
         <f>M39</f>
         <v>BUS</v>
       </c>
-      <c r="N56" s="31">
-        <f>C171</f>
-        <v>0.1626965950818042</v>
-      </c>
-      <c r="O56" s="31">
-        <f t="shared" ref="O56:AN56" si="16">D171</f>
-        <v>0.13109626623170204</v>
-      </c>
-      <c r="P56" s="31">
+      <c r="N56" s="81">
+        <f>ROUNDUP(C171,3)</f>
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="O56" s="81">
+        <f t="shared" ref="O56:AN56" si="16">ROUNDUP(D171,3)</f>
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="P56" s="81">
         <f t="shared" si="16"/>
-        <v>0.23916819504950479</v>
-      </c>
-      <c r="Q56" s="31">
+        <v>0.24</v>
+      </c>
+      <c r="Q56" s="81">
         <f t="shared" si="16"/>
-        <v>0.15479346868381608</v>
-      </c>
-      <c r="R56" s="31">
+        <v>0.155</v>
+      </c>
+      <c r="R56" s="81">
         <f t="shared" si="16"/>
-        <v>0.20800029152740038</v>
-      </c>
-      <c r="S56" s="31">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="S56" s="81">
         <f t="shared" si="16"/>
-        <v>0.12724978858051844</v>
-      </c>
-      <c r="T56" s="31">
+        <v>0.128</v>
+      </c>
+      <c r="T56" s="81">
         <f t="shared" si="16"/>
-        <v>0.14827744084788594</v>
-      </c>
-      <c r="U56" s="31">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="U56" s="81">
         <f t="shared" si="16"/>
-        <v>0.14551722418000443</v>
-      </c>
-      <c r="V56" s="31">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="V56" s="81">
         <f t="shared" si="16"/>
-        <v>0.11766218454461841</v>
-      </c>
-      <c r="W56" s="31">
+        <v>0.11800000000000001</v>
+      </c>
+      <c r="W56" s="81">
         <f t="shared" si="16"/>
-        <v>0.17371900154534914</v>
-      </c>
-      <c r="X56" s="31">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="X56" s="81">
         <f t="shared" si="16"/>
-        <v>0.11196687123703571</v>
-      </c>
-      <c r="Y56" s="31">
+        <v>0.112</v>
+      </c>
+      <c r="Y56" s="81">
         <f t="shared" si="16"/>
-        <v>0.12599020808803368</v>
-      </c>
-      <c r="Z56" s="31">
+        <v>0.126</v>
+      </c>
+      <c r="Z56" s="81">
         <f t="shared" si="16"/>
-        <v>0.13241927644257739</v>
-      </c>
-      <c r="AA56" s="31">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="AA56" s="81">
         <f t="shared" si="16"/>
-        <v>0.11487011188674058</v>
-      </c>
-      <c r="AB56" s="31">
+        <v>0.115</v>
+      </c>
+      <c r="AB56" s="81">
         <f t="shared" si="16"/>
-        <v>0.11670831913312733</v>
-      </c>
-      <c r="AC56" s="31">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="AC56" s="81">
         <f t="shared" si="16"/>
-        <v>0.2178213998684824</v>
-      </c>
-      <c r="AD56" s="31">
+        <v>0.218</v>
+      </c>
+      <c r="AD56" s="81">
         <f t="shared" si="16"/>
-        <v>0.12016236232976817</v>
-      </c>
-      <c r="AE56" s="31">
+        <v>0.121</v>
+      </c>
+      <c r="AE56" s="81">
         <f t="shared" si="16"/>
-        <v>0.14679096653005977</v>
-      </c>
-      <c r="AF56" s="31">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AF56" s="81">
         <f t="shared" si="16"/>
-        <v>0.10758223700696061</v>
-      </c>
-      <c r="AG56" s="31">
+        <v>0.108</v>
+      </c>
+      <c r="AG56" s="81">
         <f t="shared" si="16"/>
-        <v>0.1657308225029282</v>
-      </c>
-      <c r="AH56" s="31">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="AH56" s="81">
         <f t="shared" si="16"/>
-        <v>0.12234818626194599</v>
-      </c>
-      <c r="AI56" s="31">
+        <v>0.123</v>
+      </c>
+      <c r="AI56" s="81">
         <f t="shared" si="16"/>
-        <v>0.18501691930313938</v>
-      </c>
-      <c r="AJ56" s="31">
+        <v>0.186</v>
+      </c>
+      <c r="AJ56" s="81">
         <f t="shared" si="16"/>
-        <v>0.10860805699514527</v>
-      </c>
-      <c r="AK56" s="31">
+        <v>0.109</v>
+      </c>
+      <c r="AK56" s="81">
         <f t="shared" si="16"/>
-        <v>0.13030246782805119</v>
-      </c>
-      <c r="AL56" s="31">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="AL56" s="81">
         <f t="shared" si="16"/>
-        <v>5.0925275195199252E-2</v>
-      </c>
-      <c r="AM56" s="31">
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="AM56" s="81">
         <f t="shared" si="16"/>
-        <v>9.1008381034736394E-3</v>
-      </c>
-      <c r="AN56" s="31">
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="AN56" s="81">
         <f t="shared" si="16"/>
-        <v>0.28624951607603277</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="AO56" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C57" s="30"/>
       <c r="D57" s="30"/>
       <c r="E57" s="30"/>
@@ -6542,7 +6547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C58" s="30" t="s">
         <v>82</v>
       </c>
@@ -6571,119 +6576,119 @@
         <f>D131</f>
         <v>Train</v>
       </c>
-      <c r="N58" s="31">
-        <f>C173</f>
-        <v>8.4074838493522847E-2</v>
-      </c>
-      <c r="O58" s="31">
-        <f t="shared" ref="O58:AN58" si="17">D173</f>
-        <v>7.2940360290157685E-2</v>
-      </c>
-      <c r="P58" s="31">
+      <c r="N58" s="81">
+        <f>ROUNDUP(C173,3)</f>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="O58" s="81">
+        <f t="shared" ref="O58:AN58" si="17">ROUNDUP(D173,3)</f>
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="P58" s="81">
         <f t="shared" si="17"/>
-        <v>9.6900168790040125E-2</v>
-      </c>
-      <c r="Q58" s="31">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="Q58" s="81">
         <f t="shared" si="17"/>
-        <v>7.91995412085085E-2</v>
-      </c>
-      <c r="R58" s="31">
+        <v>0.08</v>
+      </c>
+      <c r="R58" s="81">
         <f t="shared" si="17"/>
-        <v>7.3350678459075919E-2</v>
-      </c>
-      <c r="S58" s="31">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="S58" s="81">
         <f t="shared" si="17"/>
-        <v>8.426286570298451E-2</v>
-      </c>
-      <c r="T58" s="31">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="T58" s="81">
         <f t="shared" si="17"/>
-        <v>7.8971697728025606E-2</v>
-      </c>
-      <c r="U58" s="31">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="U58" s="81">
         <f t="shared" si="17"/>
-        <v>9.1644108987707917E-2</v>
-      </c>
-      <c r="V58" s="31">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="V58" s="81">
         <f t="shared" si="17"/>
-        <v>8.1556381609468237E-2</v>
-      </c>
-      <c r="W58" s="31">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="W58" s="81">
         <f t="shared" si="17"/>
-        <v>7.5632388860092645E-2</v>
-      </c>
-      <c r="X58" s="31">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="X58" s="81">
         <f t="shared" si="17"/>
-        <v>7.7708207344464181E-2</v>
-      </c>
-      <c r="Y58" s="31">
+        <v>7.8E-2</v>
+      </c>
+      <c r="Y58" s="81">
         <f t="shared" si="17"/>
-        <v>7.3740069944264783E-2</v>
-      </c>
-      <c r="Z58" s="31">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="Z58" s="81">
         <f t="shared" si="17"/>
-        <v>8.1917381458864319E-2</v>
-      </c>
-      <c r="AA58" s="31">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="AA58" s="81">
         <f t="shared" si="17"/>
-        <v>7.6219960425357156E-2</v>
-      </c>
-      <c r="AB58" s="31">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="AB58" s="81">
         <f t="shared" si="17"/>
-        <v>8.5404192532583911E-2</v>
-      </c>
-      <c r="AC58" s="31">
+        <v>8.6000000000000007E-2</v>
+      </c>
+      <c r="AC58" s="81">
         <f t="shared" si="17"/>
-        <v>6.987313824182402E-2</v>
-      </c>
-      <c r="AD58" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD58" s="81">
         <f t="shared" si="17"/>
-        <v>8.3227436019752521E-2</v>
-      </c>
-      <c r="AE58" s="31">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AE58" s="81">
         <f t="shared" si="17"/>
-        <v>7.0427469521239974E-2</v>
-      </c>
-      <c r="AF58" s="31">
+        <v>7.1000000000000008E-2</v>
+      </c>
+      <c r="AF58" s="81">
         <f t="shared" si="17"/>
-        <v>8.1430456922674907E-2</v>
-      </c>
-      <c r="AG58" s="31">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="AG58" s="81">
         <f t="shared" si="17"/>
-        <v>7.9612717838730945E-2</v>
-      </c>
-      <c r="AH58" s="31">
+        <v>0.08</v>
+      </c>
+      <c r="AH58" s="81">
         <f t="shared" si="17"/>
-        <v>7.6629394715590618E-2</v>
-      </c>
-      <c r="AI58" s="31">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="AI58" s="81">
         <f t="shared" si="17"/>
-        <v>7.2607758830443E-2</v>
-      </c>
-      <c r="AJ58" s="31">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="AJ58" s="81">
         <f t="shared" si="17"/>
-        <v>6.8507648625875522E-2</v>
-      </c>
-      <c r="AK58" s="31">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="AK58" s="81">
         <f t="shared" si="17"/>
-        <v>8.3453986180072076E-2</v>
-      </c>
-      <c r="AL58" s="31">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AL58" s="81">
         <f t="shared" si="17"/>
-        <v>9.070115859164736E-2</v>
-      </c>
-      <c r="AM58" s="31">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="AM58" s="81">
         <f t="shared" si="17"/>
-        <v>0.10289850788887757</v>
-      </c>
-      <c r="AN58" s="31">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="AN58" s="81">
         <f t="shared" si="17"/>
-        <v>6.8690270774633036E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="AO58" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C59" s="28"/>
       <c r="D59" s="28"/>
       <c r="E59" s="28"/>
@@ -6730,7 +6735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="3:41" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:41" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="30"/>
       <c r="D60" s="30"/>
       <c r="E60" s="30"/>
@@ -6771,7 +6776,7 @@
       <c r="AN60" s="30"/>
       <c r="AO60" s="30"/>
     </row>
-    <row r="61" spans="3:41" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:41" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="30"/>
       <c r="D61" s="30"/>
       <c r="E61" s="30"/>
@@ -6787,115 +6792,115 @@
       </c>
       <c r="N61" s="77">
         <f t="shared" ref="N61:AN61" si="18">SUM(N52:N58)</f>
-        <v>1.0000000000000002</v>
+        <v>1.0030000000000001</v>
       </c>
       <c r="O61" s="77">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>1.002</v>
       </c>
       <c r="P61" s="77">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>1.002</v>
       </c>
       <c r="Q61" s="77">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>1.002</v>
       </c>
       <c r="R61" s="77">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="S61" s="77">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>1.0030000000000001</v>
       </c>
       <c r="T61" s="77">
         <f t="shared" si="18"/>
-        <v>0.99999999999999989</v>
+        <v>1.002</v>
       </c>
       <c r="U61" s="77">
         <f t="shared" si="18"/>
-        <v>1.0000000000000002</v>
+        <v>1.002</v>
       </c>
       <c r="V61" s="77">
         <f t="shared" si="18"/>
-        <v>0.99999999999999978</v>
+        <v>1.002</v>
       </c>
       <c r="W61" s="77">
         <f t="shared" si="18"/>
-        <v>0.99999999999999989</v>
+        <v>1.0010000000000001</v>
       </c>
       <c r="X61" s="77">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>1.0010000000000001</v>
       </c>
       <c r="Y61" s="77">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>1.0010000000000001</v>
       </c>
       <c r="Z61" s="77">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>1.002</v>
       </c>
       <c r="AA61" s="77">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>1.002</v>
       </c>
       <c r="AB61" s="77">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>1.002</v>
       </c>
       <c r="AC61" s="77">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="AD61" s="77">
         <f t="shared" si="18"/>
-        <v>1.0000000000000002</v>
+        <v>1.0030000000000001</v>
       </c>
       <c r="AE61" s="77">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>1.002</v>
       </c>
       <c r="AF61" s="77">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>1.002</v>
       </c>
       <c r="AG61" s="77">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>1.002</v>
       </c>
       <c r="AH61" s="77">
         <f t="shared" si="18"/>
-        <v>1.0000000000000002</v>
+        <v>1.002</v>
       </c>
       <c r="AI61" s="77">
         <f t="shared" si="18"/>
-        <v>0.99999999999999989</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="AJ61" s="77">
         <f t="shared" si="18"/>
-        <v>1.0000000000000002</v>
+        <v>1.002</v>
       </c>
       <c r="AK61" s="77">
         <f t="shared" si="18"/>
-        <v>1.0000000000000002</v>
+        <v>1.002</v>
       </c>
       <c r="AL61" s="77">
         <f t="shared" si="18"/>
-        <v>0.99999999999999989</v>
+        <v>1.0010000000000001</v>
       </c>
       <c r="AM61" s="77">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>1.002</v>
       </c>
       <c r="AN61" s="77">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>1.002</v>
       </c>
       <c r="AO61" s="30"/>
     </row>
-    <row r="62" spans="3:41" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:41" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="30"/>
       <c r="D62" s="30"/>
       <c r="E62" s="30"/>
@@ -6936,7 +6941,7 @@
       <c r="AN62" s="30"/>
       <c r="AO62" s="30"/>
     </row>
-    <row r="63" spans="3:41" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:41" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="30"/>
       <c r="D63" s="30"/>
       <c r="E63" s="30"/>
@@ -6977,7 +6982,7 @@
       <c r="AN63" s="30"/>
       <c r="AO63" s="30"/>
     </row>
-    <row r="64" spans="3:41" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:41" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="30"/>
       <c r="D64" s="30"/>
       <c r="E64" s="30"/>
@@ -7018,7 +7023,7 @@
       <c r="AN64" s="30"/>
       <c r="AO64" s="30"/>
     </row>
-    <row r="65" spans="3:41" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:41" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="30"/>
       <c r="D65" s="30"/>
       <c r="E65" s="30"/>
@@ -7059,7 +7064,7 @@
       <c r="AN65" s="30"/>
       <c r="AO65" s="30"/>
     </row>
-    <row r="66" spans="3:41" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:41" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="30"/>
       <c r="D66" s="30"/>
       <c r="E66" s="30"/>
@@ -7100,7 +7105,7 @@
       <c r="AN66" s="30"/>
       <c r="AO66" s="30"/>
     </row>
-    <row r="74" spans="3:41" ht="21" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:41" ht="21" x14ac:dyDescent="0.4">
       <c r="C74" s="48" t="s">
         <v>122</v>
       </c>
@@ -7113,7 +7118,7 @@
       <c r="J74" s="15"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="41" t="s">
         <v>123</v>
       </c>
@@ -7128,7 +7133,7 @@
       <c r="J75" s="15"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C76" s="42" t="s">
         <v>125</v>
       </c>
@@ -7141,7 +7146,7 @@
       <c r="J76" s="15"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C77" s="43" t="s">
         <v>126</v>
       </c>
@@ -7154,7 +7159,7 @@
       <c r="J77" s="15"/>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C78" s="44" t="s">
         <v>127</v>
       </c>
@@ -7169,7 +7174,7 @@
       <c r="J78" s="15"/>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C79" s="44" t="s">
         <v>129</v>
       </c>
@@ -7184,7 +7189,7 @@
       <c r="J79" s="15"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C80" s="43" t="s">
         <v>131</v>
       </c>
@@ -7197,7 +7202,7 @@
       <c r="J80" s="15"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="44" t="s">
         <v>132</v>
       </c>
@@ -7212,7 +7217,7 @@
       <c r="J81" s="15"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="43" t="s">
         <v>134</v>
       </c>
@@ -7225,7 +7230,7 @@
       <c r="J82" s="15"/>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="44" t="s">
         <v>135</v>
       </c>
@@ -7240,7 +7245,7 @@
       <c r="J83" s="15"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="44" t="s">
         <v>137</v>
       </c>
@@ -7255,7 +7260,7 @@
       <c r="J84" s="15"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="44" t="s">
         <v>139</v>
       </c>
@@ -7270,7 +7275,7 @@
       <c r="J85" s="15"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="44" t="s">
         <v>141</v>
       </c>
@@ -7285,7 +7290,7 @@
       <c r="J86" s="15"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="44" t="s">
         <v>143</v>
       </c>
@@ -7300,7 +7305,7 @@
       <c r="J87" s="15"/>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="44" t="s">
         <v>145</v>
       </c>
@@ -7315,7 +7320,7 @@
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="44" t="s">
         <v>147</v>
       </c>
@@ -7330,7 +7335,7 @@
       <c r="J89" s="15"/>
       <c r="K89" s="15"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="44" t="s">
         <v>149</v>
       </c>
@@ -7345,7 +7350,7 @@
       <c r="J90" s="15"/>
       <c r="K90" s="15"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="44" t="s">
         <v>151</v>
       </c>
@@ -7360,7 +7365,7 @@
       <c r="J91" s="15"/>
       <c r="K91" s="15"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="43" t="s">
         <v>153</v>
       </c>
@@ -7373,7 +7378,7 @@
       <c r="J92" s="15"/>
       <c r="K92" s="15"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="44" t="s">
         <v>154</v>
       </c>
@@ -7388,7 +7393,7 @@
       <c r="J93" s="15"/>
       <c r="K93" s="15"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="44" t="s">
         <v>156</v>
       </c>
@@ -7403,7 +7408,7 @@
       <c r="J94" s="15"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="44" t="s">
         <v>158</v>
       </c>
@@ -7418,7 +7423,7 @@
       <c r="J95" s="15"/>
       <c r="K95" s="15"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="43" t="s">
         <v>160</v>
       </c>
@@ -7431,7 +7436,7 @@
       <c r="J96" s="15"/>
       <c r="K96" s="15"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="44" t="s">
         <v>161</v>
       </c>
@@ -7446,7 +7451,7 @@
       <c r="J97" s="15"/>
       <c r="K97" s="15"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="43" t="s">
         <v>163</v>
       </c>
@@ -7459,7 +7464,7 @@
       <c r="J98" s="15"/>
       <c r="K98" s="15"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="44" t="s">
         <v>164</v>
       </c>
@@ -7474,7 +7479,7 @@
       <c r="J99" s="15"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="44" t="s">
         <v>166</v>
       </c>
@@ -7489,7 +7494,7 @@
       <c r="J100" s="15"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C101" s="44" t="s">
         <v>168</v>
       </c>
@@ -7504,7 +7509,7 @@
       <c r="J101" s="15"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C102" s="45" t="s">
         <v>170</v>
       </c>
@@ -7517,7 +7522,7 @@
       <c r="J102" s="15"/>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C103" s="43" t="s">
         <v>171</v>
       </c>
@@ -7530,7 +7535,7 @@
       <c r="J103" s="15"/>
       <c r="K103" s="15"/>
     </row>
-    <row r="104" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C104" s="44" t="s">
         <v>172</v>
       </c>
@@ -7545,7 +7550,7 @@
       <c r="J104" s="15"/>
       <c r="K104" s="15"/>
     </row>
-    <row r="105" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C105" s="44" t="s">
         <v>174</v>
       </c>
@@ -7560,7 +7565,7 @@
       <c r="J105" s="15"/>
       <c r="K105" s="15"/>
     </row>
-    <row r="106" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C106" s="44" t="s">
         <v>176</v>
       </c>
@@ -7575,7 +7580,7 @@
       <c r="J106" s="15"/>
       <c r="K106" s="15"/>
     </row>
-    <row r="107" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C107" s="45" t="s">
         <v>178</v>
       </c>
@@ -7588,7 +7593,7 @@
       <c r="J107" s="15"/>
       <c r="K107" s="15"/>
     </row>
-    <row r="108" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C108" s="44" t="s">
         <v>179</v>
       </c>
@@ -7603,7 +7608,7 @@
       <c r="J108" s="15"/>
       <c r="K108" s="15"/>
     </row>
-    <row r="109" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C109" s="44" t="s">
         <v>181</v>
       </c>
@@ -7618,7 +7623,7 @@
       <c r="J109" s="15"/>
       <c r="K109" s="15"/>
     </row>
-    <row r="110" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C110" s="44" t="s">
         <v>183</v>
       </c>
@@ -7633,7 +7638,7 @@
       <c r="J110" s="15"/>
       <c r="K110" s="15"/>
     </row>
-    <row r="111" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C111" s="45" t="s">
         <v>185</v>
       </c>
@@ -7646,7 +7651,7 @@
       <c r="J111" s="15"/>
       <c r="K111" s="15"/>
     </row>
-    <row r="112" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C112" s="44" t="s">
         <v>186</v>
       </c>
@@ -7661,7 +7666,7 @@
       <c r="J112" s="15"/>
       <c r="K112" s="15"/>
     </row>
-    <row r="113" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C113" s="46" t="s">
         <v>188</v>
       </c>
@@ -7676,7 +7681,7 @@
       <c r="J113" s="15"/>
       <c r="K113" s="15"/>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A114" s="15"/>
       <c r="B114" s="15"/>
       <c r="C114" s="15"/>
@@ -7708,7 +7713,7 @@
       <c r="AC114" s="15"/>
       <c r="AD114" s="15"/>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A115" s="15"/>
       <c r="B115" s="15"/>
       <c r="C115" s="15"/>
@@ -7740,7 +7745,7 @@
       <c r="AC115" s="15"/>
       <c r="AD115" s="15"/>
     </row>
-    <row r="116" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="15"/>
       <c r="B116" s="15"/>
       <c r="C116" s="50" t="s">
@@ -7780,7 +7785,7 @@
       <c r="AC116" s="15"/>
       <c r="AD116" s="15"/>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A117" s="15"/>
       <c r="B117" s="15"/>
       <c r="C117" s="15" t="s">
@@ -7820,7 +7825,7 @@
       <c r="AC117" s="15"/>
       <c r="AD117" s="15"/>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A118" s="15"/>
       <c r="B118" s="15"/>
       <c r="C118" s="15" t="s">
@@ -7860,7 +7865,7 @@
       <c r="AC118" s="15"/>
       <c r="AD118" s="15"/>
     </row>
-    <row r="119" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="15"/>
       <c r="B119" s="15"/>
       <c r="C119" s="49" t="s">
@@ -7900,7 +7905,7 @@
       <c r="AC119" s="15"/>
       <c r="AD119" s="15"/>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A120" s="15"/>
       <c r="B120" s="15"/>
       <c r="C120" s="15"/>
@@ -7932,7 +7937,7 @@
       <c r="AC120" s="15"/>
       <c r="AD120" s="15"/>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A121" s="15"/>
       <c r="B121" s="15"/>
       <c r="C121" s="15"/>
@@ -7964,7 +7969,7 @@
       <c r="AC121" s="15"/>
       <c r="AD121" s="15"/>
     </row>
-    <row r="122" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="15"/>
       <c r="B122" s="15"/>
       <c r="C122" s="53" t="s">
@@ -7998,7 +8003,7 @@
       <c r="AC122" s="15"/>
       <c r="AD122" s="15"/>
     </row>
-    <row r="123" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="15"/>
       <c r="B123" s="15"/>
       <c r="C123" s="50" t="s">
@@ -8034,7 +8039,7 @@
       <c r="AC123" s="15"/>
       <c r="AD123" s="15"/>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A124" s="15"/>
       <c r="B124" s="15"/>
       <c r="C124" s="15" t="s">
@@ -8070,7 +8075,7 @@
       <c r="AC124" s="15"/>
       <c r="AD124" s="15"/>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A125" s="15"/>
       <c r="B125" s="15"/>
       <c r="C125" s="15"/>
@@ -8104,7 +8109,7 @@
       <c r="AC125" s="15"/>
       <c r="AD125" s="15"/>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A126" s="15"/>
       <c r="B126" s="15"/>
       <c r="C126" s="15" t="s">
@@ -8140,7 +8145,7 @@
       <c r="AC126" s="15"/>
       <c r="AD126" s="15"/>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A127" s="15"/>
       <c r="B127" s="15"/>
       <c r="C127" s="15"/>
@@ -8174,7 +8179,7 @@
       <c r="AC127" s="15"/>
       <c r="AD127" s="15"/>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A128" s="15"/>
       <c r="B128" s="15"/>
       <c r="C128" s="15" t="s">
@@ -8210,7 +8215,7 @@
       <c r="AC128" s="15"/>
       <c r="AD128" s="15"/>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -8244,7 +8249,7 @@
       <c r="AC129" s="15"/>
       <c r="AD129" s="15"/>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A130" s="15"/>
       <c r="B130" s="15"/>
       <c r="C130" s="15"/>
@@ -8278,7 +8283,7 @@
       <c r="AC130" s="15"/>
       <c r="AD130" s="15"/>
     </row>
-    <row r="131" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="15"/>
       <c r="B131" s="15"/>
       <c r="C131" s="49"/>
@@ -8312,7 +8317,7 @@
       <c r="AC131" s="15"/>
       <c r="AD131" s="15"/>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A132" s="15"/>
       <c r="B132" s="15"/>
       <c r="C132" s="15"/>
@@ -8344,7 +8349,7 @@
       <c r="AC132" s="15"/>
       <c r="AD132" s="15"/>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A133" s="15"/>
       <c r="B133" s="15"/>
       <c r="C133" s="15"/>
@@ -8376,7 +8381,7 @@
       <c r="AC133" s="15"/>
       <c r="AD133" s="15"/>
     </row>
-    <row r="134" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="54" t="s">
         <v>214</v>
       </c>
@@ -8410,7 +8415,7 @@
       <c r="AC134" s="15"/>
       <c r="AD134" s="15"/>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A135" s="15"/>
       <c r="B135" s="15"/>
       <c r="C135" s="15"/>
@@ -8442,7 +8447,7 @@
       <c r="AC135" s="15"/>
       <c r="AD135" s="15"/>
     </row>
-    <row r="136" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="55" t="s">
         <v>215</v>
       </c>
@@ -8476,7 +8481,7 @@
       <c r="AC136" s="56"/>
       <c r="AD136" s="15"/>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A137" s="57" t="s">
         <v>201</v>
       </c>
@@ -8566,7 +8571,7 @@
       </c>
       <c r="AD137" s="15"/>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A138" s="56" t="s">
         <v>203</v>
       </c>
@@ -8656,12 +8661,12 @@
       </c>
       <c r="AD138" s="15"/>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A139" s="56"/>
       <c r="B139" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="C139" s="59">
+      <c r="C139" s="78">
         <v>5.3963306308090382E-2</v>
       </c>
       <c r="D139" s="59">
@@ -8744,7 +8749,7 @@
       </c>
       <c r="AD139" s="15"/>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A140" s="56" t="s">
         <v>206</v>
       </c>
@@ -8834,7 +8839,7 @@
       </c>
       <c r="AD140" s="15"/>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A141" s="56"/>
       <c r="B141" s="56" t="s">
         <v>208</v>
@@ -8922,7 +8927,7 @@
       </c>
       <c r="AD141" s="15"/>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A142" s="56" t="s">
         <v>209</v>
       </c>
@@ -9012,7 +9017,7 @@
       </c>
       <c r="AD142" s="15"/>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A143" s="56"/>
       <c r="B143" s="56" t="s">
         <v>211</v>
@@ -9100,7 +9105,7 @@
       </c>
       <c r="AD143" s="15"/>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A144" s="56"/>
       <c r="B144" s="56" t="s">
         <v>212</v>
@@ -9188,7 +9193,7 @@
       </c>
       <c r="AD144" s="15"/>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A145" s="56"/>
       <c r="B145" s="56" t="s">
         <v>213</v>
@@ -9276,7 +9281,7 @@
       </c>
       <c r="AD145" s="15"/>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A146" s="61"/>
       <c r="B146" s="62" t="s">
         <v>216</v>
@@ -9364,7 +9369,7 @@
       </c>
       <c r="AD146" s="15"/>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A147" s="56"/>
       <c r="B147" s="56"/>
       <c r="C147" s="56"/>
@@ -9396,7 +9401,7 @@
       <c r="AC147" s="56"/>
       <c r="AD147" s="15"/>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A148" s="56"/>
       <c r="B148" s="56"/>
       <c r="C148" s="56"/>
@@ -9428,7 +9433,7 @@
       <c r="AC148" s="56"/>
       <c r="AD148" s="15"/>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A149" s="56"/>
       <c r="B149" s="56"/>
       <c r="C149" s="56"/>
@@ -9460,7 +9465,7 @@
       <c r="AC149" s="56"/>
       <c r="AD149" s="15"/>
     </row>
-    <row r="150" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="55" t="s">
         <v>217</v>
       </c>
@@ -9494,7 +9499,7 @@
       <c r="AC150" s="56"/>
       <c r="AD150" s="15"/>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A151" s="57" t="s">
         <v>201</v>
       </c>
@@ -9584,7 +9589,7 @@
       </c>
       <c r="AD151" s="15"/>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A152" s="56" t="s">
         <v>203</v>
       </c>
@@ -9674,7 +9679,7 @@
       </c>
       <c r="AD152" s="15"/>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A153" s="56"/>
       <c r="B153" s="56" t="s">
         <v>205</v>
@@ -9762,7 +9767,7 @@
       </c>
       <c r="AD153" s="15"/>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A154" s="56" t="s">
         <v>206</v>
       </c>
@@ -9852,7 +9857,7 @@
       </c>
       <c r="AD154" s="15"/>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A155" s="56"/>
       <c r="B155" s="56" t="s">
         <v>208</v>
@@ -9940,7 +9945,7 @@
       </c>
       <c r="AD155" s="15"/>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A156" s="56" t="s">
         <v>209</v>
       </c>
@@ -10030,7 +10035,7 @@
       </c>
       <c r="AD156" s="15"/>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A157" s="56"/>
       <c r="B157" s="56" t="s">
         <v>211</v>
@@ -10118,7 +10123,7 @@
       </c>
       <c r="AD157" s="15"/>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A158" s="56"/>
       <c r="B158" s="56" t="s">
         <v>212</v>
@@ -10206,7 +10211,7 @@
       </c>
       <c r="AD158" s="15"/>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A159" s="56"/>
       <c r="B159" s="56" t="s">
         <v>213</v>
@@ -10294,7 +10299,7 @@
       </c>
       <c r="AD159" s="15"/>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A160" s="61"/>
       <c r="B160" s="62" t="s">
         <v>216</v>
@@ -10382,7 +10387,7 @@
       </c>
       <c r="AD160" s="15"/>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A161" s="56"/>
       <c r="B161" s="56"/>
       <c r="C161" s="56"/>
@@ -10414,7 +10419,7 @@
       <c r="AC161" s="56"/>
       <c r="AD161" s="15"/>
     </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A162" s="56"/>
       <c r="B162" s="56"/>
       <c r="C162" s="56"/>
@@ -10446,7 +10451,7 @@
       <c r="AC162" s="56"/>
       <c r="AD162" s="15"/>
     </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A163" s="56"/>
       <c r="B163" s="56"/>
       <c r="C163" s="56"/>
@@ -10478,7 +10483,7 @@
       <c r="AC163" s="56"/>
       <c r="AD163" s="15"/>
     </row>
-    <row r="164" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="55" t="s">
         <v>218</v>
       </c>
@@ -10512,7 +10517,7 @@
       <c r="AC164" s="56"/>
       <c r="AD164" s="15"/>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A165" s="57" t="s">
         <v>201</v>
       </c>
@@ -10602,7 +10607,7 @@
       </c>
       <c r="AD165" s="15"/>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A166" s="56" t="s">
         <v>203</v>
       </c>
@@ -10692,7 +10697,7 @@
       </c>
       <c r="AD166" s="15"/>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A167" s="56"/>
       <c r="B167" s="56" t="s">
         <v>205</v>
@@ -10780,7 +10785,7 @@
       </c>
       <c r="AD167" s="15"/>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A168" s="56" t="s">
         <v>206</v>
       </c>
@@ -10870,7 +10875,7 @@
       </c>
       <c r="AD168" s="15"/>
     </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A169" s="56"/>
       <c r="B169" s="56" t="s">
         <v>208</v>
@@ -10958,7 +10963,7 @@
       </c>
       <c r="AD169" s="15"/>
     </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A170" s="56" t="s">
         <v>209</v>
       </c>
@@ -11048,7 +11053,7 @@
       </c>
       <c r="AD170" s="15"/>
     </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A171" s="56"/>
       <c r="B171" s="56" t="s">
         <v>211</v>
@@ -11136,7 +11141,7 @@
       </c>
       <c r="AD171" s="15"/>
     </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A172" s="56"/>
       <c r="B172" s="56" t="s">
         <v>212</v>
@@ -11224,7 +11229,7 @@
       </c>
       <c r="AD172" s="15"/>
     </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A173" s="56"/>
       <c r="B173" s="56" t="s">
         <v>213</v>
@@ -11312,7 +11317,7 @@
       </c>
       <c r="AD173" s="15"/>
     </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A174" s="61"/>
       <c r="B174" s="62" t="s">
         <v>216</v>
@@ -11400,7 +11405,7 @@
       </c>
       <c r="AD174" s="15"/>
     </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A175" s="15"/>
       <c r="B175" s="15"/>
       <c r="C175" s="15"/>
@@ -11432,7 +11437,7 @@
       <c r="AC175" s="15"/>
       <c r="AD175" s="15"/>
     </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A176" s="15"/>
       <c r="B176" s="15"/>
       <c r="C176" s="15"/>
@@ -11479,33 +11484,33 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -11564,33 +11569,33 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -11647,32 +11652,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -11727,26 +11732,26 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:AG37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="15"/>
-    <col min="2" max="2" width="14.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="15"/>
+    <col min="1" max="1" width="8.88671875" style="15"/>
+    <col min="2" max="2" width="14.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="15"/>
     <col min="4" max="4" width="13" style="15" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="15"/>
+    <col min="5" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>17</v>
       </c>
@@ -11871,7 +11876,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
       <c r="D4" s="15" t="s">
         <v>62</v>
       </c>
@@ -11991,7 +11996,7 @@
         <v>0.20769618859639608</v>
       </c>
     </row>
-    <row r="5" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D5" s="15" t="s">
         <v>62</v>
       </c>
@@ -12111,7 +12116,7 @@
         <v>0.31154428289459413</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
       <c r="D6" s="15" t="s">
         <v>62</v>
       </c>
@@ -12231,7 +12236,7 @@
         <v>0.47664625412085693</v>
       </c>
     </row>
-    <row r="7" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D7" s="15" t="s">
         <v>62</v>
       </c>
@@ -12351,7 +12356,7 @@
         <v>0.71496938118128539</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
       <c r="D8" s="15" t="s">
         <v>62</v>
       </c>
@@ -12471,7 +12476,7 @@
         <v>0.42809298937083867</v>
       </c>
     </row>
-    <row r="9" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D9" s="15" t="s">
         <v>62</v>
       </c>
@@ -12590,7 +12595,7 @@
         <v>0.64213948405625798</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
       <c r="D10" s="15" t="s">
         <v>62</v>
       </c>
@@ -12710,7 +12715,7 @@
         <v>0.15458274126405555</v>
       </c>
     </row>
-    <row r="11" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D11" s="15" t="s">
         <v>62</v>
       </c>
@@ -12829,7 +12834,7 @@
         <v>0.23187411189608331</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
       <c r="D12" s="15" t="s">
         <v>62</v>
       </c>
@@ -12949,7 +12954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28" t="s">
@@ -13070,12 +13075,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="17" t="s">
         <v>64</v>
       </c>
@@ -13086,7 +13091,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
         <v>65</v>
       </c>
@@ -13097,7 +13102,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B18" s="15" t="s">
         <v>66</v>
       </c>
@@ -13108,7 +13113,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
         <v>67</v>
       </c>
@@ -13119,7 +13124,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
         <v>120</v>
       </c>
@@ -13130,7 +13135,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B21" s="28" t="s">
         <v>121</v>
       </c>
@@ -13141,7 +13146,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="65" t="s">
         <v>192</v>
       </c>
@@ -13174,7 +13179,7 @@
       <c r="AB26" s="56"/>
       <c r="AC26" s="56"/>
     </row>
-    <row r="27" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="67" t="s">
         <v>220</v>
       </c>
@@ -13263,7 +13268,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="56" t="s">
         <v>65</v>
       </c>
@@ -13352,7 +13357,7 @@
         <v>0.20769618859639608</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="56" t="s">
         <v>66</v>
       </c>
@@ -13441,7 +13446,7 @@
         <v>0.47664625412085693</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="56" t="s">
         <v>67</v>
       </c>
@@ -13530,7 +13535,7 @@
         <v>0.42809298937083867</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="56" t="s">
         <v>120</v>
       </c>
@@ -13619,7 +13624,7 @@
         <v>0.15458274126405555</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="71" t="s">
         <v>121</v>
       </c>
@@ -13708,7 +13713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="71" t="s">
         <v>223</v>
       </c>
@@ -13797,7 +13802,7 @@
         <v>9.9578762825448142E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="71" t="s">
         <v>225</v>
       </c>
@@ -13886,7 +13891,7 @@
         <v>4.529053680827981E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="56" t="s">
         <v>226</v>
       </c>
@@ -13975,7 +13980,7 @@
         <v>0.28742648033882506</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="56" t="s">
         <v>227</v>
       </c>
@@ -14064,7 +14069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="61" t="s">
         <v>228</v>
       </c>

--- a/SuppXLS/Scen_TRA_BAU.xlsx
+++ b/SuppXLS/Scen_TRA_BAU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB97868-8E59-40EF-A2AA-12A2F4C74BD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAE1A5F-5BCF-4A00-BB01-50D8F76C6827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -537,9 +537,6 @@
     </r>
   </si>
   <si>
-    <t>TFGV</t>
-  </si>
-  <si>
     <t>Vehicle type (Existing technologies)</t>
   </si>
   <si>
@@ -901,6 +898,9 @@
   </si>
   <si>
     <t>Activity for freight vehicles (Million tonne km)</t>
+  </si>
+  <si>
+    <t>TRAF</t>
   </si>
 </sst>
 </file>
@@ -910,13 +910,13 @@
   <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -1335,18 +1335,18 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1356,9 +1356,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2952,8 +2952,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A6:AO212"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="26" spans="3:41" x14ac:dyDescent="0.3">
       <c r="M26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N26" s="55">
         <f t="shared" ref="N26:AN26" si="7">SUM(N11:N24)</f>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="41" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C41" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22" t="str">
@@ -5531,7 +5531,7 @@
     </row>
     <row r="44" spans="3:41" x14ac:dyDescent="0.3">
       <c r="M44" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N44" s="55">
         <f t="shared" ref="N44:AN44" si="13">SUM(N33:N42)</f>
@@ -6642,7 +6642,7 @@
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
       <c r="M61" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N61" s="55">
         <f t="shared" ref="N61:AN61" si="18">SUM(N52:N58)</f>
@@ -6961,7 +6961,7 @@
     </row>
     <row r="67" spans="3:41" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="C67" s="69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D67" s="68"/>
       <c r="E67" s="22"/>
@@ -7275,7 +7275,7 @@
     </row>
     <row r="72" spans="3:41" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C72" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D72" s="22"/>
       <c r="E72" s="22" t="str">
@@ -7285,7 +7285,7 @@
       <c r="F72" s="22"/>
       <c r="G72" s="22"/>
       <c r="H72" s="22" t="s">
-        <v>117</v>
+        <v>238</v>
       </c>
       <c r="I72" s="22"/>
       <c r="J72" s="15">
@@ -7298,7 +7298,7 @@
         <v>-1</v>
       </c>
       <c r="M72" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N72" s="59">
         <f>ROUNDUP(C208/C212,3)</f>
@@ -7461,7 +7461,7 @@
     </row>
     <row r="74" spans="3:41" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C74" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D74" s="22"/>
       <c r="E74" s="22" t="str">
@@ -7472,7 +7472,7 @@
       <c r="G74" s="22"/>
       <c r="H74" s="22" t="str">
         <f>H72</f>
-        <v>TFGV</v>
+        <v>TRAF</v>
       </c>
       <c r="I74" s="22"/>
       <c r="J74" s="15">
@@ -7485,7 +7485,7 @@
         <v>-1</v>
       </c>
       <c r="M74" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N74" s="59">
         <f>ROUNDUP(C209/C212,3)</f>
@@ -7648,7 +7648,7 @@
     </row>
     <row r="76" spans="3:41" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C76" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="22"/>
       <c r="E76" s="22" t="str">
@@ -7659,7 +7659,7 @@
       <c r="G76" s="22"/>
       <c r="H76" s="22" t="str">
         <f>H74</f>
-        <v>TFGV</v>
+        <v>TRAF</v>
       </c>
       <c r="I76" s="22"/>
       <c r="J76" s="15">
@@ -7672,7 +7672,7 @@
         <v>-1</v>
       </c>
       <c r="M76" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N76" s="59">
         <f>ROUNDUP(C210/C212,3)</f>
@@ -7835,7 +7835,7 @@
     </row>
     <row r="78" spans="3:41" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C78" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="22"/>
       <c r="E78" s="15" t="str">
@@ -7846,7 +7846,7 @@
       <c r="G78" s="22"/>
       <c r="H78" s="22" t="str">
         <f>H76</f>
-        <v>TFGV</v>
+        <v>TRAF</v>
       </c>
       <c r="I78" s="22"/>
       <c r="J78" s="22">
@@ -7859,7 +7859,7 @@
         <v>-1</v>
       </c>
       <c r="M78" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N78" s="59">
         <f>C211/C212</f>
@@ -8073,7 +8073,7 @@
       <c r="K81" s="22"/>
       <c r="L81" s="22"/>
       <c r="M81" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N81" s="55">
         <f t="shared" ref="N81:AN81" si="23">SUM(N72:N78)</f>
@@ -8433,7 +8433,7 @@
     </row>
     <row r="95" spans="3:41" ht="21" x14ac:dyDescent="0.4">
       <c r="C95" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D95" s="38"/>
       <c r="E95" s="38"/>
@@ -8446,10 +8446,10 @@
     </row>
     <row r="96" spans="3:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C96" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D96" s="31" t="s">
         <v>119</v>
-      </c>
-      <c r="D96" s="31" t="s">
-        <v>120</v>
       </c>
       <c r="E96" s="31"/>
       <c r="F96" s="31"/>
@@ -8461,7 +8461,7 @@
     </row>
     <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D97" s="32"/>
       <c r="E97" s="32"/>
@@ -8474,7 +8474,7 @@
     </row>
     <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D98" s="33"/>
       <c r="E98" s="33"/>
@@ -8487,10 +8487,10 @@
     </row>
     <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D99" s="34" t="s">
         <v>123</v>
-      </c>
-      <c r="D99" s="34" t="s">
-        <v>124</v>
       </c>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
@@ -8502,10 +8502,10 @@
     </row>
     <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D100" s="34" t="s">
         <v>125</v>
-      </c>
-      <c r="D100" s="34" t="s">
-        <v>126</v>
       </c>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
@@ -8517,7 +8517,7 @@
     </row>
     <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D101" s="33"/>
       <c r="E101" s="33"/>
@@ -8530,10 +8530,10 @@
     </row>
     <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D102" s="34" t="s">
         <v>128</v>
-      </c>
-      <c r="D102" s="34" t="s">
-        <v>129</v>
       </c>
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
@@ -8545,7 +8545,7 @@
     </row>
     <row r="103" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C103" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D103" s="33"/>
       <c r="E103" s="33"/>
@@ -8558,10 +8558,10 @@
     </row>
     <row r="104" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C104" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D104" s="34" t="s">
         <v>131</v>
-      </c>
-      <c r="D104" s="34" t="s">
-        <v>132</v>
       </c>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
@@ -8573,10 +8573,10 @@
     </row>
     <row r="105" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C105" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D105" s="34" t="s">
         <v>133</v>
-      </c>
-      <c r="D105" s="34" t="s">
-        <v>134</v>
       </c>
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
@@ -8588,10 +8588,10 @@
     </row>
     <row r="106" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C106" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D106" s="34" t="s">
         <v>135</v>
-      </c>
-      <c r="D106" s="34" t="s">
-        <v>136</v>
       </c>
       <c r="E106" s="15"/>
       <c r="F106" s="15"/>
@@ -8603,10 +8603,10 @@
     </row>
     <row r="107" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C107" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D107" s="34" t="s">
         <v>137</v>
-      </c>
-      <c r="D107" s="34" t="s">
-        <v>138</v>
       </c>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
@@ -8618,10 +8618,10 @@
     </row>
     <row r="108" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C108" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D108" s="34" t="s">
         <v>139</v>
-      </c>
-      <c r="D108" s="34" t="s">
-        <v>140</v>
       </c>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
@@ -8633,10 +8633,10 @@
     </row>
     <row r="109" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C109" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D109" s="34" t="s">
         <v>141</v>
-      </c>
-      <c r="D109" s="34" t="s">
-        <v>142</v>
       </c>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
@@ -8648,10 +8648,10 @@
     </row>
     <row r="110" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C110" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D110" s="34" t="s">
         <v>143</v>
-      </c>
-      <c r="D110" s="34" t="s">
-        <v>144</v>
       </c>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
@@ -8663,10 +8663,10 @@
     </row>
     <row r="111" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C111" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D111" s="34" t="s">
         <v>145</v>
-      </c>
-      <c r="D111" s="34" t="s">
-        <v>146</v>
       </c>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
@@ -8678,10 +8678,10 @@
     </row>
     <row r="112" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C112" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D112" s="34" t="s">
         <v>147</v>
-      </c>
-      <c r="D112" s="34" t="s">
-        <v>148</v>
       </c>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
@@ -8693,7 +8693,7 @@
     </row>
     <row r="113" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C113" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D113" s="33"/>
       <c r="E113" s="33"/>
@@ -8706,10 +8706,10 @@
     </row>
     <row r="114" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C114" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D114" s="34" t="s">
         <v>150</v>
-      </c>
-      <c r="D114" s="34" t="s">
-        <v>151</v>
       </c>
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
@@ -8721,10 +8721,10 @@
     </row>
     <row r="115" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C115" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="D115" s="34" t="s">
         <v>152</v>
-      </c>
-      <c r="D115" s="34" t="s">
-        <v>153</v>
       </c>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
@@ -8736,10 +8736,10 @@
     </row>
     <row r="116" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C116" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D116" s="34" t="s">
         <v>154</v>
-      </c>
-      <c r="D116" s="34" t="s">
-        <v>155</v>
       </c>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
@@ -8751,7 +8751,7 @@
     </row>
     <row r="117" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C117" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D117" s="33"/>
       <c r="E117" s="33"/>
@@ -8764,10 +8764,10 @@
     </row>
     <row r="118" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C118" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D118" s="34" t="s">
         <v>157</v>
-      </c>
-      <c r="D118" s="34" t="s">
-        <v>158</v>
       </c>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
@@ -8779,7 +8779,7 @@
     </row>
     <row r="119" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C119" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D119" s="33"/>
       <c r="E119" s="33"/>
@@ -8792,10 +8792,10 @@
     </row>
     <row r="120" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C120" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="D120" s="34" t="s">
         <v>160</v>
-      </c>
-      <c r="D120" s="34" t="s">
-        <v>161</v>
       </c>
       <c r="E120" s="15"/>
       <c r="F120" s="15"/>
@@ -8807,10 +8807,10 @@
     </row>
     <row r="121" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C121" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D121" s="34" t="s">
         <v>162</v>
-      </c>
-      <c r="D121" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
@@ -8822,10 +8822,10 @@
     </row>
     <row r="122" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C122" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D122" s="34" t="s">
         <v>164</v>
-      </c>
-      <c r="D122" s="34" t="s">
-        <v>165</v>
       </c>
       <c r="E122" s="15"/>
       <c r="F122" s="15"/>
@@ -8837,7 +8837,7 @@
     </row>
     <row r="123" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C123" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D123" s="35"/>
       <c r="E123" s="35"/>
@@ -8850,7 +8850,7 @@
     </row>
     <row r="124" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C124" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D124" s="33"/>
       <c r="E124" s="33"/>
@@ -8863,10 +8863,10 @@
     </row>
     <row r="125" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C125" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D125" s="34" t="s">
         <v>168</v>
-      </c>
-      <c r="D125" s="34" t="s">
-        <v>169</v>
       </c>
       <c r="E125" s="15"/>
       <c r="F125" s="15"/>
@@ -8878,10 +8878,10 @@
     </row>
     <row r="126" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C126" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D126" s="34" t="s">
         <v>217</v>
-      </c>
-      <c r="D126" s="34" t="s">
-        <v>218</v>
       </c>
       <c r="E126" s="15"/>
       <c r="F126" s="15"/>
@@ -8893,26 +8893,26 @@
     </row>
     <row r="127" spans="3:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C127" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="D127" s="34" t="s">
         <v>219</v>
-      </c>
-      <c r="D127" s="34" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="128" spans="3:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C128" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D128" s="34" t="s">
         <v>170</v>
-      </c>
-      <c r="D128" s="34" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="129" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C129" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D129" s="34" t="s">
         <v>172</v>
-      </c>
-      <c r="D129" s="34" t="s">
-        <v>173</v>
       </c>
       <c r="E129" s="15"/>
       <c r="F129" s="15"/>
@@ -8924,7 +8924,7 @@
     </row>
     <row r="130" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C130" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D130" s="35"/>
       <c r="E130" s="35"/>
@@ -8937,10 +8937,10 @@
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C131" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="D131" s="34" t="s">
         <v>175</v>
-      </c>
-      <c r="D131" s="34" t="s">
-        <v>176</v>
       </c>
       <c r="E131" s="15"/>
       <c r="F131" s="15"/>
@@ -8952,10 +8952,10 @@
     </row>
     <row r="132" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C132" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D132" s="34" t="s">
         <v>177</v>
-      </c>
-      <c r="D132" s="34" t="s">
-        <v>178</v>
       </c>
       <c r="E132" s="15"/>
       <c r="F132" s="15"/>
@@ -8967,10 +8967,10 @@
     </row>
     <row r="133" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C133" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D133" s="34" t="s">
         <v>179</v>
-      </c>
-      <c r="D133" s="34" t="s">
-        <v>180</v>
       </c>
       <c r="E133" s="15"/>
       <c r="F133" s="15"/>
@@ -8982,7 +8982,7 @@
     </row>
     <row r="134" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C134" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D134" s="35"/>
       <c r="E134" s="35"/>
@@ -8995,10 +8995,10 @@
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C135" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D135" s="34" t="s">
         <v>182</v>
-      </c>
-      <c r="D135" s="34" t="s">
-        <v>183</v>
       </c>
       <c r="E135" s="15"/>
       <c r="F135" s="15"/>
@@ -9010,10 +9010,10 @@
     </row>
     <row r="136" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C136" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D136" s="36" t="s">
         <v>184</v>
-      </c>
-      <c r="D136" s="36" t="s">
-        <v>185</v>
       </c>
       <c r="E136" s="39"/>
       <c r="F136" s="39"/>
@@ -9091,16 +9091,16 @@
       <c r="A139" s="15"/>
       <c r="B139" s="15"/>
       <c r="C139" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="D139" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="D139" s="40" t="s">
+      <c r="E139" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="E139" s="40" t="s">
+      <c r="F139" s="40" t="s">
         <v>188</v>
-      </c>
-      <c r="F139" s="40" t="s">
-        <v>189</v>
       </c>
       <c r="G139" s="15"/>
       <c r="H139" s="15"/>
@@ -9131,16 +9131,16 @@
       <c r="A140" s="15"/>
       <c r="B140" s="15"/>
       <c r="C140" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D140" s="15" t="s">
         <v>190</v>
-      </c>
-      <c r="D140" s="15" t="s">
-        <v>191</v>
       </c>
       <c r="E140" s="41" t="s">
         <v>62</v>
       </c>
       <c r="F140" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G140" s="15"/>
       <c r="H140" s="15"/>
@@ -9171,16 +9171,16 @@
       <c r="A141" s="15"/>
       <c r="B141" s="15"/>
       <c r="C141" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D141" s="15" t="s">
         <v>193</v>
-      </c>
-      <c r="D141" s="15" t="s">
-        <v>194</v>
       </c>
       <c r="E141" s="41" t="s">
         <v>63</v>
       </c>
       <c r="F141" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G141" s="15"/>
       <c r="H141" s="15"/>
@@ -9211,16 +9211,16 @@
       <c r="A142" s="15"/>
       <c r="B142" s="15"/>
       <c r="C142" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D142" s="39" t="s">
         <v>195</v>
-      </c>
-      <c r="D142" s="39" t="s">
-        <v>196</v>
       </c>
       <c r="E142" s="42" t="s">
         <v>64</v>
       </c>
       <c r="F142" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G142" s="15"/>
       <c r="H142" s="15"/>
@@ -9315,7 +9315,7 @@
       <c r="A145" s="15"/>
       <c r="B145" s="15"/>
       <c r="C145" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D145" s="43"/>
       <c r="E145" s="15"/>
@@ -9349,10 +9349,10 @@
       <c r="A146" s="15"/>
       <c r="B146" s="15"/>
       <c r="C146" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="D146" s="40" t="s">
         <v>197</v>
-      </c>
-      <c r="D146" s="40" t="s">
-        <v>198</v>
       </c>
       <c r="E146" s="15"/>
       <c r="F146" s="15"/>
@@ -9385,10 +9385,10 @@
       <c r="A147" s="15"/>
       <c r="B147" s="15"/>
       <c r="C147" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D147" s="15" t="s">
         <v>199</v>
-      </c>
-      <c r="D147" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="E147" s="15"/>
       <c r="F147" s="15"/>
@@ -9422,7 +9422,7 @@
       <c r="B148" s="15"/>
       <c r="C148" s="15"/>
       <c r="D148" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E148" s="15"/>
       <c r="F148" s="15"/>
@@ -9455,10 +9455,10 @@
       <c r="A149" s="15"/>
       <c r="B149" s="15"/>
       <c r="C149" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D149" s="15" t="s">
         <v>202</v>
-      </c>
-      <c r="D149" s="15" t="s">
-        <v>203</v>
       </c>
       <c r="E149" s="15"/>
       <c r="F149" s="15"/>
@@ -9492,7 +9492,7 @@
       <c r="B150" s="15"/>
       <c r="C150" s="15"/>
       <c r="D150" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E150" s="15"/>
       <c r="F150" s="15"/>
@@ -9525,10 +9525,10 @@
       <c r="A151" s="15"/>
       <c r="B151" s="15"/>
       <c r="C151" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D151" s="15" t="s">
         <v>205</v>
-      </c>
-      <c r="D151" s="15" t="s">
-        <v>206</v>
       </c>
       <c r="E151" s="15"/>
       <c r="F151" s="15"/>
@@ -9562,7 +9562,7 @@
       <c r="B152" s="15"/>
       <c r="C152" s="15"/>
       <c r="D152" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E152" s="15"/>
       <c r="F152" s="15"/>
@@ -9596,7 +9596,7 @@
       <c r="B153" s="15"/>
       <c r="C153" s="15"/>
       <c r="D153" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E153" s="15"/>
       <c r="F153" s="15"/>
@@ -9630,7 +9630,7 @@
       <c r="B154" s="15"/>
       <c r="C154" s="39"/>
       <c r="D154" s="39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E154" s="15"/>
       <c r="F154" s="15"/>
@@ -9725,7 +9725,7 @@
     </row>
     <row r="157" spans="1:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -9791,7 +9791,7 @@
     </row>
     <row r="159" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B159" s="45"/>
       <c r="C159" s="45"/>
@@ -9825,10 +9825,10 @@
     </row>
     <row r="160" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A160" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="B160" s="47" t="s">
         <v>197</v>
-      </c>
-      <c r="B160" s="47" t="s">
-        <v>198</v>
       </c>
       <c r="C160" s="48" t="s">
         <v>84</v>
@@ -9915,10 +9915,10 @@
     </row>
     <row r="161" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A161" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="B161" s="46" t="s">
         <v>199</v>
-      </c>
-      <c r="B161" s="46" t="s">
-        <v>200</v>
       </c>
       <c r="C161" s="49">
         <v>0.32377983784854231</v>
@@ -10006,7 +10006,7 @@
     <row r="162" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A162" s="46"/>
       <c r="B162" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C162" s="56">
         <v>5.3963306308090382E-2</v>
@@ -10093,10 +10093,10 @@
     </row>
     <row r="163" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A163" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="B163" s="46" t="s">
         <v>202</v>
-      </c>
-      <c r="B163" s="46" t="s">
-        <v>203</v>
       </c>
       <c r="C163" s="50">
         <v>1.2024577456126329E-3</v>
@@ -10184,7 +10184,7 @@
     <row r="164" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A164" s="46"/>
       <c r="B164" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C164" s="49">
         <v>0.51421690231633799</v>
@@ -10271,10 +10271,10 @@
     </row>
     <row r="165" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A165" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="B165" s="46" t="s">
         <v>205</v>
-      </c>
-      <c r="B165" s="46" t="s">
-        <v>206</v>
       </c>
       <c r="C165" s="49">
         <v>1.6399604421517593E-2</v>
@@ -10362,7 +10362,7 @@
     <row r="166" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A166" s="46"/>
       <c r="B166" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C166" s="49">
         <v>8.2740995898888392E-2</v>
@@ -10450,7 +10450,7 @@
     <row r="167" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A167" s="46"/>
       <c r="B167" s="46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C167" s="49">
         <v>7.6968954610109105E-3</v>
@@ -10538,7 +10538,7 @@
     <row r="168" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A168" s="46"/>
       <c r="B168" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C168" s="49">
         <v>0</v>
@@ -10626,7 +10626,7 @@
     <row r="169" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A169" s="51"/>
       <c r="B169" s="52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C169" s="53">
         <v>1.0000000000000002</v>
@@ -10809,7 +10809,7 @@
     </row>
     <row r="173" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B173" s="45"/>
       <c r="C173" s="45"/>
@@ -10843,10 +10843,10 @@
     </row>
     <row r="174" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A174" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="B174" s="47" t="s">
         <v>197</v>
-      </c>
-      <c r="B174" s="47" t="s">
-        <v>198</v>
       </c>
       <c r="C174" s="48" t="s">
         <v>84</v>
@@ -10933,10 +10933,10 @@
     </row>
     <row r="175" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A175" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="B175" s="46" t="s">
         <v>199</v>
-      </c>
-      <c r="B175" s="46" t="s">
-        <v>200</v>
       </c>
       <c r="C175" s="49">
         <v>0</v>
@@ -11024,7 +11024,7 @@
     <row r="176" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A176" s="46"/>
       <c r="B176" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C176" s="49">
         <v>0</v>
@@ -11111,10 +11111,10 @@
     </row>
     <row r="177" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A177" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="B177" s="46" t="s">
         <v>202</v>
-      </c>
-      <c r="B177" s="46" t="s">
-        <v>203</v>
       </c>
       <c r="C177" s="50">
         <v>3.2739468688573266E-3</v>
@@ -11202,7 +11202,7 @@
     <row r="178" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A178" s="46"/>
       <c r="B178" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C178" s="49">
         <v>0.83405572391255312</v>
@@ -11289,10 +11289,10 @@
     </row>
     <row r="179" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A179" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="B179" s="46" t="s">
         <v>205</v>
-      </c>
-      <c r="B179" s="46" t="s">
-        <v>206</v>
       </c>
       <c r="C179" s="49">
         <v>2.1905905312439161E-2</v>
@@ -11380,7 +11380,7 @@
     <row r="180" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A180" s="46"/>
       <c r="B180" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C180" s="49">
         <v>0.13420523697456904</v>
@@ -11468,7 +11468,7 @@
     <row r="181" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A181" s="46"/>
       <c r="B181" s="46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C181" s="49">
         <v>6.559186931581344E-3</v>
@@ -11556,7 +11556,7 @@
     <row r="182" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A182" s="46"/>
       <c r="B182" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C182" s="49">
         <v>0</v>
@@ -11644,7 +11644,7 @@
     <row r="183" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A183" s="51"/>
       <c r="B183" s="52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C183" s="53">
         <v>1</v>
@@ -11827,7 +11827,7 @@
     </row>
     <row r="187" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B187" s="45"/>
       <c r="C187" s="45"/>
@@ -11861,10 +11861,10 @@
     </row>
     <row r="188" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A188" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="B188" s="47" t="s">
         <v>197</v>
-      </c>
-      <c r="B188" s="47" t="s">
-        <v>198</v>
       </c>
       <c r="C188" s="48" t="s">
         <v>84</v>
@@ -11951,10 +11951,10 @@
     </row>
     <row r="189" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A189" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="B189" s="46" t="s">
         <v>199</v>
-      </c>
-      <c r="B189" s="46" t="s">
-        <v>200</v>
       </c>
       <c r="C189" s="49">
         <v>0</v>
@@ -12042,7 +12042,7 @@
     <row r="190" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A190" s="46"/>
       <c r="B190" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C190" s="49">
         <v>0</v>
@@ -12129,10 +12129,10 @@
     </row>
     <row r="191" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A191" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="B191" s="46" t="s">
         <v>202</v>
-      </c>
-      <c r="B191" s="46" t="s">
-        <v>203</v>
       </c>
       <c r="C191" s="49">
         <v>0</v>
@@ -12220,7 +12220,7 @@
     <row r="192" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A192" s="46"/>
       <c r="B192" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C192" s="49">
         <v>0.74108639947108168</v>
@@ -12307,10 +12307,10 @@
     </row>
     <row r="193" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A193" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="B193" s="46" t="s">
         <v>205</v>
-      </c>
-      <c r="B193" s="46" t="s">
-        <v>206</v>
       </c>
       <c r="C193" s="49">
         <v>1.214216695359136E-2</v>
@@ -12398,7 +12398,7 @@
     <row r="194" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A194" s="46"/>
       <c r="B194" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C194" s="49">
         <v>0.1626965950818042</v>
@@ -12486,7 +12486,7 @@
     <row r="195" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A195" s="46"/>
       <c r="B195" s="46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C195" s="49">
         <v>0</v>
@@ -12574,7 +12574,7 @@
     <row r="196" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A196" s="46"/>
       <c r="B196" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C196" s="49">
         <v>8.4074838493522847E-2</v>
@@ -12662,7 +12662,7 @@
     <row r="197" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A197" s="51"/>
       <c r="B197" s="52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C197" s="53">
         <v>1.0000000000000002</v>
@@ -12813,7 +12813,7 @@
     </row>
     <row r="206" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B206" s="46"/>
       <c r="C206" s="46"/>
@@ -12846,10 +12846,10 @@
     </row>
     <row r="207" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A207" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B207" s="47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C207" s="47" t="s">
         <v>84</v>
@@ -12935,10 +12935,10 @@
     </row>
     <row r="208" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A208" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="B208" s="46" t="s">
         <v>230</v>
-      </c>
-      <c r="B208" s="46" t="s">
-        <v>231</v>
       </c>
       <c r="C208" s="62">
         <v>292</v>
@@ -13024,10 +13024,10 @@
     </row>
     <row r="209" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A209" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="B209" s="46" t="s">
         <v>232</v>
-      </c>
-      <c r="B209" s="46" t="s">
-        <v>233</v>
       </c>
       <c r="C209" s="64">
         <v>1140</v>
@@ -13113,10 +13113,10 @@
     </row>
     <row r="210" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A210" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="B210" s="46" t="s">
         <v>234</v>
-      </c>
-      <c r="B210" s="46" t="s">
-        <v>235</v>
       </c>
       <c r="C210" s="62">
         <v>10106</v>
@@ -13202,7 +13202,7 @@
     </row>
     <row r="211" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B211" s="46"/>
       <c r="C211" s="65">
@@ -13290,7 +13290,7 @@
     <row r="212" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A212" s="52"/>
       <c r="B212" s="52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C212" s="61">
         <f>SUM(C208:C211)</f>
@@ -13582,7 +13582,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/SuppXLS/Scen_TRA_BAU.xlsx
+++ b/SuppXLS/Scen_TRA_BAU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Irish-TIMES-model\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_Irish-TIMES-model\TRA_Update\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAE1A5F-5BCF-4A00-BB01-50D8F76C6827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CD37B7-D2C2-4BBA-9AEF-A523D1DA3A11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="243">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -902,12 +902,35 @@
   <si>
     <t>TRAF</t>
   </si>
+  <si>
+    <t>Activity (share in tkm)</t>
+  </si>
+  <si>
+    <r>
+      <t>Unladen Weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF384350"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -917,8 +940,9 @@
     <numFmt numFmtId="169" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="0.0000"/>
     <numFmt numFmtId="171" formatCode="0.0000%"/>
+    <numFmt numFmtId="172" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1059,6 +1083,12 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF384350"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1246,7 +1276,7 @@
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1362,6 +1392,31 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2950,18 +3005,21 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A6:AO212"/>
+  <dimension ref="A6:AO224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O85" sqref="O85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="29" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="40" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:41" x14ac:dyDescent="0.3">
@@ -7292,7 +7350,7 @@
         <v>2018</v>
       </c>
       <c r="K72" s="15" t="s">
-        <v>66</v>
+        <v>242</v>
       </c>
       <c r="L72" s="22">
         <v>-1</v>
@@ -7301,110 +7359,110 @@
         <v>224</v>
       </c>
       <c r="N72" s="59">
-        <f>ROUNDUP(C208/C212,3)</f>
+        <f>ROUNDUP(C220,3)</f>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="O72" s="59">
-        <f t="shared" ref="O72:AN72" si="19">ROUNDUP(D208/D212,3)</f>
+      <c r="O72" s="74">
+        <f t="shared" ref="O72:AN72" si="19">ROUNDUP(D220,3)</f>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="P72" s="59">
+      <c r="P72" s="74">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="Q72" s="59">
+      <c r="Q72" s="74">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="R72" s="59">
+      <c r="R72" s="74">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="S72" s="59">
+      <c r="S72" s="74">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="T72" s="59">
+      <c r="T72" s="74">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="U72" s="59">
+      <c r="U72" s="74">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="V72" s="59">
+      <c r="V72" s="74">
+        <f t="shared" si="19"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W72" s="74">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="W72" s="59">
+      <c r="X72" s="74">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="X72" s="59">
+      <c r="Y72" s="74">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="Y72" s="59">
+      <c r="Z72" s="74">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="Z72" s="59">
+      <c r="AA72" s="74">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AA72" s="59">
+      <c r="AB72" s="74">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AB72" s="59">
+      <c r="AC72" s="74">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AC72" s="59">
+      <c r="AD72" s="74">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AD72" s="59">
+      <c r="AE72" s="74">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AE72" s="59">
+      <c r="AF72" s="74">
+        <f t="shared" si="19"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG72" s="74">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AF72" s="59">
+      <c r="AH72" s="74">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AG72" s="59">
+      <c r="AI72" s="74">
+        <f t="shared" si="19"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="AJ72" s="74">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AH72" s="59">
+      <c r="AK72" s="74">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AI72" s="59">
+      <c r="AL72" s="74">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AJ72" s="59">
+      <c r="AM72" s="74">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AK72" s="59">
-        <f t="shared" si="19"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="AL72" s="59">
-        <f t="shared" si="19"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="AM72" s="59">
-        <f t="shared" si="19"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="AN72" s="59">
+      <c r="AN72" s="74">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
@@ -7423,38 +7481,38 @@
       <c r="J73" s="15">
         <v>0</v>
       </c>
-      <c r="K73" s="15" t="s">
-        <v>66</v>
+      <c r="K73" s="76" t="s">
+        <v>242</v>
       </c>
       <c r="L73" s="22"/>
       <c r="M73" s="22"/>
       <c r="N73" s="23"/>
-      <c r="O73" s="23"/>
-      <c r="P73" s="23"/>
-      <c r="Q73" s="23"/>
-      <c r="R73" s="23"/>
-      <c r="S73" s="23"/>
-      <c r="T73" s="23"/>
-      <c r="U73" s="23"/>
-      <c r="V73" s="23"/>
-      <c r="W73" s="23"/>
-      <c r="X73" s="23"/>
-      <c r="Y73" s="23"/>
-      <c r="Z73" s="23"/>
-      <c r="AA73" s="23"/>
-      <c r="AB73" s="23"/>
-      <c r="AC73" s="23"/>
-      <c r="AD73" s="23"/>
-      <c r="AE73" s="23"/>
-      <c r="AF73" s="23"/>
-      <c r="AG73" s="23"/>
-      <c r="AH73" s="23"/>
-      <c r="AI73" s="23"/>
-      <c r="AJ73" s="23"/>
-      <c r="AK73" s="23"/>
-      <c r="AL73" s="23"/>
-      <c r="AM73" s="23"/>
-      <c r="AN73" s="23"/>
+      <c r="O73" s="73"/>
+      <c r="P73" s="73"/>
+      <c r="Q73" s="73"/>
+      <c r="R73" s="73"/>
+      <c r="S73" s="73"/>
+      <c r="T73" s="73"/>
+      <c r="U73" s="73"/>
+      <c r="V73" s="73"/>
+      <c r="W73" s="73"/>
+      <c r="X73" s="73"/>
+      <c r="Y73" s="73"/>
+      <c r="Z73" s="73"/>
+      <c r="AA73" s="73"/>
+      <c r="AB73" s="73"/>
+      <c r="AC73" s="73"/>
+      <c r="AD73" s="73"/>
+      <c r="AE73" s="73"/>
+      <c r="AF73" s="73"/>
+      <c r="AG73" s="73"/>
+      <c r="AH73" s="73"/>
+      <c r="AI73" s="73"/>
+      <c r="AJ73" s="73"/>
+      <c r="AK73" s="73"/>
+      <c r="AL73" s="73"/>
+      <c r="AM73" s="73"/>
+      <c r="AN73" s="73"/>
       <c r="AO73" s="15">
         <v>5</v>
       </c>
@@ -7478,8 +7536,8 @@
       <c r="J74" s="15">
         <v>2018</v>
       </c>
-      <c r="K74" s="15" t="s">
-        <v>66</v>
+      <c r="K74" s="76" t="s">
+        <v>242</v>
       </c>
       <c r="L74" s="22">
         <v>-1</v>
@@ -7488,110 +7546,110 @@
         <v>225</v>
       </c>
       <c r="N74" s="59">
-        <f>ROUNDUP(C209/C212,3)</f>
+        <f>ROUNDUP(C221,3)</f>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="O74" s="59">
-        <f t="shared" ref="O74:AN74" si="20">ROUNDUP(D209/D212,3)</f>
+      <c r="O74" s="74">
+        <f t="shared" ref="O74:AN74" si="20">ROUNDUP(D221,3)</f>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="P74" s="59">
+      <c r="P74" s="74">
+        <f t="shared" si="20"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="Q74" s="74">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="Q74" s="59">
+      <c r="R74" s="74">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="R74" s="59">
+      <c r="S74" s="74">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="S74" s="59">
+      <c r="T74" s="74">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="T74" s="59">
+      <c r="U74" s="74">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="U74" s="59">
+      <c r="V74" s="74">
+        <f t="shared" si="20"/>
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="W74" s="74">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="V74" s="59">
+      <c r="X74" s="74">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="W74" s="59">
+      <c r="Y74" s="74">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="X74" s="59">
+      <c r="Z74" s="74">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="Y74" s="59">
+      <c r="AA74" s="74">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="Z74" s="59">
+      <c r="AB74" s="74">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AA74" s="59">
+      <c r="AC74" s="74">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AB74" s="59">
+      <c r="AD74" s="74">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AC74" s="59">
+      <c r="AE74" s="74">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AD74" s="59">
+      <c r="AF74" s="74">
+        <f t="shared" si="20"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AG74" s="74">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AE74" s="59">
+      <c r="AH74" s="74">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AF74" s="59">
+      <c r="AI74" s="74">
+        <f t="shared" si="20"/>
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="AJ74" s="74">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AG74" s="59">
+      <c r="AK74" s="74">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AH74" s="59">
+      <c r="AL74" s="74">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AI74" s="59">
+      <c r="AM74" s="74">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AJ74" s="59">
-        <f t="shared" si="20"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="AK74" s="59">
-        <f t="shared" si="20"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="AL74" s="59">
-        <f t="shared" si="20"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="AM74" s="59">
-        <f t="shared" si="20"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="AN74" s="59">
+      <c r="AN74" s="74">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
@@ -7610,38 +7668,38 @@
       <c r="J75" s="15">
         <v>0</v>
       </c>
-      <c r="K75" s="15" t="s">
-        <v>66</v>
+      <c r="K75" s="76" t="s">
+        <v>242</v>
       </c>
       <c r="L75" s="22"/>
       <c r="M75" s="22"/>
       <c r="N75" s="23"/>
-      <c r="O75" s="23"/>
-      <c r="P75" s="23"/>
-      <c r="Q75" s="23"/>
-      <c r="R75" s="23"/>
-      <c r="S75" s="23"/>
-      <c r="T75" s="23"/>
-      <c r="U75" s="23"/>
-      <c r="V75" s="23"/>
-      <c r="W75" s="23"/>
-      <c r="X75" s="23"/>
-      <c r="Y75" s="23"/>
-      <c r="Z75" s="23"/>
-      <c r="AA75" s="23"/>
-      <c r="AB75" s="23"/>
-      <c r="AC75" s="23"/>
-      <c r="AD75" s="23"/>
-      <c r="AE75" s="23"/>
-      <c r="AF75" s="23"/>
-      <c r="AG75" s="23"/>
-      <c r="AH75" s="23"/>
-      <c r="AI75" s="23"/>
-      <c r="AJ75" s="23"/>
-      <c r="AK75" s="23"/>
-      <c r="AL75" s="23"/>
-      <c r="AM75" s="23"/>
-      <c r="AN75" s="23"/>
+      <c r="O75" s="73"/>
+      <c r="P75" s="73"/>
+      <c r="Q75" s="73"/>
+      <c r="R75" s="73"/>
+      <c r="S75" s="73"/>
+      <c r="T75" s="73"/>
+      <c r="U75" s="73"/>
+      <c r="V75" s="73"/>
+      <c r="W75" s="73"/>
+      <c r="X75" s="73"/>
+      <c r="Y75" s="73"/>
+      <c r="Z75" s="73"/>
+      <c r="AA75" s="73"/>
+      <c r="AB75" s="73"/>
+      <c r="AC75" s="73"/>
+      <c r="AD75" s="73"/>
+      <c r="AE75" s="73"/>
+      <c r="AF75" s="73"/>
+      <c r="AG75" s="73"/>
+      <c r="AH75" s="73"/>
+      <c r="AI75" s="73"/>
+      <c r="AJ75" s="73"/>
+      <c r="AK75" s="73"/>
+      <c r="AL75" s="73"/>
+      <c r="AM75" s="73"/>
+      <c r="AN75" s="73"/>
       <c r="AO75" s="15">
         <v>5</v>
       </c>
@@ -7665,8 +7723,8 @@
       <c r="J76" s="15">
         <v>2018</v>
       </c>
-      <c r="K76" s="15" t="s">
-        <v>66</v>
+      <c r="K76" s="76" t="s">
+        <v>242</v>
       </c>
       <c r="L76" s="22">
         <v>-1</v>
@@ -7675,112 +7733,112 @@
         <v>226</v>
       </c>
       <c r="N76" s="59">
-        <f>ROUNDUP(C210/C212,3)</f>
-        <v>0.876</v>
-      </c>
-      <c r="O76" s="59">
-        <f t="shared" ref="O76:AN76" si="21">ROUNDUP(D210/D212,3)</f>
-        <v>0.876</v>
-      </c>
-      <c r="P76" s="59">
+        <f>ROUNDDOWN(C222,2)</f>
+        <v>0.86</v>
+      </c>
+      <c r="O76" s="74">
+        <f t="shared" ref="O76:AN76" si="21">ROUNDDOWN(D222,2)</f>
+        <v>0.87</v>
+      </c>
+      <c r="P76" s="74">
         <f t="shared" si="21"/>
-        <v>0.876</v>
-      </c>
-      <c r="Q76" s="59">
+        <v>0.86</v>
+      </c>
+      <c r="Q76" s="74">
         <f t="shared" si="21"/>
-        <v>0.876</v>
-      </c>
-      <c r="R76" s="59">
+        <v>0.87</v>
+      </c>
+      <c r="R76" s="74">
         <f t="shared" si="21"/>
-        <v>0.876</v>
-      </c>
-      <c r="S76" s="59">
+        <v>0.87</v>
+      </c>
+      <c r="S76" s="74">
         <f t="shared" si="21"/>
-        <v>0.876</v>
-      </c>
-      <c r="T76" s="59">
+        <v>0.87</v>
+      </c>
+      <c r="T76" s="74">
         <f t="shared" si="21"/>
-        <v>0.876</v>
-      </c>
-      <c r="U76" s="59">
+        <v>0.87</v>
+      </c>
+      <c r="U76" s="74">
         <f t="shared" si="21"/>
-        <v>0.876</v>
-      </c>
-      <c r="V76" s="59">
+        <v>0.87</v>
+      </c>
+      <c r="V76" s="74">
         <f t="shared" si="21"/>
-        <v>0.876</v>
-      </c>
-      <c r="W76" s="59">
+        <v>0.85</v>
+      </c>
+      <c r="W76" s="74">
         <f t="shared" si="21"/>
-        <v>0.876</v>
-      </c>
-      <c r="X76" s="59">
+        <v>0.87</v>
+      </c>
+      <c r="X76" s="74">
         <f t="shared" si="21"/>
-        <v>0.876</v>
-      </c>
-      <c r="Y76" s="59">
+        <v>0.87</v>
+      </c>
+      <c r="Y76" s="74">
         <f t="shared" si="21"/>
-        <v>0.876</v>
-      </c>
-      <c r="Z76" s="59">
+        <v>0.87</v>
+      </c>
+      <c r="Z76" s="74">
         <f t="shared" si="21"/>
-        <v>0.876</v>
-      </c>
-      <c r="AA76" s="59">
+        <v>0.87</v>
+      </c>
+      <c r="AA76" s="74">
         <f t="shared" si="21"/>
-        <v>0.876</v>
-      </c>
-      <c r="AB76" s="59">
+        <v>0.87</v>
+      </c>
+      <c r="AB76" s="74">
         <f t="shared" si="21"/>
-        <v>0.876</v>
-      </c>
-      <c r="AC76" s="59">
+        <v>0.87</v>
+      </c>
+      <c r="AC76" s="74">
         <f t="shared" si="21"/>
-        <v>0.876</v>
-      </c>
-      <c r="AD76" s="59">
+        <v>0.87</v>
+      </c>
+      <c r="AD76" s="74">
         <f t="shared" si="21"/>
-        <v>0.876</v>
-      </c>
-      <c r="AE76" s="59">
+        <v>0.87</v>
+      </c>
+      <c r="AE76" s="74">
         <f t="shared" si="21"/>
-        <v>0.876</v>
-      </c>
-      <c r="AF76" s="59">
+        <v>0.87</v>
+      </c>
+      <c r="AF76" s="74">
         <f t="shared" si="21"/>
-        <v>0.876</v>
-      </c>
-      <c r="AG76" s="59">
+        <v>0.83</v>
+      </c>
+      <c r="AG76" s="74">
         <f t="shared" si="21"/>
-        <v>0.876</v>
-      </c>
-      <c r="AH76" s="59">
+        <v>0.87</v>
+      </c>
+      <c r="AH76" s="74">
         <f t="shared" si="21"/>
-        <v>0.876</v>
-      </c>
-      <c r="AI76" s="59">
+        <v>0.87</v>
+      </c>
+      <c r="AI76" s="74">
         <f t="shared" si="21"/>
-        <v>0.876</v>
-      </c>
-      <c r="AJ76" s="59">
+        <v>0.78</v>
+      </c>
+      <c r="AJ76" s="74">
         <f t="shared" si="21"/>
-        <v>0.876</v>
-      </c>
-      <c r="AK76" s="59">
+        <v>0.87</v>
+      </c>
+      <c r="AK76" s="74">
         <f t="shared" si="21"/>
-        <v>0.876</v>
-      </c>
-      <c r="AL76" s="59">
+        <v>0.87</v>
+      </c>
+      <c r="AL76" s="74">
         <f t="shared" si="21"/>
-        <v>0.876</v>
-      </c>
-      <c r="AM76" s="59">
+        <v>0.87</v>
+      </c>
+      <c r="AM76" s="74">
         <f t="shared" si="21"/>
-        <v>0.876</v>
-      </c>
-      <c r="AN76" s="59">
+        <v>0.87</v>
+      </c>
+      <c r="AN76" s="74">
         <f t="shared" si="21"/>
-        <v>0.876</v>
+        <v>0.87</v>
       </c>
       <c r="AO76" s="70">
         <v>0</v>
@@ -7797,38 +7855,38 @@
       <c r="J77" s="15">
         <v>0</v>
       </c>
-      <c r="K77" s="15" t="s">
-        <v>66</v>
+      <c r="K77" s="76" t="s">
+        <v>242</v>
       </c>
       <c r="L77" s="22"/>
       <c r="M77" s="22"/>
       <c r="N77" s="23"/>
-      <c r="O77" s="23"/>
-      <c r="P77" s="23"/>
-      <c r="Q77" s="23"/>
-      <c r="R77" s="23"/>
-      <c r="S77" s="23"/>
-      <c r="T77" s="23"/>
-      <c r="U77" s="23"/>
-      <c r="V77" s="23"/>
-      <c r="W77" s="23"/>
-      <c r="X77" s="23"/>
-      <c r="Y77" s="23"/>
-      <c r="Z77" s="23"/>
-      <c r="AA77" s="23"/>
-      <c r="AB77" s="23"/>
-      <c r="AC77" s="23"/>
-      <c r="AD77" s="23"/>
-      <c r="AE77" s="23"/>
-      <c r="AF77" s="23"/>
-      <c r="AG77" s="23"/>
-      <c r="AH77" s="23"/>
-      <c r="AI77" s="23"/>
-      <c r="AJ77" s="23"/>
-      <c r="AK77" s="23"/>
-      <c r="AL77" s="23"/>
-      <c r="AM77" s="23"/>
-      <c r="AN77" s="23"/>
+      <c r="O77" s="73"/>
+      <c r="P77" s="73"/>
+      <c r="Q77" s="73"/>
+      <c r="R77" s="73"/>
+      <c r="S77" s="73"/>
+      <c r="T77" s="73"/>
+      <c r="U77" s="73"/>
+      <c r="V77" s="73"/>
+      <c r="W77" s="73"/>
+      <c r="X77" s="73"/>
+      <c r="Y77" s="73"/>
+      <c r="Z77" s="73"/>
+      <c r="AA77" s="73"/>
+      <c r="AB77" s="73"/>
+      <c r="AC77" s="73"/>
+      <c r="AD77" s="73"/>
+      <c r="AE77" s="73"/>
+      <c r="AF77" s="73"/>
+      <c r="AG77" s="73"/>
+      <c r="AH77" s="73"/>
+      <c r="AI77" s="73"/>
+      <c r="AJ77" s="73"/>
+      <c r="AK77" s="73"/>
+      <c r="AL77" s="73"/>
+      <c r="AM77" s="73"/>
+      <c r="AN77" s="73"/>
       <c r="AO77" s="15">
         <v>5</v>
       </c>
@@ -7852,8 +7910,8 @@
       <c r="J78" s="22">
         <v>2018</v>
       </c>
-      <c r="K78" s="22" t="s">
-        <v>66</v>
+      <c r="K78" s="76" t="s">
+        <v>242</v>
       </c>
       <c r="L78" s="22">
         <v>-1</v>
@@ -7861,111 +7919,111 @@
       <c r="M78" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="N78" s="59">
-        <f>C211/C212</f>
-        <v>7.6746680880972545E-6</v>
-      </c>
-      <c r="O78" s="59">
-        <f t="shared" ref="O78:AN78" si="22">D211/D212</f>
-        <v>0</v>
-      </c>
-      <c r="P78" s="59">
+      <c r="N78" s="75">
+        <f>ROUNDUP(C223,3)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O78" s="75">
+        <f t="shared" ref="O78:AN78" si="22">ROUNDUP(D223,3)</f>
+        <v>0</v>
+      </c>
+      <c r="P78" s="75">
         <f t="shared" si="22"/>
-        <v>1.0824487944998058E-5</v>
-      </c>
-      <c r="Q78" s="59">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="Q78" s="75">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="R78" s="59">
+      <c r="R78" s="75">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="S78" s="59">
+      <c r="S78" s="75">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T78" s="59">
+      <c r="T78" s="75">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="U78" s="59">
+      <c r="U78" s="75">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="V78" s="59">
+      <c r="V78" s="75">
         <f t="shared" si="22"/>
-        <v>2.2439420734313278E-5</v>
-      </c>
-      <c r="W78" s="59">
+        <v>2.2000000000000002E-2</v>
+      </c>
+      <c r="W78" s="75">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X78" s="59">
+      <c r="X78" s="75">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Y78" s="59">
+      <c r="Y78" s="75">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z78" s="59">
+      <c r="Z78" s="75">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AA78" s="59">
+      <c r="AA78" s="75">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AB78" s="59">
+      <c r="AB78" s="75">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AC78" s="59">
+      <c r="AC78" s="75">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AD78" s="59">
+      <c r="AD78" s="75">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AE78" s="59">
+      <c r="AE78" s="75">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AF78" s="59">
+      <c r="AF78" s="75">
         <f t="shared" si="22"/>
-        <v>4.3542453277533046E-5</v>
-      </c>
-      <c r="AG78" s="59">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="AG78" s="75">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AH78" s="59">
+      <c r="AH78" s="75">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AI78" s="59">
+      <c r="AI78" s="75">
         <f t="shared" si="22"/>
-        <v>1.1366467062496786E-4</v>
-      </c>
-      <c r="AJ78" s="59">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="AJ78" s="75">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AK78" s="59">
+      <c r="AK78" s="75">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AL78" s="59">
+      <c r="AL78" s="75">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AM78" s="59">
+      <c r="AM78" s="75">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AN78" s="59">
+      <c r="AN78" s="75">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -7984,8 +8042,8 @@
       <c r="J79" s="30">
         <v>0</v>
       </c>
-      <c r="K79" s="20" t="s">
-        <v>66</v>
+      <c r="K79" s="76" t="s">
+        <v>242</v>
       </c>
       <c r="L79" s="20"/>
       <c r="M79" s="20"/>
@@ -8077,111 +8135,111 @@
       </c>
       <c r="N81" s="55">
         <f t="shared" ref="N81:AN81" si="23">SUM(N72:N78)</f>
-        <v>1.001007674668088</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="O81" s="55">
         <f t="shared" si="23"/>
-        <v>1.0009999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="P81" s="55">
         <f t="shared" si="23"/>
-        <v>1.001010824487945</v>
+        <v>0.995</v>
       </c>
       <c r="Q81" s="55">
         <f t="shared" si="23"/>
-        <v>1.0009999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="R81" s="55">
         <f t="shared" si="23"/>
-        <v>1.0009999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="S81" s="55">
         <f t="shared" si="23"/>
-        <v>1.0009999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="T81" s="55">
         <f t="shared" si="23"/>
-        <v>1.0009999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="U81" s="55">
         <f t="shared" si="23"/>
-        <v>1.0009999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="V81" s="55">
         <f t="shared" si="23"/>
-        <v>1.0010224394207341</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="W81" s="55">
         <f t="shared" si="23"/>
-        <v>1.0009999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="X81" s="55">
         <f t="shared" si="23"/>
-        <v>1.0009999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="Y81" s="55">
         <f t="shared" si="23"/>
-        <v>1.0009999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="Z81" s="55">
         <f t="shared" si="23"/>
-        <v>1.0009999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="AA81" s="55">
         <f t="shared" si="23"/>
-        <v>1.0009999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="AB81" s="55">
         <f t="shared" si="23"/>
-        <v>1.0009999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="AC81" s="55">
         <f t="shared" si="23"/>
-        <v>1.0009999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="AD81" s="55">
         <f t="shared" si="23"/>
-        <v>1.0009999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="AE81" s="55">
         <f t="shared" si="23"/>
-        <v>1.0009999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="AF81" s="55">
         <f t="shared" si="23"/>
-        <v>1.0010435424532773</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="AG81" s="55">
         <f t="shared" si="23"/>
-        <v>1.0009999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="AH81" s="55">
         <f t="shared" si="23"/>
-        <v>1.0009999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="AI81" s="55">
         <f t="shared" si="23"/>
-        <v>1.0011136646706249</v>
+        <v>0.995</v>
       </c>
       <c r="AJ81" s="55">
         <f t="shared" si="23"/>
-        <v>1.0009999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="AK81" s="55">
         <f t="shared" si="23"/>
-        <v>1.0009999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="AL81" s="55">
         <f t="shared" si="23"/>
-        <v>1.0009999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="AM81" s="55">
         <f t="shared" si="23"/>
-        <v>1.0009999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="AN81" s="55">
         <f t="shared" si="23"/>
-        <v>1.0009999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="AO81" s="22"/>
     </row>
@@ -13401,6 +13459,571 @@
         <v>154.59614013215509</v>
       </c>
     </row>
+    <row r="218" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A218" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="B218" s="71"/>
+      <c r="C218" s="71"/>
+      <c r="D218" s="71"/>
+      <c r="E218" s="71"/>
+      <c r="F218" s="71"/>
+      <c r="G218" s="71"/>
+      <c r="H218" s="71"/>
+      <c r="I218" s="71"/>
+      <c r="J218" s="71"/>
+      <c r="K218" s="71"/>
+      <c r="L218" s="71"/>
+      <c r="M218" s="71"/>
+      <c r="N218" s="71"/>
+      <c r="O218" s="71"/>
+      <c r="P218" s="71"/>
+      <c r="Q218" s="71"/>
+      <c r="R218" s="71"/>
+      <c r="S218" s="71"/>
+      <c r="T218" s="71"/>
+      <c r="U218" s="71"/>
+      <c r="V218" s="71"/>
+      <c r="W218" s="71"/>
+      <c r="X218" s="71"/>
+      <c r="Y218" s="71"/>
+      <c r="Z218" s="71"/>
+      <c r="AA218" s="71"/>
+      <c r="AB218" s="71"/>
+      <c r="AC218" s="71"/>
+    </row>
+    <row r="219" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A219" s="78" t="s">
+        <v>228</v>
+      </c>
+      <c r="B219" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="C219" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="D219" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="E219" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="F219" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="G219" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="H219" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="I219" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="J219" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="K219" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="L219" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="M219" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="N219" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="O219" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="P219" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q219" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="R219" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="S219" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="T219" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="U219" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="V219" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="W219" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="X219" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y219" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z219" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA219" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB219" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC219" s="77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A220" s="82" t="s">
+        <v>229</v>
+      </c>
+      <c r="B220" s="76" t="s">
+        <v>230</v>
+      </c>
+      <c r="C220" s="79">
+        <v>2.5114928752301518E-2</v>
+      </c>
+      <c r="D220" s="79">
+        <v>2.5307678973825617E-2</v>
+      </c>
+      <c r="E220" s="79">
+        <v>2.5036666940775772E-2</v>
+      </c>
+      <c r="F220" s="79">
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="G220" s="79">
+        <v>2.5307678973825624E-2</v>
+      </c>
+      <c r="H220" s="79">
+        <v>2.5307678973825617E-2</v>
+      </c>
+      <c r="I220" s="79">
+        <v>2.5307678973825614E-2</v>
+      </c>
+      <c r="J220" s="79">
+        <v>2.5307678973825617E-2</v>
+      </c>
+      <c r="K220" s="79">
+        <v>2.475224056984587E-2</v>
+      </c>
+      <c r="L220" s="79">
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="M220" s="79">
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="N220" s="79">
+        <v>2.5307678973825614E-2</v>
+      </c>
+      <c r="O220" s="79">
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="P220" s="79">
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="Q220" s="79">
+        <v>2.5307678973825624E-2</v>
+      </c>
+      <c r="R220" s="79">
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="S220" s="79">
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="T220" s="79">
+        <v>2.5307678973825624E-2</v>
+      </c>
+      <c r="U220" s="79">
+        <v>2.4251656377299691E-2</v>
+      </c>
+      <c r="V220" s="79">
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="W220" s="79">
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="X220" s="79">
+        <v>2.2724421467469186E-2</v>
+      </c>
+      <c r="Y220" s="79">
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="Z220" s="79">
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="AA220" s="79">
+        <v>2.5307678973825614E-2</v>
+      </c>
+      <c r="AB220" s="79">
+        <v>2.5307678973825614E-2</v>
+      </c>
+      <c r="AC220" s="79">
+        <v>2.5307678973825614E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A221" s="82" t="s">
+        <v>231</v>
+      </c>
+      <c r="B221" s="76" t="s">
+        <v>232</v>
+      </c>
+      <c r="C221" s="79">
+        <v>9.8051434169944274E-2</v>
+      </c>
+      <c r="D221" s="79">
+        <v>9.8803952158086308E-2</v>
+      </c>
+      <c r="E221" s="79">
+        <v>9.7745891481110903E-2</v>
+      </c>
+      <c r="F221" s="79">
+        <v>9.8803952158086336E-2</v>
+      </c>
+      <c r="G221" s="79">
+        <v>9.8803952158086336E-2</v>
+      </c>
+      <c r="H221" s="79">
+        <v>9.8803952158086308E-2</v>
+      </c>
+      <c r="I221" s="79">
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="J221" s="79">
+        <v>9.8803952158086308E-2</v>
+      </c>
+      <c r="K221" s="79">
+        <v>9.663545975898731E-2</v>
+      </c>
+      <c r="L221" s="79">
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="M221" s="79">
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="N221" s="79">
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="O221" s="79">
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="P221" s="79">
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="Q221" s="79">
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="R221" s="79">
+        <v>9.8803952158086336E-2</v>
+      </c>
+      <c r="S221" s="79">
+        <v>9.8803952158086336E-2</v>
+      </c>
+      <c r="T221" s="79">
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="U221" s="79">
+        <v>9.4681124212745368E-2</v>
+      </c>
+      <c r="V221" s="79">
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="W221" s="79">
+        <v>9.8803952158086336E-2</v>
+      </c>
+      <c r="X221" s="79">
+        <v>8.8718631756557781E-2</v>
+      </c>
+      <c r="Y221" s="79">
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="Z221" s="79">
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="AA221" s="79">
+        <v>9.8803952158086308E-2</v>
+      </c>
+      <c r="AB221" s="79">
+        <v>9.8803952158086308E-2</v>
+      </c>
+      <c r="AC221" s="79">
+        <v>9.8803952158086308E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A222" s="82" t="s">
+        <v>233</v>
+      </c>
+      <c r="B222" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="C222" s="79">
+        <v>0.86921736291355867</v>
+      </c>
+      <c r="D222" s="79">
+        <v>0.87588836886808796</v>
+      </c>
+      <c r="E222" s="79">
+        <v>0.86650875377904113</v>
+      </c>
+      <c r="F222" s="79">
+        <v>0.87588836886808796</v>
+      </c>
+      <c r="G222" s="79">
+        <v>0.87588836886808819</v>
+      </c>
+      <c r="H222" s="79">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="I222" s="79">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="J222" s="79">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="K222" s="79">
+        <v>0.85666487396870672</v>
+      </c>
+      <c r="L222" s="79">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="M222" s="79">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="N222" s="79">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="O222" s="79">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="P222" s="79">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="Q222" s="79">
+        <v>0.87588836886808796</v>
+      </c>
+      <c r="R222" s="79">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="S222" s="79">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="T222" s="79">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="U222" s="79">
+        <v>0.83933986078421463</v>
+      </c>
+      <c r="V222" s="79">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="W222" s="79">
+        <v>0.87588836886808796</v>
+      </c>
+      <c r="X222" s="79">
+        <v>0.78648288818576584</v>
+      </c>
+      <c r="Y222" s="79">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="Z222" s="79">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="AA222" s="79">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="AB222" s="79">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="AC222" s="79">
+        <v>0.87588836886808807</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A223" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="B223" s="76" t="s">
+        <v>241</v>
+      </c>
+      <c r="C223" s="83">
+        <v>7.6162741641953831E-3</v>
+      </c>
+      <c r="D223" s="83">
+        <v>0</v>
+      </c>
+      <c r="E223" s="83">
+        <v>1.0708687799072239E-2</v>
+      </c>
+      <c r="F223" s="83">
+        <v>0</v>
+      </c>
+      <c r="G223" s="83">
+        <v>0</v>
+      </c>
+      <c r="H223" s="83">
+        <v>0</v>
+      </c>
+      <c r="I223" s="83">
+        <v>0</v>
+      </c>
+      <c r="J223" s="83">
+        <v>0</v>
+      </c>
+      <c r="K223" s="83">
+        <v>2.1947425702460065E-2</v>
+      </c>
+      <c r="L223" s="83">
+        <v>0</v>
+      </c>
+      <c r="M223" s="83">
+        <v>0</v>
+      </c>
+      <c r="N223" s="83">
+        <v>0</v>
+      </c>
+      <c r="O223" s="83">
+        <v>0</v>
+      </c>
+      <c r="P223" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q223" s="83">
+        <v>0</v>
+      </c>
+      <c r="R223" s="83">
+        <v>0</v>
+      </c>
+      <c r="S223" s="83">
+        <v>0</v>
+      </c>
+      <c r="T223" s="83">
+        <v>0</v>
+      </c>
+      <c r="U223" s="83">
+        <v>4.1727358625740237E-2</v>
+      </c>
+      <c r="V223" s="83">
+        <v>0</v>
+      </c>
+      <c r="W223" s="83">
+        <v>0</v>
+      </c>
+      <c r="X223" s="83">
+        <v>0.10207405859020728</v>
+      </c>
+      <c r="Y223" s="83">
+        <v>0</v>
+      </c>
+      <c r="Z223" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA223" s="83">
+        <v>0</v>
+      </c>
+      <c r="AB223" s="83">
+        <v>0</v>
+      </c>
+      <c r="AC223" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A224" s="80"/>
+      <c r="B224" s="80" t="s">
+        <v>211</v>
+      </c>
+      <c r="C224" s="81">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="D224" s="81">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="E224" s="81">
+        <v>1</v>
+      </c>
+      <c r="F224" s="81">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="G224" s="81">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="H224" s="81">
+        <v>1</v>
+      </c>
+      <c r="I224" s="81">
+        <v>1</v>
+      </c>
+      <c r="J224" s="81">
+        <v>1</v>
+      </c>
+      <c r="K224" s="81">
+        <v>1</v>
+      </c>
+      <c r="L224" s="81">
+        <v>1</v>
+      </c>
+      <c r="M224" s="81">
+        <v>1</v>
+      </c>
+      <c r="N224" s="81">
+        <v>1</v>
+      </c>
+      <c r="O224" s="81">
+        <v>1</v>
+      </c>
+      <c r="P224" s="81">
+        <v>1</v>
+      </c>
+      <c r="Q224" s="81">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="R224" s="81">
+        <v>1</v>
+      </c>
+      <c r="S224" s="81">
+        <v>1</v>
+      </c>
+      <c r="T224" s="81">
+        <v>1</v>
+      </c>
+      <c r="U224" s="81">
+        <v>1</v>
+      </c>
+      <c r="V224" s="81">
+        <v>1</v>
+      </c>
+      <c r="W224" s="81">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="X224" s="81">
+        <v>1</v>
+      </c>
+      <c r="Y224" s="81">
+        <v>1</v>
+      </c>
+      <c r="Z224" s="81">
+        <v>1</v>
+      </c>
+      <c r="AA224" s="81">
+        <v>1</v>
+      </c>
+      <c r="AB224" s="81">
+        <v>1</v>
+      </c>
+      <c r="AC224" s="81">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/SuppXLS/Scen_TRA_BAU.xlsx
+++ b/SuppXLS/Scen_TRA_BAU.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_Irish-TIMES-model\TRA_Update\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CD37B7-D2C2-4BBA-9AEF-A523D1DA3A11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B0E9ED-BA85-46E1-8390-08110E2F534E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="244">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -925,6 +925,9 @@
   <si>
     <t>UP</t>
   </si>
+  <si>
+    <t>User constraints for Passenger transport</t>
+  </si>
 </sst>
 </file>
 
@@ -942,7 +945,7 @@
     <numFmt numFmtId="171" formatCode="0.0000%"/>
     <numFmt numFmtId="172" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1090,6 +1093,14 @@
       <color rgb="FF384350"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1276,7 +1287,7 @@
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1417,6 +1428,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3005,10 +3017,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A6:AO224"/>
+  <dimension ref="A3:AO224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O85" sqref="O85"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3022,6 +3034,13 @@
     <col min="30" max="40" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:41" ht="21" x14ac:dyDescent="0.4">
+      <c r="C3" s="84" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+    </row>
     <row r="6" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>25</v>
@@ -7017,12 +7036,12 @@
       <c r="AN66" s="22"/>
       <c r="AO66" s="22"/>
     </row>
-    <row r="67" spans="3:41" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="C67" s="69" t="s">
+    <row r="67" spans="3:41" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="C67" s="84" t="s">
         <v>236</v>
       </c>
       <c r="D67" s="68"/>
-      <c r="E67" s="22"/>
+      <c r="E67" s="84"/>
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
       <c r="H67" s="22"/>
@@ -7350,7 +7369,7 @@
         <v>2018</v>
       </c>
       <c r="K72" s="15" t="s">
-        <v>242</v>
+        <v>66</v>
       </c>
       <c r="L72" s="22">
         <v>-1</v>
@@ -7482,7 +7501,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="76" t="s">
-        <v>242</v>
+        <v>66</v>
       </c>
       <c r="L73" s="22"/>
       <c r="M73" s="22"/>
@@ -7537,7 +7556,7 @@
         <v>2018</v>
       </c>
       <c r="K74" s="76" t="s">
-        <v>242</v>
+        <v>66</v>
       </c>
       <c r="L74" s="22">
         <v>-1</v>
@@ -7669,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="76" t="s">
-        <v>242</v>
+        <v>66</v>
       </c>
       <c r="L75" s="22"/>
       <c r="M75" s="22"/>
@@ -7911,7 +7930,7 @@
         <v>2018</v>
       </c>
       <c r="K78" s="76" t="s">
-        <v>242</v>
+        <v>66</v>
       </c>
       <c r="L78" s="22">
         <v>-1</v>
@@ -8042,8 +8061,8 @@
       <c r="J79" s="30">
         <v>0</v>
       </c>
-      <c r="K79" s="76" t="s">
-        <v>242</v>
+      <c r="K79" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="L79" s="20"/>
       <c r="M79" s="20"/>

--- a/SuppXLS/Scen_TRA_BAU.xlsx
+++ b/SuppXLS/Scen_TRA_BAU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B0E9ED-BA85-46E1-8390-08110E2F534E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC760AD-8AD2-42B3-A830-50DE59A206A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="243">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -921,9 +921,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>UP</t>
   </si>
   <si>
     <t>User constraints for Passenger transport</t>
@@ -3020,7 +3017,7 @@
   <dimension ref="A3:AO224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K78" sqref="K78"/>
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3036,7 +3033,7 @@
   <sheetData>
     <row r="3" spans="2:41" ht="21" x14ac:dyDescent="0.4">
       <c r="C3" s="84" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D3" s="69"/>
       <c r="E3" s="69"/>
@@ -7743,7 +7740,7 @@
         <v>2018</v>
       </c>
       <c r="K76" s="76" t="s">
-        <v>242</v>
+        <v>66</v>
       </c>
       <c r="L76" s="22">
         <v>-1</v>
@@ -7875,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="76" t="s">
-        <v>242</v>
+        <v>66</v>
       </c>
       <c r="L77" s="22"/>
       <c r="M77" s="22"/>

--- a/SuppXLS/Scen_TRA_BAU.xlsx
+++ b/SuppXLS/Scen_TRA_BAU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC760AD-8AD2-42B3-A830-50DE59A206A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C238C85-1365-4394-B0EE-13B42A137336}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="244">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -924,6 +924,9 @@
   </si>
   <si>
     <t>User constraints for Passenger transport</t>
+  </si>
+  <si>
+    <t>FX</t>
   </si>
 </sst>
 </file>
@@ -3016,8 +3019,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A3:AO224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7366,7 +7369,7 @@
         <v>2018</v>
       </c>
       <c r="K72" s="15" t="s">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c r="L72" s="22">
         <v>-1</v>
@@ -7498,7 +7501,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="76" t="s">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c r="L73" s="22"/>
       <c r="M73" s="22"/>
@@ -7553,7 +7556,7 @@
         <v>2018</v>
       </c>
       <c r="K74" s="76" t="s">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c r="L74" s="22">
         <v>-1</v>
@@ -7685,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="76" t="s">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c r="L75" s="22"/>
       <c r="M75" s="22"/>
@@ -7740,7 +7743,7 @@
         <v>2018</v>
       </c>
       <c r="K76" s="76" t="s">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c r="L76" s="22">
         <v>-1</v>
@@ -7872,7 +7875,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="76" t="s">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c r="L77" s="22"/>
       <c r="M77" s="22"/>
@@ -7927,7 +7930,7 @@
         <v>2018</v>
       </c>
       <c r="K78" s="76" t="s">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c r="L78" s="22">
         <v>-1</v>
@@ -8059,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="20" t="s">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c r="L79" s="20"/>
       <c r="M79" s="20"/>

--- a/SuppXLS/Scen_TRA_BAU.xlsx
+++ b/SuppXLS/Scen_TRA_BAU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C238C85-1365-4394-B0EE-13B42A137336}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDB8AA1-94A9-4AD4-870D-3ED341B06646}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -933,19 +933,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.0000%"/>
-    <numFmt numFmtId="172" formatCode="0.000%"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1102,8 +1100,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1180,6 +1182,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -1282,12 +1290,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1383,8 +1402,8 @@
     </xf>
     <xf numFmtId="167" fontId="19" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1397,17 +1416,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1417,7 +1431,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1427,13 +1440,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="14">
+    <cellStyle name="20% - Accent5 2" xfId="9" xr:uid="{0445702F-E158-40C0-A753-3BE54EDCA274}"/>
+    <cellStyle name="20% - Accent5 3" xfId="13" xr:uid="{F549252F-D35E-45EC-A4D2-3EF3DF841AAC}"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="7" xr:uid="{FE672014-E842-4158-BAB9-44A45D6A80A1}"/>
+    <cellStyle name="Comma 3" xfId="11" xr:uid="{AD04B5D4-2F39-41A2-8993-378E2D033AC7}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{A0A554B5-7420-419B-BACF-5646042D592A}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{DFFE3294-3AE9-4664-83A8-009F3C816676}"/>
+    <cellStyle name="Normal 4" xfId="10" xr:uid="{E673CE62-B67E-4AC8-BCC9-88FEB5559169}"/>
+    <cellStyle name="Normal 5" xfId="3" xr:uid="{9AAC06E6-8A8F-416D-A6B1-4A932674DE6F}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="8" xr:uid="{17BFFCEC-48DA-46DC-B65F-B831356BDB3C}"/>
+    <cellStyle name="Percent 3" xfId="12" xr:uid="{B82E14FC-77E0-4E62-B362-3CD556B0F67B}"/>
+    <cellStyle name="Percent 4" xfId="4" xr:uid="{E2CD39BB-8876-4A16-9A4D-0907C936B710}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3019,12 +3047,14 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A3:AO224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N72" sqref="N72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.44140625" customWidth="1"/>
     <col min="5" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
@@ -3035,11 +3065,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:41" ht="21" x14ac:dyDescent="0.4">
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
     </row>
     <row r="6" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -7037,11 +7067,11 @@
       <c r="AO66" s="22"/>
     </row>
     <row r="67" spans="3:41" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="C67" s="84" t="s">
+      <c r="C67" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="D67" s="68"/>
-      <c r="E67" s="84"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="77"/>
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
       <c r="H67" s="22"/>
@@ -7381,111 +7411,111 @@
         <f>ROUNDUP(C220,3)</f>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="O72" s="74">
+      <c r="O72" s="82">
         <f t="shared" ref="O72:AN72" si="19">ROUNDUP(D220,3)</f>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="P72" s="74">
+      <c r="P72" s="82">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="Q72" s="74">
+      <c r="Q72" s="82">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="R72" s="74">
+      <c r="R72" s="82">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="S72" s="74">
+      <c r="S72" s="82">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="T72" s="74">
+      <c r="T72" s="82">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="U72" s="74">
+      <c r="U72" s="82">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="V72" s="74">
+      <c r="V72" s="82">
         <f t="shared" si="19"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="W72" s="74">
+      <c r="W72" s="82">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="X72" s="74">
+      <c r="X72" s="82">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="Y72" s="74">
+      <c r="Y72" s="82">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="Z72" s="74">
+      <c r="Z72" s="82">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AA72" s="74">
+      <c r="AA72" s="82">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AB72" s="74">
+      <c r="AB72" s="82">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AC72" s="74">
+      <c r="AC72" s="82">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AD72" s="74">
+      <c r="AD72" s="82">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AE72" s="74">
+      <c r="AE72" s="82">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AF72" s="74">
+      <c r="AF72" s="82">
         <f t="shared" si="19"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AG72" s="74">
+      <c r="AG72" s="82">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AH72" s="74">
+      <c r="AH72" s="82">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AI72" s="74">
+      <c r="AI72" s="82">
         <f t="shared" si="19"/>
         <v>2.3E-2</v>
       </c>
-      <c r="AJ72" s="74">
+      <c r="AJ72" s="82">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AK72" s="74">
+      <c r="AK72" s="82">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AL72" s="74">
+      <c r="AL72" s="82">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AM72" s="74">
+      <c r="AM72" s="82">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AN72" s="74">
+      <c r="AN72" s="82">
         <f t="shared" si="19"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AO72" s="70">
+      <c r="AO72" s="67">
         <v>0</v>
       </c>
     </row>
@@ -7500,38 +7530,38 @@
       <c r="J73" s="15">
         <v>0</v>
       </c>
-      <c r="K73" s="76" t="s">
+      <c r="K73" s="71" t="s">
         <v>243</v>
       </c>
       <c r="L73" s="22"/>
       <c r="M73" s="22"/>
       <c r="N73" s="23"/>
-      <c r="O73" s="73"/>
-      <c r="P73" s="73"/>
-      <c r="Q73" s="73"/>
-      <c r="R73" s="73"/>
-      <c r="S73" s="73"/>
-      <c r="T73" s="73"/>
-      <c r="U73" s="73"/>
-      <c r="V73" s="73"/>
-      <c r="W73" s="73"/>
-      <c r="X73" s="73"/>
-      <c r="Y73" s="73"/>
-      <c r="Z73" s="73"/>
-      <c r="AA73" s="73"/>
-      <c r="AB73" s="73"/>
-      <c r="AC73" s="73"/>
-      <c r="AD73" s="73"/>
-      <c r="AE73" s="73"/>
-      <c r="AF73" s="73"/>
-      <c r="AG73" s="73"/>
-      <c r="AH73" s="73"/>
-      <c r="AI73" s="73"/>
-      <c r="AJ73" s="73"/>
-      <c r="AK73" s="73"/>
-      <c r="AL73" s="73"/>
-      <c r="AM73" s="73"/>
-      <c r="AN73" s="73"/>
+      <c r="O73" s="79"/>
+      <c r="P73" s="79"/>
+      <c r="Q73" s="79"/>
+      <c r="R73" s="79"/>
+      <c r="S73" s="79"/>
+      <c r="T73" s="79"/>
+      <c r="U73" s="79"/>
+      <c r="V73" s="79"/>
+      <c r="W73" s="79"/>
+      <c r="X73" s="79"/>
+      <c r="Y73" s="79"/>
+      <c r="Z73" s="79"/>
+      <c r="AA73" s="79"/>
+      <c r="AB73" s="79"/>
+      <c r="AC73" s="79"/>
+      <c r="AD73" s="79"/>
+      <c r="AE73" s="79"/>
+      <c r="AF73" s="79"/>
+      <c r="AG73" s="79"/>
+      <c r="AH73" s="79"/>
+      <c r="AI73" s="79"/>
+      <c r="AJ73" s="79"/>
+      <c r="AK73" s="79"/>
+      <c r="AL73" s="79"/>
+      <c r="AM73" s="79"/>
+      <c r="AN73" s="79"/>
       <c r="AO73" s="15">
         <v>5</v>
       </c>
@@ -7555,7 +7585,7 @@
       <c r="J74" s="15">
         <v>2018</v>
       </c>
-      <c r="K74" s="76" t="s">
+      <c r="K74" s="71" t="s">
         <v>243</v>
       </c>
       <c r="L74" s="22">
@@ -7568,111 +7598,111 @@
         <f>ROUNDUP(C221,3)</f>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="O74" s="74">
+      <c r="O74" s="82">
         <f t="shared" ref="O74:AN74" si="20">ROUNDUP(D221,3)</f>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="P74" s="74">
+      <c r="P74" s="82">
         <f t="shared" si="20"/>
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="Q74" s="74">
+      <c r="Q74" s="82">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="R74" s="74">
+      <c r="R74" s="82">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="S74" s="74">
+      <c r="S74" s="82">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="T74" s="74">
+      <c r="T74" s="82">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="U74" s="74">
+      <c r="U74" s="82">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="V74" s="74">
+      <c r="V74" s="82">
         <f t="shared" si="20"/>
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="W74" s="74">
+      <c r="W74" s="82">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="X74" s="74">
+      <c r="X74" s="82">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="Y74" s="74">
+      <c r="Y74" s="82">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="Z74" s="74">
+      <c r="Z74" s="82">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AA74" s="74">
+      <c r="AA74" s="82">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AB74" s="74">
+      <c r="AB74" s="82">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AC74" s="74">
+      <c r="AC74" s="82">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AD74" s="74">
+      <c r="AD74" s="82">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AE74" s="74">
+      <c r="AE74" s="82">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AF74" s="74">
+      <c r="AF74" s="82">
         <f t="shared" si="20"/>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="AG74" s="74">
+      <c r="AG74" s="82">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AH74" s="74">
+      <c r="AH74" s="82">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AI74" s="74">
+      <c r="AI74" s="82">
         <f t="shared" si="20"/>
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="AJ74" s="74">
+      <c r="AJ74" s="82">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AK74" s="74">
+      <c r="AK74" s="82">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AL74" s="74">
+      <c r="AL74" s="82">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AM74" s="74">
+      <c r="AM74" s="82">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AN74" s="74">
+      <c r="AN74" s="82">
         <f t="shared" si="20"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AO74" s="70">
+      <c r="AO74" s="67">
         <v>0</v>
       </c>
     </row>
@@ -7687,38 +7717,38 @@
       <c r="J75" s="15">
         <v>0</v>
       </c>
-      <c r="K75" s="76" t="s">
+      <c r="K75" s="71" t="s">
         <v>243</v>
       </c>
       <c r="L75" s="22"/>
       <c r="M75" s="22"/>
       <c r="N75" s="23"/>
-      <c r="O75" s="73"/>
-      <c r="P75" s="73"/>
-      <c r="Q75" s="73"/>
-      <c r="R75" s="73"/>
-      <c r="S75" s="73"/>
-      <c r="T75" s="73"/>
-      <c r="U75" s="73"/>
-      <c r="V75" s="73"/>
-      <c r="W75" s="73"/>
-      <c r="X75" s="73"/>
-      <c r="Y75" s="73"/>
-      <c r="Z75" s="73"/>
-      <c r="AA75" s="73"/>
-      <c r="AB75" s="73"/>
-      <c r="AC75" s="73"/>
-      <c r="AD75" s="73"/>
-      <c r="AE75" s="73"/>
-      <c r="AF75" s="73"/>
-      <c r="AG75" s="73"/>
-      <c r="AH75" s="73"/>
-      <c r="AI75" s="73"/>
-      <c r="AJ75" s="73"/>
-      <c r="AK75" s="73"/>
-      <c r="AL75" s="73"/>
-      <c r="AM75" s="73"/>
-      <c r="AN75" s="73"/>
+      <c r="O75" s="79"/>
+      <c r="P75" s="79"/>
+      <c r="Q75" s="79"/>
+      <c r="R75" s="79"/>
+      <c r="S75" s="79"/>
+      <c r="T75" s="79"/>
+      <c r="U75" s="79"/>
+      <c r="V75" s="79"/>
+      <c r="W75" s="79"/>
+      <c r="X75" s="79"/>
+      <c r="Y75" s="79"/>
+      <c r="Z75" s="79"/>
+      <c r="AA75" s="79"/>
+      <c r="AB75" s="79"/>
+      <c r="AC75" s="79"/>
+      <c r="AD75" s="79"/>
+      <c r="AE75" s="79"/>
+      <c r="AF75" s="79"/>
+      <c r="AG75" s="79"/>
+      <c r="AH75" s="79"/>
+      <c r="AI75" s="79"/>
+      <c r="AJ75" s="79"/>
+      <c r="AK75" s="79"/>
+      <c r="AL75" s="79"/>
+      <c r="AM75" s="79"/>
+      <c r="AN75" s="79"/>
       <c r="AO75" s="15">
         <v>5</v>
       </c>
@@ -7742,7 +7772,7 @@
       <c r="J76" s="15">
         <v>2018</v>
       </c>
-      <c r="K76" s="76" t="s">
+      <c r="K76" s="71" t="s">
         <v>243</v>
       </c>
       <c r="L76" s="22">
@@ -7755,111 +7785,111 @@
         <f>ROUNDDOWN(C222,2)</f>
         <v>0.86</v>
       </c>
-      <c r="O76" s="74">
+      <c r="O76" s="82">
         <f t="shared" ref="O76:AN76" si="21">ROUNDDOWN(D222,2)</f>
         <v>0.87</v>
       </c>
-      <c r="P76" s="74">
+      <c r="P76" s="82">
         <f t="shared" si="21"/>
         <v>0.86</v>
       </c>
-      <c r="Q76" s="74">
+      <c r="Q76" s="82">
         <f t="shared" si="21"/>
         <v>0.87</v>
       </c>
-      <c r="R76" s="74">
+      <c r="R76" s="82">
         <f t="shared" si="21"/>
         <v>0.87</v>
       </c>
-      <c r="S76" s="74">
+      <c r="S76" s="82">
         <f t="shared" si="21"/>
         <v>0.87</v>
       </c>
-      <c r="T76" s="74">
+      <c r="T76" s="82">
         <f t="shared" si="21"/>
         <v>0.87</v>
       </c>
-      <c r="U76" s="74">
+      <c r="U76" s="82">
         <f t="shared" si="21"/>
         <v>0.87</v>
       </c>
-      <c r="V76" s="74">
+      <c r="V76" s="82">
         <f t="shared" si="21"/>
         <v>0.85</v>
       </c>
-      <c r="W76" s="74">
+      <c r="W76" s="82">
         <f t="shared" si="21"/>
         <v>0.87</v>
       </c>
-      <c r="X76" s="74">
+      <c r="X76" s="82">
         <f t="shared" si="21"/>
         <v>0.87</v>
       </c>
-      <c r="Y76" s="74">
+      <c r="Y76" s="82">
         <f t="shared" si="21"/>
         <v>0.87</v>
       </c>
-      <c r="Z76" s="74">
+      <c r="Z76" s="82">
         <f t="shared" si="21"/>
         <v>0.87</v>
       </c>
-      <c r="AA76" s="74">
+      <c r="AA76" s="82">
         <f t="shared" si="21"/>
         <v>0.87</v>
       </c>
-      <c r="AB76" s="74">
+      <c r="AB76" s="82">
         <f t="shared" si="21"/>
         <v>0.87</v>
       </c>
-      <c r="AC76" s="74">
+      <c r="AC76" s="82">
         <f t="shared" si="21"/>
         <v>0.87</v>
       </c>
-      <c r="AD76" s="74">
+      <c r="AD76" s="82">
         <f t="shared" si="21"/>
         <v>0.87</v>
       </c>
-      <c r="AE76" s="74">
+      <c r="AE76" s="82">
         <f t="shared" si="21"/>
         <v>0.87</v>
       </c>
-      <c r="AF76" s="74">
+      <c r="AF76" s="82">
         <f t="shared" si="21"/>
         <v>0.83</v>
       </c>
-      <c r="AG76" s="74">
+      <c r="AG76" s="82">
         <f t="shared" si="21"/>
         <v>0.87</v>
       </c>
-      <c r="AH76" s="74">
+      <c r="AH76" s="82">
         <f t="shared" si="21"/>
         <v>0.87</v>
       </c>
-      <c r="AI76" s="74">
+      <c r="AI76" s="82">
         <f t="shared" si="21"/>
         <v>0.78</v>
       </c>
-      <c r="AJ76" s="74">
+      <c r="AJ76" s="82">
         <f t="shared" si="21"/>
         <v>0.87</v>
       </c>
-      <c r="AK76" s="74">
+      <c r="AK76" s="82">
         <f t="shared" si="21"/>
         <v>0.87</v>
       </c>
-      <c r="AL76" s="74">
+      <c r="AL76" s="82">
         <f t="shared" si="21"/>
         <v>0.87</v>
       </c>
-      <c r="AM76" s="74">
+      <c r="AM76" s="82">
         <f t="shared" si="21"/>
         <v>0.87</v>
       </c>
-      <c r="AN76" s="74">
+      <c r="AN76" s="82">
         <f t="shared" si="21"/>
         <v>0.87</v>
       </c>
-      <c r="AO76" s="70">
+      <c r="AO76" s="67">
         <v>0</v>
       </c>
     </row>
@@ -7874,38 +7904,38 @@
       <c r="J77" s="15">
         <v>0</v>
       </c>
-      <c r="K77" s="76" t="s">
+      <c r="K77" s="71" t="s">
         <v>243</v>
       </c>
       <c r="L77" s="22"/>
       <c r="M77" s="22"/>
       <c r="N77" s="23"/>
-      <c r="O77" s="73"/>
-      <c r="P77" s="73"/>
-      <c r="Q77" s="73"/>
-      <c r="R77" s="73"/>
-      <c r="S77" s="73"/>
-      <c r="T77" s="73"/>
-      <c r="U77" s="73"/>
-      <c r="V77" s="73"/>
-      <c r="W77" s="73"/>
-      <c r="X77" s="73"/>
-      <c r="Y77" s="73"/>
-      <c r="Z77" s="73"/>
-      <c r="AA77" s="73"/>
-      <c r="AB77" s="73"/>
-      <c r="AC77" s="73"/>
-      <c r="AD77" s="73"/>
-      <c r="AE77" s="73"/>
-      <c r="AF77" s="73"/>
-      <c r="AG77" s="73"/>
-      <c r="AH77" s="73"/>
-      <c r="AI77" s="73"/>
-      <c r="AJ77" s="73"/>
-      <c r="AK77" s="73"/>
-      <c r="AL77" s="73"/>
-      <c r="AM77" s="73"/>
-      <c r="AN77" s="73"/>
+      <c r="O77" s="79"/>
+      <c r="P77" s="79"/>
+      <c r="Q77" s="79"/>
+      <c r="R77" s="79"/>
+      <c r="S77" s="79"/>
+      <c r="T77" s="79"/>
+      <c r="U77" s="79"/>
+      <c r="V77" s="79"/>
+      <c r="W77" s="79"/>
+      <c r="X77" s="79"/>
+      <c r="Y77" s="79"/>
+      <c r="Z77" s="79"/>
+      <c r="AA77" s="79"/>
+      <c r="AB77" s="79"/>
+      <c r="AC77" s="79"/>
+      <c r="AD77" s="79"/>
+      <c r="AE77" s="79"/>
+      <c r="AF77" s="79"/>
+      <c r="AG77" s="79"/>
+      <c r="AH77" s="79"/>
+      <c r="AI77" s="79"/>
+      <c r="AJ77" s="79"/>
+      <c r="AK77" s="79"/>
+      <c r="AL77" s="79"/>
+      <c r="AM77" s="79"/>
+      <c r="AN77" s="79"/>
       <c r="AO77" s="15">
         <v>5</v>
       </c>
@@ -7929,7 +7959,7 @@
       <c r="J78" s="22">
         <v>2018</v>
       </c>
-      <c r="K78" s="76" t="s">
+      <c r="K78" s="71" t="s">
         <v>243</v>
       </c>
       <c r="L78" s="22">
@@ -7938,115 +7968,115 @@
       <c r="M78" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="N78" s="75">
+      <c r="N78" s="70">
         <f>ROUNDUP(C223,3)</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="O78" s="75">
+      <c r="O78" s="80">
         <f t="shared" ref="O78:AN78" si="22">ROUNDUP(D223,3)</f>
         <v>0</v>
       </c>
-      <c r="P78" s="75">
+      <c r="P78" s="80">
         <f t="shared" si="22"/>
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="Q78" s="75">
+      <c r="Q78" s="80">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="R78" s="75">
+      <c r="R78" s="80">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="S78" s="75">
+      <c r="S78" s="80">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T78" s="75">
+      <c r="T78" s="80">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="U78" s="75">
+      <c r="U78" s="80">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="V78" s="75">
+      <c r="V78" s="80">
         <f t="shared" si="22"/>
         <v>2.2000000000000002E-2</v>
       </c>
-      <c r="W78" s="75">
+      <c r="W78" s="80">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X78" s="75">
+      <c r="X78" s="80">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Y78" s="75">
+      <c r="Y78" s="80">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z78" s="75">
+      <c r="Z78" s="80">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AA78" s="75">
+      <c r="AA78" s="80">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AB78" s="75">
+      <c r="AB78" s="80">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AC78" s="75">
+      <c r="AC78" s="80">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AD78" s="75">
+      <c r="AD78" s="80">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AE78" s="75">
+      <c r="AE78" s="80">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AF78" s="75">
+      <c r="AF78" s="80">
         <f t="shared" si="22"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AG78" s="75">
+      <c r="AG78" s="80">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AH78" s="75">
+      <c r="AH78" s="80">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AI78" s="75">
+      <c r="AI78" s="80">
         <f t="shared" si="22"/>
         <v>0.10299999999999999</v>
       </c>
-      <c r="AJ78" s="75">
+      <c r="AJ78" s="80">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AK78" s="75">
+      <c r="AK78" s="80">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AL78" s="75">
+      <c r="AL78" s="80">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AM78" s="75">
+      <c r="AM78" s="80">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AN78" s="75">
+      <c r="AN78" s="80">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AO78" s="70">
+      <c r="AO78" s="67">
         <v>0</v>
       </c>
     </row>
@@ -13282,85 +13312,85 @@
         <v>208</v>
       </c>
       <c r="B211" s="46"/>
-      <c r="C211" s="65">
-        <v>8.8551000000000005E-2</v>
-      </c>
-      <c r="D211" s="66">
-        <v>0</v>
-      </c>
-      <c r="E211" s="65">
-        <v>2.8462821428571431E-2</v>
-      </c>
-      <c r="F211" s="67">
-        <v>0</v>
-      </c>
-      <c r="G211" s="67">
-        <v>0</v>
-      </c>
-      <c r="H211" s="67">
-        <v>0</v>
-      </c>
-      <c r="I211" s="67">
-        <v>0</v>
-      </c>
-      <c r="J211" s="67">
-        <v>0</v>
-      </c>
-      <c r="K211" s="65">
-        <v>9.4876071428571431E-3</v>
-      </c>
-      <c r="L211" s="67">
-        <v>0</v>
-      </c>
-      <c r="M211" s="67">
-        <v>0</v>
-      </c>
-      <c r="N211" s="67">
-        <v>0</v>
-      </c>
-      <c r="O211" s="67">
-        <v>0</v>
-      </c>
-      <c r="P211" s="67">
-        <v>0</v>
-      </c>
-      <c r="Q211" s="67">
-        <v>0</v>
-      </c>
-      <c r="R211" s="67">
-        <v>0</v>
-      </c>
-      <c r="S211" s="67">
-        <v>0</v>
-      </c>
-      <c r="T211" s="67">
-        <v>0</v>
-      </c>
-      <c r="U211" s="65">
-        <v>1.5812678571428571E-2</v>
-      </c>
-      <c r="V211" s="67">
-        <v>0</v>
-      </c>
-      <c r="W211" s="67">
-        <v>0</v>
-      </c>
-      <c r="X211" s="65">
-        <v>3.4787892857142858E-2</v>
-      </c>
-      <c r="Y211" s="67">
-        <v>0</v>
-      </c>
-      <c r="Z211" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA211" s="67">
-        <v>0</v>
-      </c>
-      <c r="AB211" s="67">
-        <v>0</v>
-      </c>
-      <c r="AC211" s="67">
+      <c r="C211" s="81">
+        <v>88.551000000000002</v>
+      </c>
+      <c r="D211" s="81">
+        <v>0</v>
+      </c>
+      <c r="E211" s="81">
+        <v>28.462821428571431</v>
+      </c>
+      <c r="F211" s="81">
+        <v>0</v>
+      </c>
+      <c r="G211" s="81">
+        <v>0</v>
+      </c>
+      <c r="H211" s="81">
+        <v>0</v>
+      </c>
+      <c r="I211" s="81">
+        <v>0</v>
+      </c>
+      <c r="J211" s="81">
+        <v>0</v>
+      </c>
+      <c r="K211" s="81">
+        <v>9.4876071428571436</v>
+      </c>
+      <c r="L211" s="81">
+        <v>0</v>
+      </c>
+      <c r="M211" s="81">
+        <v>0</v>
+      </c>
+      <c r="N211" s="81">
+        <v>0</v>
+      </c>
+      <c r="O211" s="81">
+        <v>0</v>
+      </c>
+      <c r="P211" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q211" s="81">
+        <v>0</v>
+      </c>
+      <c r="R211" s="81">
+        <v>0</v>
+      </c>
+      <c r="S211" s="81">
+        <v>0</v>
+      </c>
+      <c r="T211" s="81">
+        <v>0</v>
+      </c>
+      <c r="U211" s="81">
+        <v>15.812678571428572</v>
+      </c>
+      <c r="V211" s="81">
+        <v>0</v>
+      </c>
+      <c r="W211" s="81">
+        <v>0</v>
+      </c>
+      <c r="X211" s="81">
+        <v>34.787892857142857</v>
+      </c>
+      <c r="Y211" s="81">
+        <v>0</v>
+      </c>
+      <c r="Z211" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA211" s="81">
+        <v>0</v>
+      </c>
+      <c r="AB211" s="81">
+        <v>0</v>
+      </c>
+      <c r="AC211" s="81">
         <v>0</v>
       </c>
     </row>
@@ -13371,15 +13401,15 @@
       </c>
       <c r="C212" s="61">
         <f>SUM(C208:C211)</f>
-        <v>11538.088551000001</v>
+        <v>11626.550999999999</v>
       </c>
       <c r="D212" s="61">
-        <f t="shared" ref="D212:AC212" si="24">SUM(D208:D211)</f>
+        <f>SUM(D208:D211)</f>
         <v>177.95641949867974</v>
       </c>
       <c r="E212" s="61">
-        <f t="shared" si="24"/>
-        <v>2629.4843297159346</v>
+        <f t="shared" ref="E212:AC212" si="24">SUM(E208:E211)</f>
+        <v>2657.9186883230773</v>
       </c>
       <c r="F212" s="61">
         <f t="shared" si="24"/>
@@ -13403,7 +13433,7 @@
       </c>
       <c r="K212" s="61">
         <f t="shared" si="24"/>
-        <v>422.80980668761885</v>
+        <v>432.28792622333316</v>
       </c>
       <c r="L212" s="61">
         <f t="shared" si="24"/>
@@ -13443,7 +13473,7 @@
       </c>
       <c r="U212" s="61">
         <f t="shared" si="24"/>
-        <v>363.15543524019967</v>
+        <v>378.95230113305684</v>
       </c>
       <c r="V212" s="61">
         <f t="shared" si="24"/>
@@ -13455,7 +13485,7 @@
       </c>
       <c r="X212" s="61">
         <f t="shared" si="24"/>
-        <v>306.05721783089621</v>
+        <v>340.81032279518195</v>
       </c>
       <c r="Y212" s="61">
         <f t="shared" si="24"/>
@@ -13479,568 +13509,703 @@
       </c>
     </row>
     <row r="218" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A218" s="72" t="s">
+      <c r="A218" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="B218" s="71"/>
-      <c r="C218" s="71"/>
-      <c r="D218" s="71"/>
-      <c r="E218" s="71"/>
-      <c r="F218" s="71"/>
-      <c r="G218" s="71"/>
-      <c r="H218" s="71"/>
-      <c r="I218" s="71"/>
-      <c r="J218" s="71"/>
-      <c r="K218" s="71"/>
-      <c r="L218" s="71"/>
-      <c r="M218" s="71"/>
-      <c r="N218" s="71"/>
-      <c r="O218" s="71"/>
-      <c r="P218" s="71"/>
-      <c r="Q218" s="71"/>
-      <c r="R218" s="71"/>
-      <c r="S218" s="71"/>
-      <c r="T218" s="71"/>
-      <c r="U218" s="71"/>
-      <c r="V218" s="71"/>
-      <c r="W218" s="71"/>
-      <c r="X218" s="71"/>
-      <c r="Y218" s="71"/>
-      <c r="Z218" s="71"/>
-      <c r="AA218" s="71"/>
-      <c r="AB218" s="71"/>
-      <c r="AC218" s="71"/>
+      <c r="B218" s="68"/>
+      <c r="C218" s="68"/>
+      <c r="D218" s="68"/>
+      <c r="E218" s="68"/>
+      <c r="F218" s="68"/>
+      <c r="G218" s="68"/>
+      <c r="H218" s="68"/>
+      <c r="I218" s="68"/>
+      <c r="J218" s="68"/>
+      <c r="K218" s="68"/>
+      <c r="L218" s="68"/>
+      <c r="M218" s="68"/>
+      <c r="N218" s="68"/>
+      <c r="O218" s="68"/>
+      <c r="P218" s="68"/>
+      <c r="Q218" s="68"/>
+      <c r="R218" s="68"/>
+      <c r="S218" s="68"/>
+      <c r="T218" s="68"/>
+      <c r="U218" s="68"/>
+      <c r="V218" s="68"/>
+      <c r="W218" s="68"/>
+      <c r="X218" s="68"/>
+      <c r="Y218" s="68"/>
+      <c r="Z218" s="68"/>
+      <c r="AA218" s="68"/>
+      <c r="AB218" s="68"/>
+      <c r="AC218" s="68"/>
     </row>
     <row r="219" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A219" s="78" t="s">
+      <c r="A219" s="73" t="s">
         <v>228</v>
       </c>
-      <c r="B219" s="78" t="s">
+      <c r="B219" s="73" t="s">
         <v>240</v>
       </c>
-      <c r="C219" s="77" t="s">
+      <c r="C219" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="D219" s="77" t="s">
+      <c r="D219" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="E219" s="77" t="s">
+      <c r="E219" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="F219" s="77" t="s">
+      <c r="F219" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="G219" s="77" t="s">
+      <c r="G219" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="H219" s="77" t="s">
+      <c r="H219" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="I219" s="77" t="s">
+      <c r="I219" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="J219" s="77" t="s">
+      <c r="J219" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="K219" s="77" t="s">
+      <c r="K219" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="L219" s="77" t="s">
+      <c r="L219" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="M219" s="77" t="s">
+      <c r="M219" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="N219" s="77" t="s">
+      <c r="N219" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="O219" s="77" t="s">
+      <c r="O219" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="P219" s="77" t="s">
+      <c r="P219" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="Q219" s="77" t="s">
+      <c r="Q219" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="R219" s="77" t="s">
+      <c r="R219" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="S219" s="77" t="s">
+      <c r="S219" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="T219" s="77" t="s">
+      <c r="T219" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="U219" s="77" t="s">
+      <c r="U219" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="V219" s="77" t="s">
+      <c r="V219" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="W219" s="77" t="s">
+      <c r="W219" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="X219" s="77" t="s">
+      <c r="X219" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="Y219" s="77" t="s">
+      <c r="Y219" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="Z219" s="77" t="s">
+      <c r="Z219" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="AA219" s="77" t="s">
+      <c r="AA219" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="AB219" s="77" t="s">
+      <c r="AB219" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="AC219" s="77" t="s">
+      <c r="AC219" s="72" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="220" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A220" s="82" t="s">
+      <c r="A220" s="76" t="s">
         <v>229</v>
       </c>
-      <c r="B220" s="76" t="s">
+      <c r="B220" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="C220" s="79">
-        <v>2.5114928752301518E-2</v>
-      </c>
-      <c r="D220" s="79">
+      <c r="C220" s="78">
+        <f>C208/C212</f>
+        <v>2.5114928752301521E-2</v>
+      </c>
+      <c r="D220" s="78">
+        <f t="shared" ref="D220:AC220" si="25">D208/D212</f>
         <v>2.5307678973825617E-2</v>
       </c>
-      <c r="E220" s="79">
-        <v>2.5036666940775772E-2</v>
-      </c>
-      <c r="F220" s="79">
+      <c r="E220" s="78">
+        <f t="shared" si="25"/>
+        <v>2.5036666940775776E-2</v>
+      </c>
+      <c r="F220" s="78">
+        <f t="shared" si="25"/>
         <v>2.5307678973825621E-2</v>
       </c>
-      <c r="G220" s="79">
+      <c r="G220" s="78">
+        <f t="shared" si="25"/>
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="H220" s="78">
+        <f t="shared" si="25"/>
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="I220" s="78">
+        <f t="shared" si="25"/>
+        <v>2.5307678973825617E-2</v>
+      </c>
+      <c r="J220" s="78">
+        <f t="shared" si="25"/>
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="K220" s="78">
+        <f t="shared" si="25"/>
+        <v>2.475224056984587E-2</v>
+      </c>
+      <c r="L220" s="78">
+        <f t="shared" si="25"/>
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="M220" s="78">
+        <f t="shared" si="25"/>
+        <v>2.5307678973825617E-2</v>
+      </c>
+      <c r="N220" s="78">
+        <f t="shared" si="25"/>
+        <v>2.5307678973825617E-2</v>
+      </c>
+      <c r="O220" s="78">
+        <f t="shared" si="25"/>
+        <v>2.5307678973825617E-2</v>
+      </c>
+      <c r="P220" s="78">
+        <f t="shared" si="25"/>
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="Q220" s="78">
+        <f t="shared" si="25"/>
         <v>2.5307678973825624E-2</v>
       </c>
-      <c r="H220" s="79">
+      <c r="R220" s="78">
+        <f t="shared" si="25"/>
         <v>2.5307678973825617E-2</v>
       </c>
-      <c r="I220" s="79">
+      <c r="S220" s="78">
+        <f t="shared" si="25"/>
+        <v>2.5307678973825617E-2</v>
+      </c>
+      <c r="T220" s="78">
+        <f t="shared" si="25"/>
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="U220" s="78">
+        <f t="shared" si="25"/>
+        <v>2.4251656377299691E-2</v>
+      </c>
+      <c r="V220" s="78">
+        <f t="shared" si="25"/>
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="W220" s="78">
+        <f t="shared" si="25"/>
+        <v>2.5307678973825624E-2</v>
+      </c>
+      <c r="X220" s="78">
+        <f t="shared" si="25"/>
+        <v>2.2724421467469183E-2</v>
+      </c>
+      <c r="Y220" s="78">
+        <f t="shared" si="25"/>
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="Z220" s="78">
+        <f t="shared" si="25"/>
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="AA220" s="78">
+        <f t="shared" si="25"/>
         <v>2.5307678973825614E-2</v>
       </c>
-      <c r="J220" s="79">
+      <c r="AB220" s="78">
+        <f t="shared" si="25"/>
         <v>2.5307678973825617E-2</v>
       </c>
-      <c r="K220" s="79">
-        <v>2.475224056984587E-2</v>
-      </c>
-      <c r="L220" s="79">
+      <c r="AC220" s="78">
+        <f t="shared" si="25"/>
         <v>2.5307678973825621E-2</v>
       </c>
-      <c r="M220" s="79">
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="N220" s="79">
-        <v>2.5307678973825614E-2</v>
-      </c>
-      <c r="O220" s="79">
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="P220" s="79">
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="Q220" s="79">
-        <v>2.5307678973825624E-2</v>
-      </c>
-      <c r="R220" s="79">
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="S220" s="79">
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="T220" s="79">
-        <v>2.5307678973825624E-2</v>
-      </c>
-      <c r="U220" s="79">
-        <v>2.4251656377299691E-2</v>
-      </c>
-      <c r="V220" s="79">
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="W220" s="79">
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="X220" s="79">
-        <v>2.2724421467469186E-2</v>
-      </c>
-      <c r="Y220" s="79">
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="Z220" s="79">
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="AA220" s="79">
-        <v>2.5307678973825614E-2</v>
-      </c>
-      <c r="AB220" s="79">
-        <v>2.5307678973825614E-2</v>
-      </c>
-      <c r="AC220" s="79">
-        <v>2.5307678973825614E-2</v>
-      </c>
     </row>
     <row r="221" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A221" s="82" t="s">
+      <c r="A221" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="B221" s="76" t="s">
+      <c r="B221" s="71" t="s">
         <v>232</v>
       </c>
-      <c r="C221" s="79">
-        <v>9.8051434169944274E-2</v>
-      </c>
-      <c r="D221" s="79">
+      <c r="C221" s="78">
+        <f>C209/C212</f>
+        <v>9.8051434169944301E-2</v>
+      </c>
+      <c r="D221" s="78">
+        <f t="shared" ref="D221:AC221" si="26">D209/D212</f>
         <v>9.8803952158086308E-2</v>
       </c>
-      <c r="E221" s="79">
-        <v>9.7745891481110903E-2</v>
-      </c>
-      <c r="F221" s="79">
+      <c r="E221" s="78">
+        <f t="shared" si="26"/>
+        <v>9.7745891481110916E-2</v>
+      </c>
+      <c r="F221" s="78">
+        <f t="shared" si="26"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="G221" s="78">
+        <f t="shared" si="26"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="H221" s="78">
+        <f t="shared" si="26"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="I221" s="78">
+        <f t="shared" si="26"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="J221" s="78">
+        <f t="shared" si="26"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="K221" s="78">
+        <f t="shared" si="26"/>
+        <v>9.663545975898731E-2</v>
+      </c>
+      <c r="L221" s="78">
+        <f t="shared" si="26"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="M221" s="78">
+        <f>M209/M212</f>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="N221" s="78">
+        <f t="shared" si="26"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="O221" s="78">
+        <f t="shared" si="26"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="P221" s="78">
+        <f t="shared" si="26"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="Q221" s="78">
+        <f t="shared" si="26"/>
         <v>9.8803952158086336E-2</v>
       </c>
-      <c r="G221" s="79">
+      <c r="R221" s="78">
+        <f t="shared" si="26"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="S221" s="78">
+        <f t="shared" si="26"/>
         <v>9.8803952158086336E-2</v>
       </c>
-      <c r="H221" s="79">
+      <c r="T221" s="78">
+        <f t="shared" si="26"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="U221" s="78">
+        <f t="shared" si="26"/>
+        <v>9.4681124212745368E-2</v>
+      </c>
+      <c r="V221" s="78">
+        <f t="shared" si="26"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="W221" s="78">
+        <f t="shared" si="26"/>
+        <v>9.8803952158086336E-2</v>
+      </c>
+      <c r="X221" s="78">
+        <f t="shared" si="26"/>
+        <v>8.8718631756557781E-2</v>
+      </c>
+      <c r="Y221" s="78">
+        <f t="shared" si="26"/>
+        <v>9.8803952158086336E-2</v>
+      </c>
+      <c r="Z221" s="78">
+        <f t="shared" si="26"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="AA221" s="78">
+        <f t="shared" si="26"/>
         <v>9.8803952158086308E-2</v>
       </c>
-      <c r="I221" s="79">
+      <c r="AB221" s="78">
+        <f t="shared" si="26"/>
+        <v>9.8803952158086308E-2</v>
+      </c>
+      <c r="AC221" s="78">
+        <f t="shared" si="26"/>
         <v>9.8803952158086322E-2</v>
       </c>
-      <c r="J221" s="79">
-        <v>9.8803952158086308E-2</v>
-      </c>
-      <c r="K221" s="79">
-        <v>9.663545975898731E-2</v>
-      </c>
-      <c r="L221" s="79">
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="M221" s="79">
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="N221" s="79">
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="O221" s="79">
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="P221" s="79">
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="Q221" s="79">
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="R221" s="79">
-        <v>9.8803952158086336E-2</v>
-      </c>
-      <c r="S221" s="79">
-        <v>9.8803952158086336E-2</v>
-      </c>
-      <c r="T221" s="79">
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="U221" s="79">
-        <v>9.4681124212745368E-2</v>
-      </c>
-      <c r="V221" s="79">
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="W221" s="79">
-        <v>9.8803952158086336E-2</v>
-      </c>
-      <c r="X221" s="79">
-        <v>8.8718631756557781E-2</v>
-      </c>
-      <c r="Y221" s="79">
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="Z221" s="79">
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="AA221" s="79">
-        <v>9.8803952158086308E-2</v>
-      </c>
-      <c r="AB221" s="79">
-        <v>9.8803952158086308E-2</v>
-      </c>
-      <c r="AC221" s="79">
-        <v>9.8803952158086308E-2</v>
-      </c>
     </row>
     <row r="222" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A222" s="82" t="s">
+      <c r="A222" s="76" t="s">
         <v>233</v>
       </c>
-      <c r="B222" s="76" t="s">
+      <c r="B222" s="71" t="s">
         <v>234</v>
       </c>
-      <c r="C222" s="79">
-        <v>0.86921736291355867</v>
-      </c>
-      <c r="D222" s="79">
+      <c r="C222" s="78">
+        <f>C210/C212</f>
+        <v>0.86921736291355889</v>
+      </c>
+      <c r="D222" s="78">
+        <f t="shared" ref="D222:AC222" si="27">D210/D212</f>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="E222" s="78">
+        <f t="shared" si="27"/>
+        <v>0.86650875377904113</v>
+      </c>
+      <c r="F222" s="78">
+        <f t="shared" si="27"/>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="G222" s="78">
+        <f>G210/G212</f>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="H222" s="78">
+        <f t="shared" si="27"/>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="I222" s="78">
+        <f t="shared" si="27"/>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="J222" s="78">
+        <f t="shared" si="27"/>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="K222" s="78">
+        <f t="shared" si="27"/>
+        <v>0.85666487396870683</v>
+      </c>
+      <c r="L222" s="78">
+        <f t="shared" si="27"/>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="M222" s="78">
+        <f t="shared" si="27"/>
         <v>0.87588836886808796</v>
       </c>
-      <c r="E222" s="79">
-        <v>0.86650875377904113</v>
-      </c>
-      <c r="F222" s="79">
+      <c r="N222" s="78">
+        <f t="shared" si="27"/>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="O222" s="78">
+        <f t="shared" si="27"/>
         <v>0.87588836886808796</v>
       </c>
-      <c r="G222" s="79">
+      <c r="P222" s="78">
+        <f t="shared" si="27"/>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="Q222" s="78">
+        <f t="shared" si="27"/>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="R222" s="78">
+        <f t="shared" si="27"/>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="S222" s="78">
+        <f t="shared" si="27"/>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="T222" s="78">
+        <f t="shared" si="27"/>
+        <v>0.87588836886808796</v>
+      </c>
+      <c r="U222" s="78">
+        <f t="shared" si="27"/>
+        <v>0.83933986078421474</v>
+      </c>
+      <c r="V222" s="78">
+        <f t="shared" si="27"/>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="W222" s="78">
+        <f t="shared" si="27"/>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="X222" s="78">
+        <f>X210/X212</f>
+        <v>0.78648288818576562</v>
+      </c>
+      <c r="Y222" s="78">
+        <f t="shared" si="27"/>
         <v>0.87588836886808819</v>
       </c>
-      <c r="H222" s="79">
+      <c r="Z222" s="78">
+        <f t="shared" si="27"/>
         <v>0.87588836886808807</v>
       </c>
-      <c r="I222" s="79">
+      <c r="AA222" s="78">
+        <f t="shared" si="27"/>
+        <v>0.87588836886808796</v>
+      </c>
+      <c r="AB222" s="78">
+        <f t="shared" si="27"/>
         <v>0.87588836886808807</v>
       </c>
-      <c r="J222" s="79">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="K222" s="79">
-        <v>0.85666487396870672</v>
-      </c>
-      <c r="L222" s="79">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="M222" s="79">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="N222" s="79">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="O222" s="79">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="P222" s="79">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="Q222" s="79">
-        <v>0.87588836886808796</v>
-      </c>
-      <c r="R222" s="79">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="S222" s="79">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="T222" s="79">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="U222" s="79">
-        <v>0.83933986078421463</v>
-      </c>
-      <c r="V222" s="79">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="W222" s="79">
-        <v>0.87588836886808796</v>
-      </c>
-      <c r="X222" s="79">
-        <v>0.78648288818576584</v>
-      </c>
-      <c r="Y222" s="79">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="Z222" s="79">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="AA222" s="79">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="AB222" s="79">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="AC222" s="79">
-        <v>0.87588836886808807</v>
+      <c r="AC222" s="78">
+        <f t="shared" si="27"/>
+        <v>0.87588836886808819</v>
       </c>
     </row>
     <row r="223" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A223" s="82" t="s">
+      <c r="A223" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="B223" s="76" t="s">
+      <c r="B223" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="C223" s="83">
-        <v>7.6162741641953831E-3</v>
-      </c>
-      <c r="D223" s="83">
-        <v>0</v>
-      </c>
-      <c r="E223" s="83">
-        <v>1.0708687799072239E-2</v>
-      </c>
-      <c r="F223" s="83">
-        <v>0</v>
-      </c>
-      <c r="G223" s="83">
-        <v>0</v>
-      </c>
-      <c r="H223" s="83">
-        <v>0</v>
-      </c>
-      <c r="I223" s="83">
-        <v>0</v>
-      </c>
-      <c r="J223" s="83">
-        <v>0</v>
-      </c>
-      <c r="K223" s="83">
-        <v>2.1947425702460065E-2</v>
-      </c>
-      <c r="L223" s="83">
-        <v>0</v>
-      </c>
-      <c r="M223" s="83">
-        <v>0</v>
-      </c>
-      <c r="N223" s="83">
-        <v>0</v>
-      </c>
-      <c r="O223" s="83">
-        <v>0</v>
-      </c>
-      <c r="P223" s="83">
-        <v>0</v>
-      </c>
-      <c r="Q223" s="83">
-        <v>0</v>
-      </c>
-      <c r="R223" s="83">
-        <v>0</v>
-      </c>
-      <c r="S223" s="83">
-        <v>0</v>
-      </c>
-      <c r="T223" s="83">
-        <v>0</v>
-      </c>
-      <c r="U223" s="83">
+      <c r="C223" s="78">
+        <f>C211/C212</f>
+        <v>7.616274164195384E-3</v>
+      </c>
+      <c r="D223" s="78">
+        <f t="shared" ref="D223:AC223" si="28">D211/D212</f>
+        <v>0</v>
+      </c>
+      <c r="E223" s="78">
+        <f t="shared" si="28"/>
+        <v>1.070868779907224E-2</v>
+      </c>
+      <c r="F223" s="78">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="G223" s="78">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H223" s="78">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I223" s="78">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J223" s="78">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="K223" s="78">
+        <f t="shared" si="28"/>
+        <v>2.1947425702460069E-2</v>
+      </c>
+      <c r="L223" s="78">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="M223" s="78">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N223" s="78">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O223" s="78">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P223" s="78">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Q223" s="78">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R223" s="78">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="S223" s="78">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="T223" s="78">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U223" s="78">
+        <f t="shared" si="28"/>
         <v>4.1727358625740237E-2</v>
       </c>
-      <c r="V223" s="83">
-        <v>0</v>
-      </c>
-      <c r="W223" s="83">
-        <v>0</v>
-      </c>
-      <c r="X223" s="83">
+      <c r="V223" s="78">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="W223" s="78">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X223" s="78">
+        <f t="shared" si="28"/>
         <v>0.10207405859020728</v>
       </c>
-      <c r="Y223" s="83">
-        <v>0</v>
-      </c>
-      <c r="Z223" s="83">
-        <v>0</v>
-      </c>
-      <c r="AA223" s="83">
-        <v>0</v>
-      </c>
-      <c r="AB223" s="83">
-        <v>0</v>
-      </c>
-      <c r="AC223" s="83">
+      <c r="Y223" s="78">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z223" s="78">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AA223" s="78">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AB223" s="78">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AC223" s="78">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A224" s="80"/>
-      <c r="B224" s="80" t="s">
+      <c r="A224" s="74"/>
+      <c r="B224" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="C224" s="81">
+      <c r="C224" s="75">
+        <f>SUM(C220:C223)</f>
+        <v>1</v>
+      </c>
+      <c r="D224" s="75">
+        <f t="shared" ref="D224:AC224" si="29">SUM(D220:D223)</f>
+        <v>1</v>
+      </c>
+      <c r="E224" s="75">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="F224" s="75">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="G224" s="75">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="H224" s="75">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="I224" s="75">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="J224" s="75">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="K224" s="75">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="L224" s="75">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="M224" s="75">
+        <f t="shared" si="29"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="D224" s="81">
+      <c r="N224" s="75">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O224" s="75">
+        <f t="shared" si="29"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="E224" s="81">
+      <c r="P224" s="75">
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="F224" s="81">
+      <c r="Q224" s="75">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="R224" s="75">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="S224" s="75">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="T224" s="75">
+        <f t="shared" si="29"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="G224" s="81">
+      <c r="U224" s="75">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="V224" s="75">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="W224" s="75">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="X224" s="75">
+        <f t="shared" si="29"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="Y224" s="75">
+        <f t="shared" si="29"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="H224" s="81">
+      <c r="Z224" s="75">
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="I224" s="81">
+      <c r="AA224" s="75">
+        <f t="shared" si="29"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AB224" s="75">
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="J224" s="81">
-        <v>1</v>
-      </c>
-      <c r="K224" s="81">
-        <v>1</v>
-      </c>
-      <c r="L224" s="81">
-        <v>1</v>
-      </c>
-      <c r="M224" s="81">
-        <v>1</v>
-      </c>
-      <c r="N224" s="81">
-        <v>1</v>
-      </c>
-      <c r="O224" s="81">
-        <v>1</v>
-      </c>
-      <c r="P224" s="81">
-        <v>1</v>
-      </c>
-      <c r="Q224" s="81">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="R224" s="81">
-        <v>1</v>
-      </c>
-      <c r="S224" s="81">
-        <v>1</v>
-      </c>
-      <c r="T224" s="81">
-        <v>1</v>
-      </c>
-      <c r="U224" s="81">
-        <v>1</v>
-      </c>
-      <c r="V224" s="81">
-        <v>1</v>
-      </c>
-      <c r="W224" s="81">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="X224" s="81">
-        <v>1</v>
-      </c>
-      <c r="Y224" s="81">
-        <v>1</v>
-      </c>
-      <c r="Z224" s="81">
-        <v>1</v>
-      </c>
-      <c r="AA224" s="81">
-        <v>1</v>
-      </c>
-      <c r="AB224" s="81">
-        <v>1</v>
-      </c>
-      <c r="AC224" s="81">
-        <v>1</v>
+      <c r="AC224" s="75">
+        <f t="shared" si="29"/>
+        <v>1.0000000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_TRA_BAU.xlsx
+++ b/SuppXLS/Scen_TRA_BAU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_Irish-TIMES-model\tra-updates\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5997BE92-5833-49E8-A748-FCAE31E850D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EC1A96-7186-4B1F-9F6A-2FD62E8FFB53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="248">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -920,9 +920,6 @@
     <t>User constraints for Passenger transport</t>
   </si>
   <si>
-    <t>FX</t>
-  </si>
-  <si>
     <t>UC_Good_GTR</t>
   </si>
   <si>
@@ -930,6 +927,18 @@
   </si>
   <si>
     <t>GTR</t>
+  </si>
+  <si>
+    <t>- all traf produced by T-LGT*</t>
+  </si>
+  <si>
+    <t>0.025 of all traf produced</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>UP</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1320,7 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1456,6 +1465,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="20% - Accent5 2" xfId="9" xr:uid="{0445702F-E158-40C0-A753-3BE54EDCA274}"/>
@@ -3057,8 +3067,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A3:AP233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N72" sqref="N72"/>
+    <sheetView tabSelected="1" topLeftCell="C69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7409,7 +7419,7 @@
         <v>2018</v>
       </c>
       <c r="K72" s="79" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L72" s="22">
         <v>-1</v>
@@ -7418,112 +7428,112 @@
         <v>223</v>
       </c>
       <c r="N72" s="81">
-        <f>ROUNDUP(C229,5)</f>
-        <v>2.512E-2</v>
+        <f>ROUNDDOWN(C229,5)</f>
+        <v>2.511E-2</v>
       </c>
       <c r="O72" s="81">
-        <f t="shared" ref="O72:AN72" si="19">ROUNDUP(D229,5)</f>
-        <v>2.5309999999999999E-2</v>
+        <f t="shared" ref="O72:AN72" si="19">ROUNDDOWN(D229,5)</f>
+        <v>2.53E-2</v>
       </c>
       <c r="P72" s="81">
         <f t="shared" si="19"/>
-        <v>2.504E-2</v>
+        <v>2.503E-2</v>
       </c>
       <c r="Q72" s="81">
         <f t="shared" si="19"/>
-        <v>2.5309999999999999E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="R72" s="81">
         <f t="shared" si="19"/>
-        <v>2.5309999999999999E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="S72" s="81">
         <f t="shared" si="19"/>
-        <v>2.5309999999999999E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="T72" s="81">
         <f t="shared" si="19"/>
-        <v>2.5309999999999999E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="U72" s="81">
         <f t="shared" si="19"/>
-        <v>2.5309999999999999E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="V72" s="81">
         <f t="shared" si="19"/>
-        <v>2.4760000000000001E-2</v>
+        <v>2.4750000000000001E-2</v>
       </c>
       <c r="W72" s="81">
         <f t="shared" si="19"/>
-        <v>2.5309999999999999E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="X72" s="81">
         <f t="shared" si="19"/>
-        <v>2.5309999999999999E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="Y72" s="81">
         <f t="shared" si="19"/>
-        <v>2.5309999999999999E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="Z72" s="81">
         <f t="shared" si="19"/>
-        <v>2.5309999999999999E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="AA72" s="81">
         <f t="shared" si="19"/>
-        <v>2.5309999999999999E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="AB72" s="81">
         <f t="shared" si="19"/>
-        <v>2.5309999999999999E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="AC72" s="81">
         <f t="shared" si="19"/>
-        <v>2.5309999999999999E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="AD72" s="81">
         <f t="shared" si="19"/>
-        <v>2.5309999999999999E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="AE72" s="81">
         <f t="shared" si="19"/>
-        <v>2.5309999999999999E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="AF72" s="81">
         <f t="shared" si="19"/>
-        <v>2.426E-2</v>
+        <v>2.4250000000000001E-2</v>
       </c>
       <c r="AG72" s="81">
         <f t="shared" si="19"/>
-        <v>2.5309999999999999E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="AH72" s="81">
         <f t="shared" si="19"/>
-        <v>2.5309999999999999E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="AI72" s="81">
         <f t="shared" si="19"/>
-        <v>2.273E-2</v>
+        <v>2.2720000000000001E-2</v>
       </c>
       <c r="AJ72" s="81">
         <f t="shared" si="19"/>
-        <v>2.5309999999999999E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="AK72" s="81">
         <f t="shared" si="19"/>
-        <v>2.5309999999999999E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="AL72" s="81">
         <f t="shared" si="19"/>
-        <v>2.5309999999999999E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="AM72" s="81">
         <f t="shared" si="19"/>
-        <v>2.5309999999999999E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="AN72" s="81">
         <f t="shared" si="19"/>
-        <v>2.5309999999999999E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="AO72" s="83">
         <v>0</v>
@@ -7541,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="79" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L73" s="22"/>
       <c r="M73" s="22"/>
@@ -7596,7 +7606,7 @@
         <v>2018</v>
       </c>
       <c r="K74" s="79" t="s">
-        <v>66</v>
+        <v>247</v>
       </c>
       <c r="L74" s="22">
         <v>-1</v>
@@ -7605,112 +7615,112 @@
         <v>224</v>
       </c>
       <c r="N74" s="81">
-        <f>ROUNDUP(C230,5)</f>
-        <v>9.8059999999999994E-2</v>
+        <f>ROUNDDOWN(C230,5)</f>
+        <v>9.8049999999999998E-2</v>
       </c>
       <c r="O74" s="81">
-        <f t="shared" ref="O74:AN74" si="20">ROUNDUP(D230,5)</f>
-        <v>9.8809999999999995E-2</v>
+        <f t="shared" ref="O74:AN74" si="20">ROUNDDOWN(D230,5)</f>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="P74" s="81">
         <f t="shared" si="20"/>
-        <v>9.774999999999999E-2</v>
+        <v>9.7739999999999994E-2</v>
       </c>
       <c r="Q74" s="81">
         <f t="shared" si="20"/>
-        <v>9.8809999999999995E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="R74" s="81">
         <f t="shared" si="20"/>
-        <v>9.8809999999999995E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="S74" s="81">
         <f t="shared" si="20"/>
-        <v>9.8809999999999995E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="T74" s="81">
         <f t="shared" si="20"/>
-        <v>9.8809999999999995E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="U74" s="81">
         <f t="shared" si="20"/>
-        <v>9.8809999999999995E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="V74" s="81">
         <f t="shared" si="20"/>
-        <v>9.663999999999999E-2</v>
+        <v>9.6629999999999994E-2</v>
       </c>
       <c r="W74" s="81">
         <f t="shared" si="20"/>
-        <v>9.8809999999999995E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="X74" s="81">
         <f t="shared" si="20"/>
-        <v>9.8809999999999995E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="Y74" s="81">
         <f t="shared" si="20"/>
-        <v>9.8809999999999995E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="Z74" s="81">
         <f t="shared" si="20"/>
-        <v>9.8809999999999995E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="AA74" s="81">
         <f t="shared" si="20"/>
-        <v>9.8809999999999995E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="AB74" s="81">
         <f t="shared" si="20"/>
-        <v>9.8809999999999995E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="AC74" s="81">
         <f t="shared" si="20"/>
-        <v>9.8809999999999995E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="AD74" s="81">
         <f t="shared" si="20"/>
-        <v>9.8809999999999995E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="AE74" s="81">
         <f t="shared" si="20"/>
-        <v>9.8809999999999995E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="AF74" s="81">
         <f t="shared" si="20"/>
-        <v>9.4689999999999996E-2</v>
+        <v>9.468E-2</v>
       </c>
       <c r="AG74" s="81">
         <f t="shared" si="20"/>
-        <v>9.8809999999999995E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="AH74" s="81">
         <f t="shared" si="20"/>
-        <v>9.8809999999999995E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="AI74" s="81">
         <f t="shared" si="20"/>
-        <v>8.8719999999999993E-2</v>
+        <v>8.8709999999999997E-2</v>
       </c>
       <c r="AJ74" s="81">
         <f t="shared" si="20"/>
-        <v>9.8809999999999995E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="AK74" s="81">
         <f t="shared" si="20"/>
-        <v>9.8809999999999995E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="AL74" s="81">
         <f t="shared" si="20"/>
-        <v>9.8809999999999995E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="AM74" s="81">
         <f t="shared" si="20"/>
-        <v>9.8809999999999995E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="AN74" s="81">
         <f t="shared" si="20"/>
-        <v>9.8809999999999995E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="AO74" s="83">
         <v>0</v>
@@ -7728,7 +7738,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="79" t="s">
-        <v>66</v>
+        <v>247</v>
       </c>
       <c r="L75" s="22"/>
       <c r="M75" s="22"/>
@@ -7783,7 +7793,7 @@
         <v>2018</v>
       </c>
       <c r="K76" s="79" t="s">
-        <v>66</v>
+        <v>247</v>
       </c>
       <c r="L76" s="22">
         <v>-1</v>
@@ -7911,11 +7921,11 @@
       <c r="G77" s="22"/>
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
-      <c r="J77" s="22">
-        <v>0</v>
-      </c>
-      <c r="K77" s="22" t="s">
-        <v>66</v>
+      <c r="J77" s="79">
+        <v>0</v>
+      </c>
+      <c r="K77" s="79" t="s">
+        <v>247</v>
       </c>
       <c r="L77" s="22"/>
       <c r="M77" s="22"/>
@@ -7952,11 +7962,11 @@
     </row>
     <row r="78" spans="3:42" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C78" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D78" s="22"/>
       <c r="E78" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F78" s="22"/>
       <c r="G78" s="22"/>
@@ -7964,17 +7974,17 @@
         <v>236</v>
       </c>
       <c r="I78" s="22"/>
-      <c r="J78" s="37">
+      <c r="J78" s="79">
         <v>2018</v>
       </c>
-      <c r="K78" s="37" t="s">
-        <v>66</v>
+      <c r="K78" s="79" t="s">
+        <v>247</v>
       </c>
       <c r="L78" s="22">
         <v>-1</v>
       </c>
       <c r="M78" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N78" s="81">
         <f>ROUNDDOWN(C232,5)</f>
@@ -8097,11 +8107,11 @@
       <c r="G79" s="20"/>
       <c r="H79" s="20"/>
       <c r="I79" s="20"/>
-      <c r="J79" s="30">
-        <v>0</v>
-      </c>
-      <c r="K79" s="30" t="s">
-        <v>66</v>
+      <c r="J79" s="20">
+        <v>0</v>
+      </c>
+      <c r="K79" s="20" t="s">
+        <v>247</v>
       </c>
       <c r="L79" s="20"/>
       <c r="M79" s="20"/>
@@ -8195,111 +8205,111 @@
       </c>
       <c r="N81" s="85">
         <f>N72+N74+N76+N78</f>
-        <v>1</v>
-      </c>
-      <c r="O81" s="55">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="O81" s="85">
         <f t="shared" ref="O81:AN81" si="23">O72+O74+O76+O78</f>
-        <v>1</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="P81" s="55">
         <f t="shared" si="23"/>
-        <v>0.99999000000000005</v>
+        <v>0.99997000000000014</v>
       </c>
       <c r="Q81" s="55">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="R81" s="55">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="S81" s="55">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="T81" s="55">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="U81" s="55">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="V81" s="55">
         <f t="shared" si="23"/>
-        <v>0.99999999999999989</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="W81" s="55">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="X81" s="55">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="Y81" s="55">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="Z81" s="55">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="AA81" s="55">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="AB81" s="55">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="AC81" s="55">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="AD81" s="55">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="AE81" s="55">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="AF81" s="55">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="AG81" s="55">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="AH81" s="55">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="AI81" s="55">
         <f t="shared" si="23"/>
-        <v>0.99999999999999989</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="AJ81" s="55">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="AK81" s="55">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="AL81" s="55">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="AM81" s="55">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="AN81" s="55">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="AO81" s="22"/>
     </row>
@@ -8427,14 +8437,21 @@
     <row r="85" spans="3:41" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C85" s="22"/>
       <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
+      <c r="E85" s="22" t="s">
+        <v>245</v>
+      </c>
       <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
+      <c r="H85" s="86" t="s">
+        <v>244</v>
+      </c>
       <c r="I85" s="22"/>
       <c r="J85" s="37"/>
-      <c r="K85" s="22"/>
-      <c r="L85" s="22"/>
+      <c r="K85" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="L85" s="22">
+        <v>0</v>
+      </c>
       <c r="N85" s="55"/>
       <c r="O85" s="55"/>
       <c r="P85" s="55"/>

--- a/SuppXLS/Scen_TRA_BAU.xlsx
+++ b/SuppXLS/Scen_TRA_BAU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4672B8-84A1-4BF4-9A8B-5E3E4DE723AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EF7EF5-C28F-4074-9F1E-A622DF2D4C53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2291,8 +2291,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A3:AO168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="J14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD63" sqref="AD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="AH11" s="47">
         <f t="shared" si="0"/>
-        <v>0.30599999999999999</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="AI11" s="47">
         <f t="shared" si="0"/>
@@ -2688,7 +2688,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="O13" s="47">
-        <f t="shared" ref="O13:AN13" si="1">ROUNDUP(D131,3)</f>
+        <f t="shared" ref="O13:AN15" si="1">ROUNDUP(D131,3)</f>
         <v>0.05</v>
       </c>
       <c r="P13" s="47">
@@ -2938,9 +2938,9 @@
         <f t="shared" si="2"/>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="AH15" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="AH15" s="47">
+        <f>ROUNDUP(W132,3)</f>
+        <v>2E-3</v>
       </c>
       <c r="AI15" s="45">
         <f t="shared" si="2"/>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="AH17" s="44">
         <f t="shared" si="3"/>
-        <v>0.57199999999999995</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="AI17" s="44">
         <f t="shared" si="3"/>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="P33" s="45">
         <f t="shared" si="8"/>
-        <v>4.4000000000000003E-3</v>
+        <v>4.2000000000000006E-3</v>
       </c>
       <c r="Q33" s="45">
         <f t="shared" si="8"/>
@@ -4099,9 +4099,9 @@
         <f t="shared" si="8"/>
         <v>2.1999999999999997E-3</v>
       </c>
-      <c r="AH33" s="45">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="AH33" s="44">
+        <f>ROUNDUP(W146,3)</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AI33" s="45">
         <f t="shared" si="8"/>
@@ -4199,7 +4199,7 @@
         <v>0.83499999999999996</v>
       </c>
       <c r="O35" s="44">
-        <f t="shared" ref="O35:AN35" si="9">ROUNDUP(D147,3)</f>
+        <f t="shared" ref="O33:AN35" si="9">ROUNDUP(D147,3)</f>
         <v>0.88200000000000001</v>
       </c>
       <c r="P35" s="44">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="AH35" s="44">
         <f t="shared" si="9"/>
-        <v>0.89</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="AI35" s="44">
         <f t="shared" si="9"/>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="AH39" s="44">
         <f t="shared" si="11"/>
-        <v>0.10100000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AI39" s="44">
         <f t="shared" si="11"/>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="P44" s="45">
         <f t="shared" si="13"/>
-        <v>1.0024</v>
+        <v>1.0022</v>
       </c>
       <c r="Q44" s="45">
         <f t="shared" si="13"/>
@@ -7710,7 +7710,7 @@
         <v>0.29539615700051852</v>
       </c>
       <c r="E130" s="39">
-        <v>0.34966256439645477</v>
+        <v>0.34967728765163869</v>
       </c>
       <c r="F130" s="39">
         <v>0.31311359703458036</v>
@@ -7764,7 +7764,7 @@
         <v>0.31520515014132622</v>
       </c>
       <c r="W130" s="39">
-        <v>0.30543827437637427</v>
+        <v>0.30496664626628506</v>
       </c>
       <c r="X130" s="39">
         <v>0.29765342162432462</v>
@@ -7798,7 +7798,7 @@
         <v>4.9232692833419758E-2</v>
       </c>
       <c r="E131" s="39">
-        <v>5.8277094066075792E-2</v>
+        <v>5.8279547941939784E-2</v>
       </c>
       <c r="F131" s="39">
         <v>5.2185599505763403E-2</v>
@@ -7852,7 +7852,7 @@
         <v>5.2534191690221041E-2</v>
       </c>
       <c r="W131" s="39">
-        <v>5.0906379062729046E-2</v>
+        <v>5.0827774377714179E-2</v>
       </c>
       <c r="X131" s="39">
         <v>4.9608903604054101E-2</v>
@@ -7888,7 +7888,7 @@
         <v>8.4181954391599476E-4</v>
       </c>
       <c r="E132" s="39">
-        <v>1.4736843073167786E-3</v>
+        <v>1.4316393209477573E-3</v>
       </c>
       <c r="F132" s="39">
         <v>1.3698908311171865E-3</v>
@@ -7942,7 +7942,7 @@
         <v>7.9269582890742734E-4</v>
       </c>
       <c r="W132" s="39">
-        <v>0</v>
+        <v>1.544102850410962E-3</v>
       </c>
       <c r="X132" s="39">
         <v>7.4007830335184128E-4</v>
@@ -7976,7 +7976,7 @@
         <v>0.57696936147650701</v>
       </c>
       <c r="E133" s="39">
-        <v>0.41519891685215071</v>
+        <v>0.4152163996490737</v>
       </c>
       <c r="F133" s="39">
         <v>0.53837411623785481</v>
@@ -8030,7 +8030,7 @@
         <v>0.5314898835087899</v>
       </c>
       <c r="W133" s="39">
-        <v>0.5710449216561202</v>
+        <v>0.57016316956487822</v>
       </c>
       <c r="X133" s="39">
         <v>0.54463316447281129</v>
@@ -8066,7 +8066,7 @@
         <v>7.4490307781118984E-3</v>
       </c>
       <c r="E134" s="39">
-        <v>3.2041705931306341E-2</v>
+        <v>3.2043055112662859E-2</v>
       </c>
       <c r="F134" s="39">
         <v>1.4142087272297982E-2</v>
@@ -8120,7 +8120,7 @@
         <v>1.3327262086971724E-2</v>
       </c>
       <c r="W134" s="39">
-        <v>8.2106842864435349E-3</v>
+        <v>8.1980061454330136E-3</v>
       </c>
       <c r="X134" s="39">
         <v>7.2036254203120672E-3</v>
@@ -8154,7 +8154,7 @@
         <v>7.0110938367526743E-2</v>
       </c>
       <c r="E135" s="39">
-        <v>0.1139689510378053</v>
+        <v>0.11397374993285452</v>
       </c>
       <c r="F135" s="39">
         <v>8.0814709118386313E-2</v>
@@ -8208,7 +8208,7 @@
         <v>8.6650816743783748E-2</v>
       </c>
       <c r="W135" s="39">
-        <v>6.4399740618333048E-2</v>
+        <v>6.4300300795278542E-2</v>
       </c>
       <c r="X135" s="39">
         <v>0.10016080657514609</v>
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="E136" s="39">
-        <v>2.9377083408890298E-2</v>
+        <v>2.9378320390882739E-2</v>
       </c>
       <c r="F136" s="39">
         <v>0</v>
@@ -8906,7 +8906,7 @@
         <v>2.1586268841599747E-3</v>
       </c>
       <c r="E146" s="39">
-        <v>4.3137182635283444E-3</v>
+        <v>4.1909857054726746E-3</v>
       </c>
       <c r="F146" s="39">
         <v>3.6319751739066989E-3</v>
@@ -8960,7 +8960,7 @@
         <v>2.1106258862285242E-3</v>
       </c>
       <c r="W146" s="39">
-        <v>0</v>
+        <v>4.0260002016890241E-3</v>
       </c>
       <c r="X146" s="39">
         <v>1.9054783663146626E-3</v>
@@ -8994,7 +8994,7 @@
         <v>0.88136996225712338</v>
       </c>
       <c r="E147" s="39">
-        <v>0.7240198055510555</v>
+        <v>0.72410905133504211</v>
       </c>
       <c r="F147" s="39">
         <v>0.85033097733510543</v>
@@ -9048,7 +9048,7 @@
         <v>0.84303694258501916</v>
       </c>
       <c r="W147" s="39">
-        <v>0.88919219682824724</v>
+        <v>0.88561230886447639</v>
       </c>
       <c r="X147" s="39">
         <v>0.83536706688667051</v>
@@ -9084,7 +9084,7 @@
         <v>9.3709663140288998E-3</v>
       </c>
       <c r="E148" s="39">
-        <v>4.6013893098741668E-2</v>
+        <v>4.6019564968395495E-2</v>
       </c>
       <c r="F148" s="39">
         <v>1.8394858695029128E-2</v>
@@ -9138,7 +9138,7 @@
         <v>1.7408913059663488E-2</v>
       </c>
       <c r="W148" s="39">
-        <v>1.0528920260910977E-2</v>
+        <v>1.0486530825816983E-2</v>
       </c>
       <c r="X148" s="39">
         <v>9.0992061135074936E-3</v>
@@ -9172,7 +9172,7 @@
         <v>0.10710044454468777</v>
       </c>
       <c r="E149" s="39">
-        <v>0.19873794082808949</v>
+        <v>0.19876243811835848</v>
       </c>
       <c r="F149" s="39">
         <v>0.12764218879595873</v>
@@ -9226,7 +9226,7 @@
         <v>0.13744351846908884</v>
       </c>
       <c r="W149" s="39">
-        <v>0.10027888291084175</v>
+        <v>9.9875160108017558E-2</v>
       </c>
       <c r="X149" s="39">
         <v>0.15362824863350735</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="E150" s="39">
-        <v>2.6914642258584892E-2</v>
+        <v>2.6917959872731177E-2</v>
       </c>
       <c r="F150" s="39">
         <v>0</v>
@@ -9436,7 +9436,7 @@
         <v>1</v>
       </c>
       <c r="E152" s="43">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="F152" s="43">
         <v>1</v>
@@ -9490,7 +9490,7 @@
         <v>1</v>
       </c>
       <c r="W152" s="43">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="X152" s="43">
         <v>1</v>
